--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Report.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Report.xlsx
@@ -51,48 +51,48 @@
     <t>T106</t>
   </si>
   <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>D104</t>
+  </si>
+  <si>
     <t>D102</t>
   </si>
   <si>
     <t>D103</t>
   </si>
   <si>
-    <t>D101</t>
-  </si>
-  <si>
-    <t>D104</t>
-  </si>
-  <si>
     <t>R101</t>
   </si>
   <si>
     <t>H101</t>
   </si>
   <si>
+    <t>H109</t>
+  </si>
+  <si>
+    <t>H107</t>
+  </si>
+  <si>
+    <t>H108</t>
+  </si>
+  <si>
+    <t>H106</t>
+  </si>
+  <si>
+    <t>H105</t>
+  </si>
+  <si>
+    <t>H103</t>
+  </si>
+  <si>
     <t>H102</t>
   </si>
   <si>
-    <t>H109</t>
-  </si>
-  <si>
-    <t>H107</t>
-  </si>
-  <si>
-    <t>H108</t>
-  </si>
-  <si>
-    <t>H103</t>
-  </si>
-  <si>
-    <t>H105</t>
-  </si>
-  <si>
     <t>H104</t>
   </si>
   <si>
-    <t>H106</t>
-  </si>
-  <si>
     <t>C103</t>
   </si>
   <si>
@@ -111,42 +111,42 @@
     <t>P105</t>
   </si>
   <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
     <t>P109</t>
   </si>
   <si>
-    <t>P107</t>
-  </si>
-  <si>
-    <t>P108</t>
-  </si>
-  <si>
-    <t>P106</t>
-  </si>
-  <si>
     <t>C101</t>
   </si>
   <si>
+    <t>T102</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T108</t>
+  </si>
+  <si>
+    <t>T109</t>
+  </si>
+  <si>
     <t>T101</t>
   </si>
   <si>
-    <t>T105</t>
+    <t>T110</t>
   </si>
   <si>
     <t>T104</t>
   </si>
   <si>
-    <t>T108</t>
-  </si>
-  <si>
-    <t>T102</t>
-  </si>
-  <si>
-    <t>T109</t>
-  </si>
-  <si>
-    <t>T110</t>
-  </si>
-  <si>
     <t>T107</t>
   </si>
   <si>
@@ -249,90 +249,90 @@
     <t>Cumilative NPV</t>
   </si>
   <si>
+    <t>recycle_nitrogen</t>
+  </si>
+  <si>
+    <t>s.13</t>
+  </si>
+  <si>
+    <t>octene</t>
+  </si>
+  <si>
+    <t>cell_recycle</t>
+  </si>
+  <si>
+    <t>LAOs_to_separations</t>
+  </si>
+  <si>
+    <t>boiler_makeup_water</t>
+  </si>
+  <si>
+    <t>mixed_bioreactor_feed</t>
+  </si>
+  <si>
+    <t>wastewater</t>
+  </si>
+  <si>
+    <t>natural_gas</t>
+  </si>
+  <si>
+    <t>solvent_recycle</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>boiler_chemicals</t>
+  </si>
+  <si>
     <t>aqueous_fraction</t>
   </si>
   <si>
-    <t>boiler_chemicals</t>
+    <t>s.12</t>
+  </si>
+  <si>
+    <t>emissions</t>
   </si>
   <si>
     <t>cell_mass</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
     <t>rejected_water_and_blowdown</t>
   </si>
   <si>
     <t>ash_disposal</t>
   </si>
   <si>
-    <t>lime</t>
-  </si>
-  <si>
     <t>tridecane</t>
   </si>
   <si>
     <t>process_water</t>
   </si>
   <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>decene</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
     <t>oil_fraction</t>
   </si>
   <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>vent</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>s.12</t>
-  </si>
-  <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>recycle_nitrogen</t>
-  </si>
-  <si>
-    <t>cell_recycle</t>
-  </si>
-  <si>
-    <t>s.13</t>
-  </si>
-  <si>
-    <t>decene</t>
-  </si>
-  <si>
-    <t>mixed_bioreactor_feed</t>
-  </si>
-  <si>
-    <t>LAOs_to_separations</t>
-  </si>
-  <si>
-    <t>wastewater</t>
-  </si>
-  <si>
-    <t>boiler_makeup_water</t>
-  </si>
-  <si>
     <t>hexene</t>
   </si>
   <si>
-    <t>solvent_recycle</t>
-  </si>
-  <si>
-    <t>natural_gas</t>
-  </si>
-  <si>
-    <t>octene</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
@@ -576,24 +576,24 @@
     <t>Tryptone</t>
   </si>
   <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>liquid</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>gas</t>
+    <t>M102</t>
   </si>
   <si>
     <t>M101</t>
   </si>
   <si>
-    <t>M102</t>
-  </si>
-  <si>
-    <t>M103</t>
-  </si>
-  <si>
     <t>M105</t>
   </si>
   <si>
@@ -630,10 +630,10 @@
     <t>medium_pressure_steam</t>
   </si>
   <si>
+    <t>high_pressure_steam</t>
+  </si>
+  <si>
     <t>low_pressure_steam</t>
-  </si>
-  <si>
-    <t>high_pressure_steam</t>
   </si>
   <si>
     <t>chilled_water</t>
@@ -1040,10 +1040,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>292</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>263</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1061,7 +1061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="178469925" cy="43348275"/>
+          <a:ext cx="160610550" cy="33242250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1399,13 +1399,13 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>0.5463560844646644</v>
+        <v>0.5461869815044834</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9986045774306201</v>
+        <v>0.9983641207046456</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1416,13 +1416,13 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <v>0.04592009843101661</v>
+        <v>0.0530806838493226</v>
       </c>
       <c r="D4">
-        <v>0.00150856243762007</v>
+        <v>0.001885793139752646</v>
       </c>
       <c r="E4">
-        <v>0.1062803416400715</v>
+        <v>0.1233971480981377</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1433,13 +1433,13 @@
         <v>45</v>
       </c>
       <c r="C5">
-        <v>3.394258727657926</v>
+        <v>3.392107447716019</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.394258727657926</v>
+        <v>3.392107447716019</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1467,13 +1467,13 @@
         <v>47</v>
       </c>
       <c r="C7">
-        <v>0.3224964528089202</v>
+        <v>0.3224953409611119</v>
       </c>
       <c r="D7">
-        <v>-0.05483426762790902</v>
+        <v>-0.05483400287218398</v>
       </c>
       <c r="E7">
-        <v>0.5562263398064284</v>
+        <v>0.5562243920646215</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1484,13 +1484,13 @@
         <v>48</v>
       </c>
       <c r="C8">
-        <v>0.07255231896649464</v>
+        <v>0.0725524123072247</v>
       </c>
       <c r="D8">
-        <v>0.0009195807380359595</v>
+        <v>0.0009195825224465322</v>
       </c>
       <c r="E8">
-        <v>0.1288568727669351</v>
+        <v>0.1288570397525333</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1501,13 +1501,13 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>1.063212263646949</v>
+        <v>1.103546391314603</v>
       </c>
       <c r="D9">
-        <v>0.3847341445282005</v>
+        <v>2.287448731895427</v>
       </c>
       <c r="E9">
-        <v>4.292630460688251</v>
+        <v>4.020233225864552</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1518,13 +1518,13 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>0.4205910584935882</v>
+        <v>0.4499523896066411</v>
       </c>
       <c r="D10">
-        <v>0.4287970019228818</v>
+        <v>0.4475883959776414</v>
       </c>
       <c r="E10">
-        <v>1.781181686235598</v>
+        <v>1.822782123963143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1535,13 +1535,13 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>1.103597987999857</v>
+        <v>1.063233470545962</v>
       </c>
       <c r="D11">
-        <v>2.287575008394823</v>
+        <v>0.3848260616716224</v>
       </c>
       <c r="E11">
-        <v>4.020418005137477</v>
+        <v>4.292697635724743</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1552,13 +1552,13 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>0.4499523896066786</v>
+        <v>0.4205910583838812</v>
       </c>
       <c r="D12">
-        <v>0.4475883959769122</v>
+        <v>0.4287969931823899</v>
       </c>
       <c r="E12">
-        <v>1.822782123963077</v>
+        <v>1.781181686038126</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1569,13 +1569,13 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>7.169244939273433</v>
+        <v>7.169250663250073</v>
       </c>
       <c r="D13">
-        <v>2.039070647546353</v>
+        <v>2.039070802848565</v>
       </c>
       <c r="E13">
-        <v>10.95825133557677</v>
+        <v>10.95826004878306</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1586,13 +1586,13 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>0.004599298264793981</v>
+        <v>0.004603987431454468</v>
       </c>
       <c r="D14">
-        <v>0.04388098354464243</v>
+        <v>0.04416307973226815</v>
       </c>
       <c r="E14">
-        <v>0.008278736876629165</v>
+        <v>0.008287177376618042</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1603,13 +1603,13 @@
         <v>51</v>
       </c>
       <c r="C15">
-        <v>0.7003122269830719</v>
+        <v>0.1487926333907455</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.03591330028524377</v>
       </c>
       <c r="E15">
-        <v>2.219989759536338</v>
+        <v>0.4716726478486632</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1620,13 +1620,13 @@
         <v>51</v>
       </c>
       <c r="C16">
-        <v>0.1487926937185986</v>
+        <v>0.08452793993655817</v>
       </c>
       <c r="D16">
-        <v>0.03591331949858708</v>
+        <v>0.00609097972027638</v>
       </c>
       <c r="E16">
-        <v>0.4716728390879577</v>
+        <v>0.2679535695988894</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1637,13 +1637,13 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>0.08452793993655718</v>
+        <v>0.08470064506025948</v>
       </c>
       <c r="D17">
-        <v>0.006090979720276013</v>
+        <v>0.008277681648619351</v>
       </c>
       <c r="E17">
-        <v>0.2679535695988862</v>
+        <v>0.2685010448410226</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1654,13 +1654,13 @@
         <v>51</v>
       </c>
       <c r="C18">
-        <v>0.08470064506025948</v>
+        <v>0.08774471072861138</v>
       </c>
       <c r="D18">
-        <v>0.00827768164861937</v>
+        <v>0.003326304512711984</v>
       </c>
       <c r="E18">
-        <v>0.2685010448410226</v>
+        <v>0.2781507330096981</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1671,13 +1671,13 @@
         <v>51</v>
       </c>
       <c r="C19">
-        <v>0.3122356934445326</v>
+        <v>0.1686094645071645</v>
       </c>
       <c r="D19">
-        <v>0.9745218900918353</v>
+        <v>8.23174475514314e-05</v>
       </c>
       <c r="E19">
-        <v>0.9897871482191681</v>
+        <v>0.5296309566231588</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1688,13 +1688,13 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>0.1686082680761643</v>
+        <v>0.3122082311172535</v>
       </c>
       <c r="D20">
-        <v>8.234616408312899e-05</v>
+        <v>0.9744271352359924</v>
       </c>
       <c r="E20">
-        <v>0.5296268926516461</v>
+        <v>0.9897000926416937</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1705,13 +1705,13 @@
         <v>51</v>
       </c>
       <c r="C21">
-        <v>0.183805481794609</v>
+        <v>0.7000291876699096</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5826633772889107</v>
+        <v>2.219092524913614</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1722,13 +1722,13 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>0.08774471291628531</v>
+        <v>0.1837104564313743</v>
       </c>
       <c r="D22">
-        <v>0.003326304710873259</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2781507399446244</v>
+        <v>0.5823621468874565</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1739,13 +1739,13 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>0.1815322217167394</v>
+        <v>0.181532207548334</v>
       </c>
       <c r="D23">
-        <v>0.02076685663837166</v>
+        <v>0.02076685381462251</v>
       </c>
       <c r="E23">
-        <v>0.3685104100849809</v>
+        <v>0.3685103813231179</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1756,13 +1756,13 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>0.3078754087687888</v>
+        <v>0.3078114853600144</v>
       </c>
       <c r="D24">
-        <v>0.05212660057835662</v>
+        <v>0.05210774677500792</v>
       </c>
       <c r="E24">
-        <v>0.6249870798006413</v>
+        <v>0.6248573152808292</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1773,13 +1773,13 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>0.01770172164111972</v>
+        <v>0.01770173822419197</v>
       </c>
       <c r="D25">
-        <v>0.002349844838328017</v>
+        <v>0.002349852059378421</v>
       </c>
       <c r="E25">
-        <v>0.05362324237998627</v>
+        <v>0.05362328274530752</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1790,13 +1790,13 @@
         <v>54</v>
       </c>
       <c r="C26">
-        <v>0.01872311603363273</v>
+        <v>0.01872290930537275</v>
       </c>
       <c r="D26">
-        <v>0.02054692534540766</v>
+        <v>0.02054695415955488</v>
       </c>
       <c r="E26">
-        <v>0.06178628291098801</v>
+        <v>0.0617856007077301</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1807,13 +1807,13 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>0.01052680871279691</v>
+        <v>0.01052560448793644</v>
       </c>
       <c r="D27">
-        <v>0.004873674702934292</v>
+        <v>0.004871351119769241</v>
       </c>
       <c r="E27">
-        <v>0.03473846875222981</v>
+        <v>0.03473449481019024</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1824,13 +1824,13 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>0.01222849451952386</v>
+        <v>0.01222736621088994</v>
       </c>
       <c r="D28">
-        <v>0.007477432455868171</v>
+        <v>0.00747523874692289</v>
       </c>
       <c r="E28">
-        <v>0.04035403191442875</v>
+        <v>0.04035030849593679</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1841,13 +1841,13 @@
         <v>54</v>
       </c>
       <c r="C29">
-        <v>0.01052670614840592</v>
+        <v>0.01182231581395203</v>
       </c>
       <c r="D29">
-        <v>0.004873470045469257</v>
+        <v>0.007180670441874959</v>
       </c>
       <c r="E29">
-        <v>0.03473813028973955</v>
+        <v>0.03901364218604172</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1858,13 +1858,13 @@
         <v>54</v>
       </c>
       <c r="C30">
-        <v>0.01182344286751071</v>
+        <v>0.01674668783330084</v>
       </c>
       <c r="D30">
-        <v>0.007182854851060095</v>
+        <v>0.005670535907908128</v>
       </c>
       <c r="E30">
-        <v>0.03901736146278534</v>
+        <v>0.05526406984989278</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1875,13 +1875,13 @@
         <v>54</v>
       </c>
       <c r="C31">
-        <v>0.01674917116261439</v>
+        <v>0.01196073439933391</v>
       </c>
       <c r="D31">
-        <v>0.005673392516355126</v>
+        <v>0.007246728670411976</v>
       </c>
       <c r="E31">
-        <v>0.05527226483662751</v>
+        <v>0.0394704235178019</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1892,13 +1892,13 @@
         <v>54</v>
       </c>
       <c r="C32">
-        <v>0.01196186708154622</v>
+        <v>0.01052550192646001</v>
       </c>
       <c r="D32">
-        <v>0.007248928418534623</v>
+        <v>0.004871146459659138</v>
       </c>
       <c r="E32">
-        <v>0.03947416136910251</v>
+        <v>0.03473415635731804</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1909,13 +1909,13 @@
         <v>55</v>
       </c>
       <c r="C33">
-        <v>0.6113095762833187</v>
+        <v>0.6113101377095466</v>
       </c>
       <c r="D33">
-        <v>0.1721967318515688</v>
+        <v>0.1721970073661946</v>
       </c>
       <c r="E33">
-        <v>1.240958439855137</v>
+        <v>1.240959579550379</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1926,13 +1926,13 @@
         <v>56</v>
       </c>
       <c r="C34">
-        <v>0.07187093620191588</v>
+        <v>0.07162038277544368</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.1653031532644065</v>
+        <v>0.1647268803835205</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1943,13 +1943,13 @@
         <v>56</v>
       </c>
       <c r="C35">
-        <v>0.1343290006770938</v>
+        <v>0.1343291032699806</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.3089567015573157</v>
+        <v>0.3089569375209554</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1960,13 +1960,13 @@
         <v>56</v>
       </c>
       <c r="C36">
-        <v>0.07024283180813086</v>
+        <v>0.4303711637965343</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.161558513158701</v>
+        <v>0.9898536767320288</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1977,13 +1977,13 @@
         <v>56</v>
       </c>
       <c r="C37">
-        <v>0.430371165512955</v>
+        <v>0.4703660631239097</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.9898536806797964</v>
+        <v>1.081841945184992</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1994,13 +1994,13 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>0.07162125709372277</v>
+        <v>0.07187093620191588</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.1647288913155624</v>
+        <v>0.1653031532644065</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2011,13 +2011,13 @@
         <v>56</v>
       </c>
       <c r="C39">
-        <v>0.4703660631238952</v>
+        <v>0.8046087092538</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.081841945184959</v>
+        <v>1.85060003128374</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2028,13 +2028,13 @@
         <v>56</v>
       </c>
       <c r="C40">
-        <v>0.8046087092538007</v>
+        <v>0.07024281000487018</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1.850600031283741</v>
+        <v>0.1615584630112014</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2045,13 +2045,13 @@
         <v>57</v>
       </c>
       <c r="C41">
-        <v>0.07117892707389846</v>
+        <v>0.07117857604605242</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.1637115322699664</v>
+        <v>0.1637107249059205</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2076,13 +2076,13 @@
         <v>59</v>
       </c>
       <c r="C45">
-        <v>11.78064701550553</v>
+        <v>11.78132468962391</v>
       </c>
       <c r="D45">
-        <v>-3.392585418194096</v>
+        <v>-3.392727026766037</v>
       </c>
       <c r="E45">
-        <v>21.32944757860515</v>
+        <v>21.33067329532525</v>
       </c>
     </row>
   </sheetData>
@@ -2153,10 +2153,10 @@
         <v>2014</v>
       </c>
       <c r="B2">
-        <v>5671474.6825062</v>
+        <v>5672572.273290033</v>
       </c>
       <c r="C2">
-        <v>10208654.42851116</v>
+        <v>10210630.09192206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4083461.771404464</v>
+        <v>4084252.036768824</v>
       </c>
       <c r="G2">
-        <v>326676.9417123571</v>
+        <v>326740.1629415059</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4410138.713116821</v>
+        <v>4410992.199710329</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-6125192.657106696</v>
+        <v>-6126378.055153235</v>
       </c>
       <c r="N2">
         <v>2.42</v>
       </c>
       <c r="O2">
-        <v>-14822966.23019821</v>
+        <v>-14825834.89347083</v>
       </c>
       <c r="P2">
-        <v>-7411483.115099103</v>
+        <v>-7412917.446735416</v>
       </c>
       <c r="Q2">
-        <v>-14822966.23019821</v>
+        <v>-14825834.89347083</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2206,10 +2206,10 @@
         <v>2015</v>
       </c>
       <c r="B3">
-        <v>42536060.1187965</v>
+        <v>42544292.04967524</v>
       </c>
       <c r="C3">
-        <v>76564908.21383369</v>
+        <v>76579725.68941543</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30625963.28553348</v>
+        <v>30631890.27576618</v>
       </c>
       <c r="G3">
-        <v>2802888.159892024</v>
+        <v>2803430.598038121</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37838990.15854232</v>
+        <v>37846313.07351463</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-45938944.92830022</v>
+        <v>-45947835.41364925</v>
       </c>
       <c r="N3">
         <v>2.2</v>
       </c>
       <c r="O3">
-        <v>-101065678.8422605</v>
+        <v>-101085237.9100284</v>
       </c>
       <c r="P3">
-        <v>-57944322.53622934</v>
+        <v>-57955536.4017496</v>
       </c>
       <c r="Q3">
-        <v>-115888645.0724587</v>
+        <v>-115911072.8034992</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2259,28 +2259,28 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>22685898.7300248</v>
+        <v>22690289.09316013</v>
       </c>
       <c r="C4">
-        <v>40834617.71404464</v>
+        <v>40842520.36768823</v>
       </c>
       <c r="D4">
-        <v>6380409.017819475</v>
+        <v>6381643.807451286</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18886010.69274565</v>
+        <v>18889665.67005581</v>
       </c>
       <c r="G4">
-        <v>4538000.068103038</v>
+        <v>4538878.299485635</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>61263000.91939101</v>
+        <v>61274857.04305607</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-28329016.03911847</v>
+        <v>-28334498.50508371</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>-56658032.07823694</v>
+        <v>-56668997.01016742</v>
       </c>
       <c r="P4">
-        <v>-86273338.57534781</v>
+        <v>-86290034.90683331</v>
       </c>
       <c r="Q4">
-        <v>-172546677.1506956</v>
+        <v>-172580069.8136666</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2321,43 +2321,43 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7882547.876841716</v>
+        <v>7884379.257837039</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4901040.07355128</v>
+        <v>4901988.563444486</v>
       </c>
       <c r="H5">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I5">
-        <v>57034047.28967153</v>
+        <v>57045084.9917662</v>
       </c>
       <c r="J5">
-        <v>162141376.8987687</v>
+        <v>162186363.1912523</v>
       </c>
       <c r="K5">
-        <v>-3344703.264509248</v>
+        <v>170309024.5570869</v>
       </c>
       <c r="L5">
-        <v>-182498621.7433904</v>
+        <v>-8893478.506736722</v>
       </c>
       <c r="M5">
-        <v>-174616073.8665487</v>
+        <v>-1009099.248899682</v>
       </c>
       <c r="N5">
         <v>1.818181818181818</v>
       </c>
       <c r="O5">
-        <v>-317483770.6664521</v>
+        <v>-1834725.907090332</v>
       </c>
       <c r="P5">
-        <v>-245015223.9085739</v>
+        <v>-87207397.86037847</v>
       </c>
       <c r="Q5">
-        <v>-490030447.8171477</v>
+        <v>-174414795.7207569</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2374,43 +2374,43 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13677992.98052121</v>
+        <v>13681141.28677349</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4562723.783173722</v>
+        <v>4563606.799341297</v>
       </c>
       <c r="H6">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I6">
-        <v>52466777.3695745</v>
+        <v>52476931.17637315</v>
       </c>
       <c r="J6">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K6">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L6">
-        <v>-199147626.3418798</v>
+        <v>-739120.1955599664</v>
       </c>
       <c r="M6">
-        <v>-185469633.3613586</v>
+        <v>12942021.09121352</v>
       </c>
       <c r="N6">
         <v>1.652892561983471</v>
       </c>
       <c r="O6">
-        <v>-306561377.456791</v>
+        <v>21391770.39870004</v>
       </c>
       <c r="P6">
-        <v>-398295912.6369694</v>
+        <v>-76631003.09836602</v>
       </c>
       <c r="Q6">
-        <v>-796591825.2739388</v>
+        <v>-153023025.3220569</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2427,43 +2427,43 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10092908.3579546</v>
+        <v>10095175.42905682</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4197342.18956596</v>
+        <v>4198154.494109852</v>
       </c>
       <c r="H7">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I7">
-        <v>47534125.85586971</v>
+        <v>47543325.05574866</v>
       </c>
       <c r="J7">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K7">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L7">
-        <v>-195562541.7193132</v>
+        <v>1850449.680401861</v>
       </c>
       <c r="M7">
-        <v>-185469633.3613586</v>
+        <v>11945625.10945868</v>
       </c>
       <c r="N7">
         <v>1.502629601803155</v>
       </c>
       <c r="O7">
-        <v>-278692161.3243555</v>
+        <v>17949849.90151566</v>
       </c>
       <c r="P7">
-        <v>-537641993.2991471</v>
+        <v>-67928663.57990211</v>
       </c>
       <c r="Q7">
-        <v>-1075283986.598294</v>
+        <v>-135073175.4205413</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2480,43 +2480,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7508061.82242546</v>
+        <v>7509698.05654018</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3802730.068469577</v>
+        <v>3803466.004459892</v>
       </c>
       <c r="H8">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I8">
-        <v>42206862.22106854</v>
+        <v>42215030.4454742</v>
       </c>
       <c r="J8">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K8">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L8">
-        <v>-192977695.1837841</v>
+        <v>3531009.972537674</v>
       </c>
       <c r="M8">
-        <v>-185469633.3613586</v>
+        <v>11040708.02907785</v>
       </c>
       <c r="N8">
         <v>1.366026910730141</v>
       </c>
       <c r="O8">
-        <v>-253356510.2948686</v>
+        <v>15081904.28123469</v>
       </c>
       <c r="P8">
-        <v>-664320248.4465815</v>
+        <v>-60610020.38820656</v>
       </c>
       <c r="Q8">
-        <v>-1328640496.893163</v>
+        <v>-119991271.1393066</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2533,43 +2533,43 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5644615.285743818</v>
+        <v>5645801.040149386</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3376548.977685483</v>
+        <v>3377202.435637936</v>
       </c>
       <c r="H9">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I9">
-        <v>36453417.49548327</v>
+        <v>36460472.26637778</v>
       </c>
       <c r="J9">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K9">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L9">
-        <v>-191114248.6471024</v>
+        <v>4742543.03319169</v>
       </c>
       <c r="M9">
-        <v>-185469633.3613586</v>
+        <v>10388344.07334108</v>
       </c>
       <c r="N9">
         <v>1.24184264611831</v>
       </c>
       <c r="O9">
-        <v>-230324100.2680624</v>
+        <v>12900688.69282534</v>
       </c>
       <c r="P9">
-        <v>-779482298.5806128</v>
+        <v>-54340265.74237616</v>
       </c>
       <c r="Q9">
-        <v>-1558964597.161225</v>
+        <v>-107090582.4464812</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2586,43 +2586,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5548368.851512115</v>
+        <v>5549548.110433314</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2916273.399638662</v>
+        <v>2916837.781310223</v>
       </c>
       <c r="H10">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I10">
-        <v>30239697.19185118</v>
+        <v>30245549.43295366</v>
       </c>
       <c r="J10">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K10">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L10">
-        <v>-191018002.2128707</v>
+        <v>4805107.437507137</v>
       </c>
       <c r="M10">
-        <v>-185469633.3613586</v>
+        <v>10354655.54794045</v>
       </c>
       <c r="N10">
         <v>1.128947860107554</v>
       </c>
       <c r="O10">
-        <v>-209385545.6982385</v>
+        <v>11689866.22299819</v>
       </c>
       <c r="P10">
-        <v>-884175071.429732</v>
+        <v>-48641468.25369129</v>
       </c>
       <c r="Q10">
-        <v>-1768350142.859464</v>
+        <v>-95400716.22348304</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2639,43 +2639,43 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5468647.343220325</v>
+        <v>5469822.985462952</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2419175.775348094</v>
+        <v>2419643.954636293</v>
       </c>
       <c r="H11">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I11">
-        <v>23528879.26392852</v>
+        <v>23533432.77285561</v>
       </c>
       <c r="J11">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K11">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L11">
-        <v>-190938280.7045789</v>
+        <v>4856928.768737872</v>
       </c>
       <c r="M11">
-        <v>-185469633.3613586</v>
+        <v>10326751.75420082</v>
       </c>
       <c r="N11">
         <v>1.026316236461413</v>
       </c>
       <c r="O11">
-        <v>-190350496.0893077</v>
+        <v>10598512.99524268</v>
       </c>
       <c r="P11">
-        <v>-979350319.4743859</v>
+        <v>-43459852.84391412</v>
       </c>
       <c r="Q11">
-        <v>-1958700638.948772</v>
+        <v>-84802203.22824036</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2692,43 +2692,43 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3175071.392995942</v>
+        <v>3175684.059802295</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1882310.341114282</v>
+        <v>1882674.621828448</v>
       </c>
       <c r="H12">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I12">
-        <v>16281195.90177205</v>
+        <v>16284346.77994971</v>
       </c>
       <c r="J12">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K12">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L12">
-        <v>-188644704.7543546</v>
+        <v>6348119.070417299</v>
       </c>
       <c r="M12">
-        <v>-185469633.3613586</v>
+        <v>9523803.130219594</v>
       </c>
       <c r="N12">
         <v>0.9330147604194662</v>
       </c>
       <c r="O12">
-        <v>-173045905.5357342</v>
+        <v>8885848.895823997</v>
       </c>
       <c r="P12">
-        <v>-1065873272.242253</v>
+        <v>-39111127.7154384</v>
       </c>
       <c r="Q12">
-        <v>-2131746544.484506</v>
+        <v>-75916354.33241636</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2745,43 +2745,43 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9517199.50957362</v>
+        <v>9517746.424374126</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1302495.672141764</v>
+        <v>1302747.742395977</v>
       </c>
       <c r="H13">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I13">
-        <v>8453697.870643063</v>
+        <v>8455333.907611333</v>
       </c>
       <c r="J13">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K13">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L13">
-        <v>-194986832.8709323</v>
+        <v>2225778.533445609</v>
       </c>
       <c r="M13">
-        <v>-185469633.3613586</v>
+        <v>11743524.95781974</v>
       </c>
       <c r="N13">
         <v>0.8481952367449691</v>
       </c>
       <c r="O13">
-        <v>-157314459.5779402</v>
+        <v>9960801.931818364</v>
       </c>
       <c r="P13">
-        <v>-1144530502.031223</v>
+        <v>-35485945.65516313</v>
       </c>
       <c r="Q13">
-        <v>-2289061004.062446</v>
+        <v>-65955552.40059799</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2798,43 +2798,43 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>951506.6564815759</v>
+        <v>951561.3357044593</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>676295.8296514449</v>
+        <v>676426.7126089067</v>
       </c>
       <c r="H14">
-        <v>9129993.703270752</v>
+        <v>9131760.614734348</v>
       </c>
       <c r="I14">
-        <v>-0.002976244490128011</v>
+        <v>0.005485892586875707</v>
       </c>
       <c r="J14">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K14">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L14">
-        <v>-186421140.0178402</v>
+        <v>7793798.841080892</v>
       </c>
       <c r="M14">
-        <v>-185469633.3613586</v>
+        <v>8745360.176785352</v>
       </c>
       <c r="N14">
         <v>0.7710865788590628</v>
       </c>
       <c r="O14">
-        <v>-143013145.0708548</v>
+        <v>6743429.859607706</v>
       </c>
       <c r="P14">
-        <v>-1216037074.566651</v>
+        <v>-32190325.60036743</v>
       </c>
       <c r="Q14">
-        <v>-2432074149.133301</v>
+        <v>-59212122.54099029</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>951719.9509573621</v>
+        <v>951774.6424374126</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2866,28 +2866,28 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K15">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L15">
-        <v>-177291359.6090452</v>
+        <v>13729304.5912818</v>
       </c>
       <c r="M15">
-        <v>-176339639.6580879</v>
+        <v>14681079.23371921</v>
       </c>
       <c r="N15">
         <v>0.7009877989627844</v>
       </c>
       <c r="O15">
-        <v>-123611935.8738136</v>
+        <v>10291257.41844307</v>
       </c>
       <c r="P15">
-        <v>-1278110820.74152</v>
+        <v>-27044696.8911459</v>
       </c>
       <c r="Q15">
-        <v>-2555686085.007114</v>
+        <v>-48920865.12254721</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>951506.6564815759</v>
+        <v>951561.3357044593</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2919,28 +2919,28 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K16">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L16">
-        <v>-177291146.3145694</v>
+        <v>13729443.24065822</v>
       </c>
       <c r="M16">
-        <v>-176339639.6580879</v>
+        <v>14681004.57636268</v>
       </c>
       <c r="N16">
         <v>0.637261635420713</v>
       </c>
       <c r="O16">
-        <v>-112374487.1580123</v>
+        <v>9355640.985951852</v>
       </c>
       <c r="P16">
-        <v>-1334541522.869078</v>
+        <v>-22366876.39816997</v>
       </c>
       <c r="Q16">
-        <v>-2668060572.165127</v>
+        <v>-39565224.13659535</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>951719.9509573621</v>
+        <v>951774.6424374126</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2972,28 +2972,28 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K17">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L17">
-        <v>-177291359.6090452</v>
+        <v>13729304.5912818</v>
       </c>
       <c r="M17">
-        <v>-176339639.6580879</v>
+        <v>14681079.23371921</v>
       </c>
       <c r="N17">
         <v>0.5793287594733754</v>
       </c>
       <c r="O17">
-        <v>-102158624.6891021</v>
+        <v>8505171.420200884</v>
       </c>
       <c r="P17">
-        <v>-1385842139.542524</v>
+        <v>-18114290.68806953</v>
       </c>
       <c r="Q17">
-        <v>-2770219196.854229</v>
+        <v>-31060052.71639447</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>951506.6564815759</v>
+        <v>951561.3357044593</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3025,28 +3025,28 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K18">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L18">
-        <v>-177291146.3145694</v>
+        <v>13729443.24065822</v>
       </c>
       <c r="M18">
-        <v>-176339639.6580879</v>
+        <v>14681004.57636268</v>
       </c>
       <c r="N18">
         <v>0.5266625086121595</v>
       </c>
       <c r="O18">
-        <v>-92871476.9900928</v>
+        <v>7731934.699133761</v>
       </c>
       <c r="P18">
-        <v>-1432479083.449597</v>
+        <v>-14248323.33850265</v>
       </c>
       <c r="Q18">
-        <v>-2863090673.844322</v>
+        <v>-23328118.01726071</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>951719.9509573621</v>
+        <v>951774.6424374126</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3078,28 +3078,28 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K19">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L19">
-        <v>-177291359.6090452</v>
+        <v>13729304.5912818</v>
       </c>
       <c r="M19">
-        <v>-176339639.6580879</v>
+        <v>14681079.23371921</v>
       </c>
       <c r="N19">
         <v>0.4787840987383267</v>
       </c>
       <c r="O19">
-        <v>-84428615.44553889</v>
+        <v>7029067.289422217</v>
       </c>
       <c r="P19">
-        <v>-1474876287.311948</v>
+        <v>-10733789.69379154</v>
       </c>
       <c r="Q19">
-        <v>-2947519289.289861</v>
+        <v>-16299050.72783849</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>951506.6564815759</v>
+        <v>951561.3357044593</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3131,28 +3131,28 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K20">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L20">
-        <v>-177291146.3145694</v>
+        <v>13729443.24065822</v>
       </c>
       <c r="M20">
-        <v>-176339639.6580879</v>
+        <v>14681004.57636268</v>
       </c>
       <c r="N20">
         <v>0.435258271580297</v>
       </c>
       <c r="O20">
-        <v>-76753286.76867172</v>
+        <v>6390028.676970049</v>
       </c>
       <c r="P20">
-        <v>-1513419216.160769</v>
+        <v>-7538775.355306521</v>
       </c>
       <c r="Q20">
-        <v>-3024272576.058532</v>
+        <v>-9909022.05086844</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>951719.9509573621</v>
+        <v>951774.6424374126</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K21">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L21">
-        <v>-177291359.6090452</v>
+        <v>13729304.5912818</v>
       </c>
       <c r="M21">
-        <v>-176339639.6580879</v>
+        <v>14681079.23371921</v>
       </c>
       <c r="N21">
         <v>0.3956893378002699</v>
       </c>
       <c r="O21">
-        <v>-69775715.244247</v>
+        <v>5809146.52018365</v>
       </c>
       <c r="P21">
-        <v>-1548458227.617258</v>
+        <v>-4634202.095214695</v>
       </c>
       <c r="Q21">
-        <v>-3094048291.302779</v>
+        <v>-4099875.530684791</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>951506.6564815759</v>
+        <v>951561.3357044593</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3237,28 +3237,28 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K22">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L22">
-        <v>-177291146.3145694</v>
+        <v>13729443.24065822</v>
       </c>
       <c r="M22">
-        <v>-176339639.6580879</v>
+        <v>14681004.57636268</v>
       </c>
       <c r="N22">
         <v>0.3597175798184272</v>
       </c>
       <c r="O22">
-        <v>-63432468.40386091</v>
+        <v>5281015.435512436</v>
       </c>
       <c r="P22">
-        <v>-1580311887.822895</v>
+        <v>-1993694.377458479</v>
       </c>
       <c r="Q22">
-        <v>-3157480759.70664</v>
+        <v>1181139.904827645</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>951719.9509573621</v>
+        <v>951774.6424374126</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3290,28 +3290,28 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K23">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L23">
-        <v>-177291359.6090452</v>
+        <v>13729304.5912818</v>
       </c>
       <c r="M23">
-        <v>-176339639.6580879</v>
+        <v>14681079.23371921</v>
       </c>
       <c r="N23">
         <v>0.3270159816531156</v>
       </c>
       <c r="O23">
-        <v>-57665880.36714628</v>
+        <v>4800947.537341859</v>
       </c>
       <c r="P23">
-        <v>-1609269748.530737</v>
+        <v>406779.3912124485</v>
       </c>
       <c r="Q23">
-        <v>-3215146640.073787</v>
+        <v>5982087.442169504</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>951506.6564815759</v>
+        <v>951561.3357044593</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3343,28 +3343,28 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K24">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L24">
-        <v>-177291146.3145694</v>
+        <v>13729443.24065822</v>
       </c>
       <c r="M24">
-        <v>-176339639.6580879</v>
+        <v>14681004.57636268</v>
       </c>
       <c r="N24">
         <v>0.2972872560482869</v>
       </c>
       <c r="O24">
-        <v>-52423527.60649662</v>
+        <v>4364475.566539203</v>
       </c>
       <c r="P24">
-        <v>-1635595087.54366</v>
+        <v>2589017.174482051</v>
       </c>
       <c r="Q24">
-        <v>-3267570167.680284</v>
+        <v>10346563.00870871</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>475859.975478681</v>
+        <v>475887.3212187063</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3396,28 +3396,28 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K25">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L25">
-        <v>-176815499.6335666</v>
+        <v>14038631.35007396</v>
       </c>
       <c r="M25">
-        <v>-176339639.6580879</v>
+        <v>14514518.67129266</v>
       </c>
       <c r="N25">
         <v>0.2702611418620789</v>
       </c>
       <c r="O25">
-        <v>-47657752.36954237</v>
+        <v>3922710.389682021</v>
       </c>
       <c r="P25">
-        <v>-1659549709.961692</v>
+        <v>4550372.369323064</v>
       </c>
       <c r="Q25">
-        <v>-3315227920.049826</v>
+        <v>14269273.39839073</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3449,28 +3449,28 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K26">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L26">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M26">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N26">
         <v>0.2456919471473445</v>
       </c>
       <c r="O26">
-        <v>-43325229.4268567</v>
+        <v>3525177.765355847</v>
       </c>
       <c r="P26">
-        <v>-1681347099.551321</v>
+        <v>6312961.252000988</v>
       </c>
       <c r="Q26">
-        <v>-3358553149.476683</v>
+        <v>17794451.16374658</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3502,28 +3502,28 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K27">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L27">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M27">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N27">
         <v>0.223356315588495</v>
       </c>
       <c r="O27">
-        <v>-39386572.20623336</v>
+        <v>3204707.059414406</v>
       </c>
       <c r="P27">
-        <v>-1701162908.269166</v>
+        <v>7915314.781708188</v>
       </c>
       <c r="Q27">
-        <v>-3397939721.682916</v>
+        <v>20999158.22316098</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3555,28 +3555,28 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K28">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L28">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M28">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N28">
         <v>0.2030511959895409</v>
       </c>
       <c r="O28">
-        <v>-35805974.73293941</v>
+        <v>2913370.054013096</v>
       </c>
       <c r="P28">
-        <v>-1719177279.830842</v>
+        <v>9371999.808714736</v>
       </c>
       <c r="Q28">
-        <v>-3433745696.415855</v>
+        <v>23912528.27717408</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3608,28 +3608,28 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K29">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L29">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M29">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N29">
         <v>0.184591996354128</v>
       </c>
       <c r="O29">
-        <v>-32550886.12085401</v>
+        <v>2648518.230920997</v>
       </c>
       <c r="P29">
-        <v>-1735553981.250549</v>
+        <v>10696258.92417523</v>
       </c>
       <c r="Q29">
-        <v>-3466296582.536709</v>
+        <v>26561046.50809507</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3661,28 +3661,28 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K30">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L30">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M30">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N30">
         <v>0.16781090577648</v>
       </c>
       <c r="O30">
-        <v>-29591714.65532183</v>
+        <v>2407743.846291815</v>
       </c>
       <c r="P30">
-        <v>-1750441891.6321</v>
+        <v>11900130.84732114</v>
       </c>
       <c r="Q30">
-        <v>-3495888297.192031</v>
+        <v>28968790.35438689</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3714,28 +3714,28 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K31">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L31">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M31">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N31">
         <v>0.1525553688877091</v>
       </c>
       <c r="O31">
-        <v>-26901558.77756529</v>
+        <v>2188858.042083468</v>
       </c>
       <c r="P31">
-        <v>-1763976355.615328</v>
+        <v>12994559.86836288</v>
       </c>
       <c r="Q31">
-        <v>-3522789855.969596</v>
+        <v>31157648.39647036</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3767,28 +3767,28 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K32">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L32">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M32">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N32">
         <v>0.1386866989888264</v>
       </c>
       <c r="O32">
-        <v>-24455962.52505935</v>
+        <v>1989870.947348607</v>
       </c>
       <c r="P32">
-        <v>-1776280413.781899</v>
+        <v>13989495.34203718</v>
       </c>
       <c r="Q32">
-        <v>-3547245818.494656</v>
+        <v>33147519.34381896</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3820,28 +3820,28 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K33">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L33">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M33">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="N33">
         <v>0.1260788172625695</v>
       </c>
       <c r="O33">
-        <v>-22232693.20459942</v>
+        <v>1808973.588498734</v>
       </c>
       <c r="P33">
-        <v>-1787465921.206055</v>
+        <v>14893982.13628655</v>
       </c>
       <c r="Q33">
-        <v>-3569478511.699255</v>
+        <v>34956492.9323177</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-6380409.017819475</v>
+        <v>-6381643.807451286</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3873,28 +3873,28 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>172517121.6415059</v>
+        <v>172565103.5021515</v>
       </c>
       <c r="K34">
-        <v>-3822518.016581998</v>
+        <v>194638885.2080993</v>
       </c>
       <c r="L34">
-        <v>-176339639.6580879</v>
+        <v>14347958.10886612</v>
       </c>
       <c r="M34">
-        <v>-169959230.6402684</v>
+        <v>20729601.9163174</v>
       </c>
       <c r="N34">
         <v>0.1146171066023359</v>
       </c>
       <c r="O34">
-        <v>-19480235.25634664</v>
+        <v>2375966.992666538</v>
       </c>
       <c r="P34">
-        <v>-1797268912.308642</v>
+        <v>16081965.63261982</v>
       </c>
       <c r="Q34">
-        <v>-3588958746.955602</v>
+        <v>37332459.92498423</v>
       </c>
     </row>
   </sheetData>
@@ -4124,97 +4124,97 @@
         <v>145</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="O3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="R3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="S3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V3" t="s">
+        <v>187</v>
+      </c>
+      <c r="W3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>186</v>
-      </c>
-      <c r="T3" t="s">
-        <v>186</v>
-      </c>
-      <c r="U3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
       <c r="X3" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="Y3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB3" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" t="s">
-        <v>186</v>
-      </c>
       <c r="AC3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AE3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" t="s">
         <v>35</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>39</v>
       </c>
       <c r="AG3" t="s">
         <v>28</v>
@@ -4223,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="AI3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s">
         <v>9</v>
@@ -4244,22 +4244,22 @@
         <v>34</v>
       </c>
       <c r="AP3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AR3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AS3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
       </c>
       <c r="AU3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV3" t="s">
         <v>29</v>
@@ -4271,31 +4271,31 @@
         <v>25</v>
       </c>
       <c r="AY3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AZ3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD3" t="s">
         <v>12</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>12</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>10</v>
       </c>
       <c r="BF3" t="s">
         <v>191</v>
       </c>
       <c r="BG3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BH3" t="s">
         <v>24</v>
@@ -4304,31 +4304,31 @@
         <v>26</v>
       </c>
       <c r="BJ3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BK3" t="s">
         <v>24</v>
       </c>
       <c r="BL3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO3" t="s">
         <v>11</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BP3" t="s">
         <v>11</v>
       </c>
-      <c r="BN3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>13</v>
-      </c>
       <c r="BQ3" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR3" t="s">
         <v>18</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:70">
@@ -4336,91 +4336,91 @@
         <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" t="s">
+        <v>190</v>
+      </c>
+      <c r="U4" t="s">
         <v>189</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>187</v>
+      </c>
+      <c r="X4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" t="s">
         <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s">
-        <v>190</v>
-      </c>
-      <c r="S4" t="s">
-        <v>189</v>
-      </c>
-      <c r="T4" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" t="s">
-        <v>186</v>
-      </c>
-      <c r="V4" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>39</v>
       </c>
       <c r="AE4" t="s">
         <v>189</v>
@@ -4453,22 +4453,22 @@
         <v>34</v>
       </c>
       <c r="AO4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AP4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AQ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR4" t="s">
         <v>21</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>20</v>
       </c>
       <c r="AS4" t="s">
         <v>4</v>
       </c>
       <c r="AT4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="s">
         <v>42</v>
@@ -4477,70 +4477,70 @@
         <v>25</v>
       </c>
       <c r="AW4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AX4" t="s">
         <v>26</v>
       </c>
       <c r="AY4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="s">
         <v>26</v>
       </c>
       <c r="BB4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC4" t="s">
         <v>191</v>
       </c>
       <c r="BD4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BE4" t="s">
         <v>191</v>
       </c>
       <c r="BF4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BG4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH4" t="s">
         <v>26</v>
       </c>
       <c r="BI4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BJ4" t="s">
         <v>24</v>
       </c>
       <c r="BK4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM4" t="s">
         <v>11</v>
       </c>
-      <c r="BL4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>13</v>
-      </c>
       <c r="BN4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>38</v>
       </c>
-      <c r="BO4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>40</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:70">
@@ -4548,211 +4548,211 @@
         <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="R5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="U5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="W5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Y5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AA5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AB5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AC5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AD5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AE5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AF5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AH5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AI5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AJ5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AK5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AL5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AM5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AN5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AO5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AP5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AR5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AS5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AT5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AU5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AV5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AW5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AX5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AY5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AZ5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BA5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BB5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BC5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BD5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BE5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BF5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BG5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BH5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BI5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BJ5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BK5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BL5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BM5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BN5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BO5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BP5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BQ5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BR5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:70">
@@ -4760,211 +4760,211 @@
         <v>148</v>
       </c>
       <c r="B6">
-        <v>127788.6048320552</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6455.866504653408</v>
+        <v>3231.363601277002</v>
       </c>
       <c r="E6">
-        <v>8225.392644755513</v>
+        <v>597.2184238831452</v>
       </c>
       <c r="F6">
-        <v>1113.091636300853</v>
+        <v>41598.85966068391</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1113.179755462834</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>204067.3453688225</v>
       </c>
       <c r="I6">
-        <v>-5.165938528394374</v>
+        <v>129412.0994844702</v>
       </c>
       <c r="J6">
-        <v>119490.5965645081</v>
+        <v>1648.812997220415</v>
       </c>
       <c r="K6">
-        <v>41613.98067766536</v>
+        <v>24567.75416167951</v>
       </c>
       <c r="L6">
-        <v>50.89128362109326</v>
+        <v>0</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>127814.2927571345</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>8226.362492180246</v>
+      </c>
+      <c r="Q6">
+        <v>6455.362989956299</v>
+      </c>
+      <c r="R6">
+        <v>1113.179755462834</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>-5.165262233558894</v>
+      </c>
+      <c r="U6">
+        <v>119414.9026202852</v>
+      </c>
+      <c r="V6">
+        <v>1194.436847766291</v>
+      </c>
+      <c r="W6">
+        <v>28198.82996104787</v>
+      </c>
+      <c r="X6">
         <v>57730.56443411019</v>
       </c>
-      <c r="N6">
-        <v>28198.82996104788</v>
-      </c>
-      <c r="O6">
-        <v>1195.193958566692</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>408.1115367149835</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>597.5969792833458</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>9663.05981539761</v>
-      </c>
-      <c r="V6">
-        <v>204057.2819754218</v>
-      </c>
-      <c r="W6">
-        <v>41613.98067766536</v>
-      </c>
-      <c r="X6">
-        <v>129386.3732616555</v>
-      </c>
       <c r="Y6">
-        <v>1113.091636300853</v>
+        <v>510.1637936877045</v>
       </c>
       <c r="Z6">
-        <v>2538.875385278507</v>
+        <v>9663.059815397593</v>
       </c>
       <c r="AA6">
-        <v>24582.91344611212</v>
+        <v>50.89138237364515</v>
       </c>
       <c r="AB6">
-        <v>1648.618610328185</v>
+        <v>41598.8596606839</v>
       </c>
       <c r="AC6">
-        <v>3231.363601276806</v>
+        <v>2538.875354994076</v>
       </c>
       <c r="AD6">
-        <v>24584.32721861737</v>
+        <v>24569.16786671635</v>
       </c>
       <c r="AE6">
         <v>57730.56443411019</v>
       </c>
       <c r="AF6">
-        <v>24584.32721861737</v>
+        <v>24569.16786671635</v>
       </c>
       <c r="AG6">
-        <v>24584.32721861737</v>
+        <v>24569.16786671635</v>
       </c>
       <c r="AH6">
-        <v>408.1115367149835</v>
+        <v>510.1637936877045</v>
       </c>
       <c r="AI6">
-        <v>1195.193958566692</v>
+        <v>1194.436847766291</v>
       </c>
       <c r="AJ6">
-        <v>50.89128362109326</v>
+        <v>50.89138237364515</v>
       </c>
       <c r="AK6">
-        <v>204055.7683574918</v>
+        <v>204065.5174750818</v>
       </c>
       <c r="AL6">
-        <v>175858.4520143739</v>
+        <v>175868.5154077746</v>
       </c>
       <c r="AM6">
-        <v>175858.4520143739</v>
+        <v>175868.5154077746</v>
       </c>
       <c r="AN6">
-        <v>175858.4520143739</v>
+        <v>175868.5154077746</v>
       </c>
       <c r="AO6">
-        <v>41613.98067766536</v>
+        <v>41598.8596606839</v>
       </c>
       <c r="AP6">
-        <v>41613.98067766536</v>
+        <v>41598.8596606839</v>
       </c>
       <c r="AQ6">
-        <v>41613.98067766536</v>
+        <v>41598.85966068391</v>
       </c>
       <c r="AR6">
-        <v>41613.98067766536</v>
+        <v>41598.8596606839</v>
       </c>
       <c r="AS6">
-        <v>41613.98067766536</v>
+        <v>41598.8596606839</v>
       </c>
       <c r="AT6">
-        <v>41613.98067766536</v>
+        <v>41598.85966068391</v>
       </c>
       <c r="AU6">
-        <v>41613.98067766536</v>
+        <v>41598.85966068391</v>
       </c>
       <c r="AV6">
-        <v>41613.98067766536</v>
+        <v>41598.85966068391</v>
       </c>
       <c r="AW6">
-        <v>39511.98110506828</v>
+        <v>39496.88734407564</v>
       </c>
       <c r="AX6">
-        <v>2101.99957259708</v>
+        <v>2101.972316608266</v>
       </c>
       <c r="AY6">
-        <v>39511.98110506828</v>
+        <v>39496.88734407564</v>
       </c>
       <c r="AZ6">
-        <v>39511.98110506828</v>
+        <v>39496.88734407564</v>
       </c>
       <c r="BA6">
-        <v>23566.91523547522</v>
+        <v>23551.8245029256</v>
       </c>
       <c r="BB6">
-        <v>18061.72081448041</v>
+        <v>18060.20871278887</v>
       </c>
       <c r="BC6">
-        <v>21450.26029058787</v>
+        <v>21436.67863128676</v>
       </c>
       <c r="BD6">
-        <v>15945.06586959307</v>
+        <v>15945.06284115004</v>
       </c>
       <c r="BE6">
-        <v>2116.654944887342</v>
+        <v>2115.145871638834</v>
       </c>
       <c r="BF6">
-        <v>23566.91523547522</v>
+        <v>23551.8245029256</v>
       </c>
       <c r="BG6">
-        <v>23566.91523547522</v>
+        <v>23551.8245029256</v>
       </c>
       <c r="BH6">
-        <v>511.7670676401408</v>
+        <v>511.7640694813714</v>
       </c>
       <c r="BI6">
-        <v>24582.91344611212</v>
+        <v>24567.75416167951</v>
       </c>
       <c r="BJ6">
-        <v>15945.06586959307</v>
+        <v>15945.06284115004</v>
       </c>
       <c r="BK6">
-        <v>15433.29880195292</v>
+        <v>15433.29877166867</v>
       </c>
       <c r="BL6">
-        <v>2538.875385278507</v>
+        <v>2538.875354994076</v>
       </c>
       <c r="BM6">
-        <v>12894.42341667442</v>
+        <v>12894.42341667459</v>
       </c>
       <c r="BN6">
-        <v>2538.875385278507</v>
+        <v>2538.875354994076</v>
       </c>
       <c r="BO6">
-        <v>3231.363601276806</v>
+        <v>3231.363601277002</v>
       </c>
       <c r="BP6">
-        <v>9663.05981539761</v>
+        <v>9663.059815397593</v>
       </c>
       <c r="BQ6">
-        <v>3231.363601276806</v>
+        <v>3231.363601277002</v>
       </c>
       <c r="BR6">
-        <v>9663.05981539761</v>
+        <v>9663.059815397593</v>
       </c>
     </row>
     <row r="7" spans="1:70">
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -5401,100 +5401,100 @@
         <v>152</v>
       </c>
       <c r="B10">
-        <v>97.43478151979896</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>1.547410096713111e-17</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5.614396200477505</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>58.53150319604134</v>
+      </c>
+      <c r="I10">
+        <v>97.93481991822955</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.1171307725065485</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>97.35616496956442</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>45.01565840905166</v>
+      </c>
+      <c r="Q10">
         <v>45</v>
       </c>
-      <c r="E10">
-        <v>45.01565840905167</v>
-      </c>
-      <c r="F10">
+      <c r="R10">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>99.99999999999999</v>
       </c>
-      <c r="K10">
-        <v>0.1225229333473765</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
-        <v>58.57149262189279</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>5.612428906415431</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>98.0126196591261</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.09199171783715594</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.1171282454964953</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.1224946688262951</v>
       </c>
       <c r="AC10">
-        <v>1.547410096713205e-17</v>
+        <v>0.09199052610583335</v>
       </c>
       <c r="AD10">
-        <v>0.1171449269485085</v>
+        <v>0.1171474609967035</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.1171449269485085</v>
+        <v>0.1171474609967035</v>
       </c>
       <c r="AG10">
-        <v>0.1171449269485085</v>
+        <v>0.1171474609967035</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -5506,103 +5506,103 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>58.57192708577556</v>
+        <v>58.53202748534631</v>
       </c>
       <c r="AL10">
-        <v>72.48254096527391</v>
+        <v>72.43534361269958</v>
       </c>
       <c r="AM10">
-        <v>72.48254096527391</v>
+        <v>72.43534361269958</v>
       </c>
       <c r="AN10">
-        <v>72.48254096527391</v>
+        <v>72.43534361269958</v>
       </c>
       <c r="AO10">
-        <v>0.1225229333473765</v>
+        <v>0.1224946688262951</v>
       </c>
       <c r="AP10">
-        <v>0.1225229333473765</v>
+        <v>0.1224946688262951</v>
       </c>
       <c r="AQ10">
-        <v>5.612428906415431</v>
+        <v>5.614396200477505</v>
       </c>
       <c r="AR10">
-        <v>0.1225229333473765</v>
+        <v>0.1224946688262951</v>
       </c>
       <c r="AS10">
-        <v>0.1225229333473765</v>
+        <v>0.1224946688262951</v>
       </c>
       <c r="AT10">
-        <v>5.612428906415431</v>
+        <v>5.614396200477505</v>
       </c>
       <c r="AU10">
-        <v>5.612428906415431</v>
+        <v>5.614396200477505</v>
       </c>
       <c r="AV10">
-        <v>5.612428906415431</v>
+        <v>5.614396200477505</v>
       </c>
       <c r="AW10">
-        <v>0.5911004751831683</v>
+        <v>0.5913186970622698</v>
       </c>
       <c r="AX10">
         <v>100</v>
       </c>
       <c r="AY10">
-        <v>0.5911004751831683</v>
+        <v>0.5913186970622698</v>
       </c>
       <c r="AZ10">
-        <v>0.5911004751831683</v>
+        <v>0.5913186970622698</v>
       </c>
       <c r="BA10">
-        <v>4.293686729061989e-13</v>
+        <v>4.295079118523551e-13</v>
       </c>
       <c r="BB10">
-        <v>1.293096657097011</v>
+        <v>1.293188153787256</v>
       </c>
       <c r="BC10">
-        <v>4.71737637775376e-13</v>
+        <v>4.718872329317322e-13</v>
       </c>
       <c r="BD10">
-        <v>1.464750976737117</v>
+        <v>1.464732261953221</v>
       </c>
       <c r="BE10">
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>4.293686729061989e-13</v>
+        <v>4.295079118523551e-13</v>
       </c>
       <c r="BG10">
-        <v>4.293686729061989e-13</v>
+        <v>4.295079118523551e-13</v>
       </c>
       <c r="BH10">
-        <v>45.18070184777219</v>
+        <v>45.18038069009562</v>
       </c>
       <c r="BI10">
-        <v>0.1171282454964953</v>
+        <v>0.1171307725065485</v>
       </c>
       <c r="BJ10">
-        <v>1.464750976737117</v>
+        <v>1.464732261953221</v>
       </c>
       <c r="BK10">
-        <v>0.01513322012768178</v>
+        <v>0.01513302392951649</v>
       </c>
       <c r="BL10">
-        <v>0.09199171783715594</v>
+        <v>0.09199052610583335</v>
       </c>
       <c r="BM10">
-        <v>3.877835015330123e-18</v>
+        <v>3.87783501533007e-18</v>
       </c>
       <c r="BN10">
-        <v>0.09199171783715594</v>
+        <v>0.09199052610583335</v>
       </c>
       <c r="BO10">
-        <v>1.547410096713205e-17</v>
+        <v>1.547410096713111e-17</v>
       </c>
       <c r="BP10">
         <v>0</v>
       </c>
       <c r="BQ10">
-        <v>1.547410096713205e-17</v>
+        <v>1.547410096713111e-17</v>
       </c>
       <c r="BR10">
         <v>0</v>
@@ -6249,34 +6249,34 @@
         <v>156</v>
       </c>
       <c r="B14">
-        <v>0.06353611583760436</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.001258904426291245</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>57.23117278663954</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.70630063920827</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.845936803971484e-05</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>57.24664065828513</v>
+        <v>97.2357167356617</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06348310677322874</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.001258205088923385</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6309,13 +6309,13 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>11.71429852437856</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>57.24664065828514</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>1.847474142445971e-05</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -6324,25 +6324,25 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>97.2373516538058</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>57.23117278663955</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>97.23218764039132</v>
+        <v>97.23054962593049</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>97.23218764039132</v>
+        <v>97.23054962593049</v>
       </c>
       <c r="AG14">
-        <v>97.23218764039132</v>
+        <v>97.23054962593049</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -6354,82 +6354,82 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>11.71438541715511</v>
+        <v>11.70640549706926</v>
       </c>
       <c r="AL14">
-        <v>13.59268144210665</v>
+        <v>13.58329368957064</v>
       </c>
       <c r="AM14">
-        <v>13.59268144210665</v>
+        <v>13.58329368957064</v>
       </c>
       <c r="AN14">
-        <v>13.59268144210665</v>
+        <v>13.58329368957064</v>
       </c>
       <c r="AO14">
-        <v>57.24664065828513</v>
+        <v>57.23117278663955</v>
       </c>
       <c r="AP14">
-        <v>57.24664065828513</v>
+        <v>57.23117278663955</v>
       </c>
       <c r="AQ14">
-        <v>57.24664065828514</v>
+        <v>57.23117278663954</v>
       </c>
       <c r="AR14">
-        <v>57.24664065828513</v>
+        <v>57.23117278663955</v>
       </c>
       <c r="AS14">
-        <v>57.24664065828513</v>
+        <v>57.23117278663955</v>
       </c>
       <c r="AT14">
-        <v>57.24664065828514</v>
+        <v>57.23117278663954</v>
       </c>
       <c r="AU14">
-        <v>57.24664065828514</v>
+        <v>57.23117278663954</v>
       </c>
       <c r="AV14">
-        <v>57.24664065828514</v>
+        <v>57.23117278663954</v>
       </c>
       <c r="AW14">
-        <v>60.29210714290286</v>
+        <v>60.27694041375825</v>
       </c>
       <c r="AX14">
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>60.29210714290286</v>
+        <v>60.27694041375825</v>
       </c>
       <c r="AZ14">
-        <v>60.29210714290286</v>
+        <v>60.27694041375825</v>
       </c>
       <c r="BA14">
-        <v>99.9579286972307</v>
+        <v>99.95790174054311</v>
       </c>
       <c r="BB14">
-        <v>13.18955498584181</v>
+        <v>13.18230349841916</v>
       </c>
       <c r="BC14">
-        <v>99.95377721986871</v>
+        <v>99.953747934802</v>
       </c>
       <c r="BD14">
-        <v>1.665754516854555</v>
+        <v>1.66575483323102</v>
       </c>
       <c r="BE14">
-        <v>99.99999992391804</v>
+        <v>99.99999992391803</v>
       </c>
       <c r="BF14">
-        <v>99.9579286972307</v>
+        <v>99.95790174054311</v>
       </c>
       <c r="BG14">
-        <v>99.9579286972307</v>
+        <v>99.95790174054311</v>
       </c>
       <c r="BH14">
-        <v>51.89971604912772</v>
+        <v>51.90002010249539</v>
       </c>
       <c r="BI14">
-        <v>97.2373516538058</v>
+        <v>97.2357167356617</v>
       </c>
       <c r="BJ14">
-        <v>1.665754516854555</v>
+        <v>1.66575483323102</v>
       </c>
       <c r="BK14">
         <v>0</v>
@@ -6885,13 +6885,13 @@
         <v>159</v>
       </c>
       <c r="B17">
-        <v>1.053267175631178</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02086943295146453</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -6903,16 +6903,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2256185678131684</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6843553854235416</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.820224913577751</v>
+        <v>1.873662336622645</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.053055491572123</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.02087106075554428</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -6945,13 +6945,13 @@
         <v>0</v>
       </c>
       <c r="V17">
-        <v>0.2256296945339814</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0.684491457551433</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -6960,25 +6960,25 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>1.872506925147363</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>6.822704037707038</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>1.872794068762737</v>
+        <v>1.87394959606755</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.872794068762737</v>
+        <v>1.87394959606755</v>
       </c>
       <c r="AG17">
-        <v>1.872794068762737</v>
+        <v>1.87394959606755</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -6990,31 +6990,31 @@
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>0.2256313681801318</v>
+        <v>0.2256205887659143</v>
       </c>
       <c r="AL17">
-        <v>2.380021978694639</v>
+        <v>2.379885791171714</v>
       </c>
       <c r="AM17">
-        <v>2.380021978694639</v>
+        <v>2.379885791171714</v>
       </c>
       <c r="AN17">
-        <v>2.380021978694639</v>
+        <v>2.379885791171714</v>
       </c>
       <c r="AO17">
-        <v>6.820224913577751</v>
+        <v>6.822704037707038</v>
       </c>
       <c r="AP17">
-        <v>6.820224913577751</v>
+        <v>6.822704037707038</v>
       </c>
       <c r="AQ17">
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>6.820224913577751</v>
+        <v>6.822704037707038</v>
       </c>
       <c r="AS17">
-        <v>6.820224913577751</v>
+        <v>6.822704037707038</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>1.872506925147363</v>
+        <v>1.873662336622645</v>
       </c>
       <c r="BJ17">
         <v>0</v>
@@ -7097,13 +7097,13 @@
         <v>160</v>
       </c>
       <c r="B18">
-        <v>0.118138101280173</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002340788017249701</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -7115,16 +7115,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.06370389534878158</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01644850173387175</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.900702661956448</v>
+        <v>0.527849143719229</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1181143580615609</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.002340970597403804</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7157,13 +7157,13 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0.06370703700270271</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0.01645177223145125</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -7172,25 +7172,25 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.5275236405877678</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>8.903938031319843</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.5287874952963736</v>
+        <v>0.5291137609544349</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.5287874952963736</v>
+        <v>0.5291137609544349</v>
       </c>
       <c r="AG18">
-        <v>0.5287874952963736</v>
+        <v>0.5291137609544349</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -7202,31 +7202,31 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>0.06370750956034836</v>
+        <v>0.06370446596920296</v>
       </c>
       <c r="AL18">
-        <v>2.192135090077144</v>
+        <v>2.192009653652394</v>
       </c>
       <c r="AM18">
-        <v>2.192135090077144</v>
+        <v>2.192009653652394</v>
       </c>
       <c r="AN18">
-        <v>2.192135090077144</v>
+        <v>2.192009653652394</v>
       </c>
       <c r="AO18">
-        <v>8.900702661956448</v>
+        <v>8.903938031319843</v>
       </c>
       <c r="AP18">
-        <v>8.900702661956448</v>
+        <v>8.903938031319843</v>
       </c>
       <c r="AQ18">
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>8.900702661956448</v>
+        <v>8.903938031319843</v>
       </c>
       <c r="AS18">
-        <v>8.900702661956448</v>
+        <v>8.903938031319843</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="BI18">
-        <v>0.5275236405877678</v>
+        <v>0.527849143719229</v>
       </c>
       <c r="BJ18">
         <v>0</v>
@@ -7309,13 +7309,13 @@
         <v>161</v>
       </c>
       <c r="B19">
-        <v>0.0298005171909166</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0005904673665180062</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -7327,16 +7327,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0179026632928746</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002001013228735516</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>26.85054754401191</v>
+        <v>0.1444662450103015</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.02979452792761583</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.0005905134226418318</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7369,13 +7369,13 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0.01790354618978419</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0.002001411095302759</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -7384,25 +7384,25 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.1443771585436456</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>26.86030760928019</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.1486047977120217</v>
+        <v>0.1486964879326639</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.1486047977120217</v>
+        <v>0.1486964879326639</v>
       </c>
       <c r="AG19">
-        <v>0.1486047977120217</v>
+        <v>0.1486964879326639</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -7414,31 +7414,31 @@
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>0.0179036789923447</v>
+        <v>0.01790282365395167</v>
       </c>
       <c r="AL19">
-        <v>6.375412340620408</v>
+        <v>6.375047532386674</v>
       </c>
       <c r="AM19">
-        <v>6.375412340620408</v>
+        <v>6.375047532386674</v>
       </c>
       <c r="AN19">
-        <v>6.375412340620408</v>
+        <v>6.375047532386674</v>
       </c>
       <c r="AO19">
-        <v>26.85054754401191</v>
+        <v>26.86030760928019</v>
       </c>
       <c r="AP19">
-        <v>26.85054754401191</v>
+        <v>26.86030760928019</v>
       </c>
       <c r="AQ19">
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>26.85054754401191</v>
+        <v>26.86030760928019</v>
       </c>
       <c r="AS19">
-        <v>26.85054754401191</v>
+        <v>26.86030760928019</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -7486,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="BI19">
-        <v>0.1443771585436456</v>
+        <v>0.1444662450103015</v>
       </c>
       <c r="BJ19">
         <v>0</v>
@@ -8163,19 +8163,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>6.945832871317181e-05</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>5.64761738326497</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.005683489609698181</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.02787079289698698</v>
+        <v>0.04781358276256401</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0.005683769899601653</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>5.645565243167764</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -8229,28 +8229,28 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>92.07208337482881</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>0.04778409806790679</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.02788092381721132</v>
       </c>
       <c r="AC23">
-        <v>6.945832872242893e-05</v>
+        <v>92.07208447309098</v>
       </c>
       <c r="AD23">
-        <v>0.04717699316205481</v>
+        <v>0.04720610170332974</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.04717699316205481</v>
+        <v>0.04720610170332974</v>
       </c>
       <c r="AG23">
-        <v>0.04717699316205481</v>
+        <v>0.04720610170332974</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -8262,103 +8262,103 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0.005683812059919391</v>
+        <v>0.005683540518912102</v>
       </c>
       <c r="AL23">
-        <v>0.006595160049467689</v>
+        <v>0.006594782667001016</v>
       </c>
       <c r="AM23">
-        <v>0.006595160049467689</v>
+        <v>0.006594782667001016</v>
       </c>
       <c r="AN23">
-        <v>0.006595160049467689</v>
+        <v>0.006594782667001016</v>
       </c>
       <c r="AO23">
-        <v>0.02787079289698698</v>
+        <v>0.02788092381721132</v>
       </c>
       <c r="AP23">
-        <v>0.02787079289698698</v>
+        <v>0.02788092381721132</v>
       </c>
       <c r="AQ23">
-        <v>5.645565243167764</v>
+        <v>5.64761738326497</v>
       </c>
       <c r="AR23">
-        <v>0.02787079289698698</v>
+        <v>0.02788092381721132</v>
       </c>
       <c r="AS23">
-        <v>0.02787079289698698</v>
+        <v>0.02788092381721132</v>
       </c>
       <c r="AT23">
-        <v>5.645565243167764</v>
+        <v>5.64761738326497</v>
       </c>
       <c r="AU23">
-        <v>5.645565243167764</v>
+        <v>5.64761738326497</v>
       </c>
       <c r="AV23">
-        <v>5.645565243167764</v>
+        <v>5.64761738326497</v>
       </c>
       <c r="AW23">
-        <v>5.945903909980029</v>
+        <v>5.948176140997032</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>5.945903909980029</v>
+        <v>5.948176140997032</v>
       </c>
       <c r="AZ23">
-        <v>5.945903909980029</v>
+        <v>5.948176140997032</v>
       </c>
       <c r="BA23">
-        <v>5.637128542664981e-09</v>
+        <v>5.640566585184138e-09</v>
       </c>
       <c r="BB23">
-        <v>13.00731227239885</v>
+        <v>13.00840131733749</v>
       </c>
       <c r="BC23">
-        <v>6.193385475828303e-09</v>
+        <v>6.197118340778565e-09</v>
       </c>
       <c r="BD23">
-        <v>14.73399010905613</v>
+        <v>14.73399290748032</v>
       </c>
       <c r="BE23">
         <v>0</v>
       </c>
       <c r="BF23">
-        <v>5.637128542664981e-09</v>
+        <v>5.640566585184138e-09</v>
       </c>
       <c r="BG23">
-        <v>5.637128542664981e-09</v>
+        <v>5.640566585184138e-09</v>
       </c>
       <c r="BH23">
-        <v>2.295325917454598</v>
+        <v>2.295339364572007</v>
       </c>
       <c r="BI23">
-        <v>0.04778409806790679</v>
+        <v>0.04781358276256401</v>
       </c>
       <c r="BJ23">
-        <v>14.73399010905613</v>
+        <v>14.73399290748032</v>
       </c>
       <c r="BK23">
-        <v>15.14645531046147</v>
+        <v>15.14645534018287</v>
       </c>
       <c r="BL23">
-        <v>92.07208337482881</v>
+        <v>92.07208447309098</v>
       </c>
       <c r="BM23">
-        <v>1.740637079971603e-05</v>
+        <v>1.7406370797397e-05</v>
       </c>
       <c r="BN23">
-        <v>92.07208337482881</v>
+        <v>92.07208447309098</v>
       </c>
       <c r="BO23">
-        <v>6.945832872242893e-05</v>
+        <v>6.945832871317181e-05</v>
       </c>
       <c r="BP23">
         <v>0</v>
       </c>
       <c r="BQ23">
-        <v>6.945832872242893e-05</v>
+        <v>6.945832871317181e-05</v>
       </c>
       <c r="BR23">
         <v>0</v>
@@ -8375,19 +8375,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>92.61077311248374</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>7.679875777146462</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001565096117364094</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.007674945106942288</v>
+        <v>0.01301668994398792</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -8426,13 +8426,13 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>8.000001599278825e-05</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>0.001565173339027949</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>7.677085187957788</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -8441,28 +8441,28 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>7.83592198934714</v>
+        <v>8.000001599691398e-05</v>
       </c>
       <c r="AA24">
-        <v>0.01300866338430007</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.007677734738950077</v>
       </c>
       <c r="AC24">
-        <v>92.61077311248374</v>
+        <v>7.835922082816261</v>
       </c>
       <c r="AD24">
-        <v>0.01299140767783846</v>
+        <v>0.01299942316525136</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0.01299140767783846</v>
+        <v>0.01299942316525136</v>
       </c>
       <c r="AG24">
-        <v>0.01299140767783846</v>
+        <v>0.01299942316525136</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -8474,106 +8474,106 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.00156518494896404</v>
+        <v>0.001565110136535153</v>
       </c>
       <c r="AL24">
-        <v>0.001816148235834201</v>
+        <v>0.001816044271352408</v>
       </c>
       <c r="AM24">
-        <v>0.001816148235834201</v>
+        <v>0.001816044271352408</v>
       </c>
       <c r="AN24">
-        <v>0.001816148235834201</v>
+        <v>0.001816044271352408</v>
       </c>
       <c r="AO24">
-        <v>0.007674945106942288</v>
+        <v>0.007677734738950077</v>
       </c>
       <c r="AP24">
-        <v>0.007674945106942288</v>
+        <v>0.007677734738950077</v>
       </c>
       <c r="AQ24">
-        <v>7.677085187957788</v>
+        <v>7.679875777146462</v>
       </c>
       <c r="AR24">
-        <v>0.007674945106942288</v>
+        <v>0.007677734738950077</v>
       </c>
       <c r="AS24">
-        <v>0.007674945106942288</v>
+        <v>0.007677734738950077</v>
       </c>
       <c r="AT24">
-        <v>7.677085187957788</v>
+        <v>7.679875777146462</v>
       </c>
       <c r="AU24">
-        <v>7.677085187957788</v>
+        <v>7.679875777146462</v>
       </c>
       <c r="AV24">
-        <v>7.677085187957788</v>
+        <v>7.679875777146462</v>
       </c>
       <c r="AW24">
-        <v>8.085498771193905</v>
+        <v>8.08858864957927</v>
       </c>
       <c r="AX24">
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>8.085498771193905</v>
+        <v>8.08858864957927</v>
       </c>
       <c r="AZ24">
-        <v>8.085498771193905</v>
+        <v>8.08858864957927</v>
       </c>
       <c r="BA24">
-        <v>1.345481318516806e-05</v>
+        <v>1.346311656700933e-05</v>
       </c>
       <c r="BB24">
-        <v>17.68789147310353</v>
+        <v>17.68937240231424</v>
       </c>
       <c r="BC24">
-        <v>1.47824985593832e-05</v>
+        <v>1.479151523901913e-05</v>
       </c>
       <c r="BD24">
-        <v>20.03590077311972</v>
+        <v>20.03590457853602</v>
       </c>
       <c r="BE24">
         <v>0</v>
       </c>
       <c r="BF24">
-        <v>1.345481318516806e-05</v>
+        <v>1.346311656700933e-05</v>
       </c>
       <c r="BG24">
-        <v>1.345481318516806e-05</v>
+        <v>1.346311656700933e-05</v>
       </c>
       <c r="BH24">
-        <v>0.6242561856454917</v>
+        <v>0.6242598428369766</v>
       </c>
       <c r="BI24">
-        <v>0.01300866338430007</v>
+        <v>0.01301668994398792</v>
       </c>
       <c r="BJ24">
-        <v>20.03590077311972</v>
+        <v>20.03590457853602</v>
       </c>
       <c r="BK24">
-        <v>20.6795894981347</v>
+        <v>20.67958953871475</v>
       </c>
       <c r="BL24">
-        <v>7.83592198934714</v>
+        <v>7.835922082816261</v>
       </c>
       <c r="BM24">
-        <v>23.20847118916048</v>
+        <v>23.20847118916157</v>
       </c>
       <c r="BN24">
-        <v>7.83592198934714</v>
+        <v>7.835922082816261</v>
       </c>
       <c r="BO24">
         <v>92.61077311248374</v>
       </c>
       <c r="BP24">
-        <v>8.000001599278825e-05</v>
+        <v>8.000001599691398e-05</v>
       </c>
       <c r="BQ24">
         <v>92.61077311248374</v>
       </c>
       <c r="BR24">
-        <v>8.000001599278825e-05</v>
+        <v>8.000001599691398e-05</v>
       </c>
     </row>
     <row r="25" spans="1:70">
@@ -8587,19 +8587,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7.389157429187541</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>23.82693785247152</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.004856533364703033</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.02381555081744411</v>
+        <v>0.04034449377303215</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>99.99991999998402</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>0.004856772872552754</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>23.81828000417388</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -8653,28 +8653,28 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>2.917986895400257e-06</v>
+        <v>99.99991999998399</v>
       </c>
       <c r="AA25">
-        <v>0.04031961496674576</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>0.02382420767093138</v>
       </c>
       <c r="AC25">
-        <v>7.38915742918754</v>
+        <v>2.917986931768216e-06</v>
       </c>
       <c r="AD25">
-        <v>0.04031267004917511</v>
+        <v>0.0403375432495882</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.04031267004917511</v>
+        <v>0.0403375432495882</v>
       </c>
       <c r="AG25">
-        <v>0.04031267004917511</v>
+        <v>0.0403375432495882</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -8686,106 +8686,106 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.004856808898481162</v>
+        <v>0.00485657686655013</v>
       </c>
       <c r="AL25">
-        <v>0.005635554391574377</v>
+        <v>0.005635231918187057</v>
       </c>
       <c r="AM25">
-        <v>0.005635554391574377</v>
+        <v>0.005635231918187057</v>
       </c>
       <c r="AN25">
-        <v>0.005635554391574377</v>
+        <v>0.005635231918187057</v>
       </c>
       <c r="AO25">
-        <v>0.02381555081744411</v>
+        <v>0.02382420767093138</v>
       </c>
       <c r="AP25">
-        <v>0.02381555081744411</v>
+        <v>0.02382420767093138</v>
       </c>
       <c r="AQ25">
-        <v>23.81828000417388</v>
+        <v>23.82693785247152</v>
       </c>
       <c r="AR25">
-        <v>0.02381555081744411</v>
+        <v>0.02382420767093138</v>
       </c>
       <c r="AS25">
-        <v>0.02381555081744411</v>
+        <v>0.02382420767093138</v>
       </c>
       <c r="AT25">
-        <v>23.81828000417388</v>
+        <v>23.82693785247152</v>
       </c>
       <c r="AU25">
-        <v>23.81828000417388</v>
+        <v>23.82693785247152</v>
       </c>
       <c r="AV25">
-        <v>23.81828000417388</v>
+        <v>23.82693785247152</v>
       </c>
       <c r="AW25">
-        <v>25.08538970074005</v>
+        <v>25.09497609860316</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>25.08538970074005</v>
+        <v>25.09497609860316</v>
       </c>
       <c r="AZ25">
-        <v>25.08538970074005</v>
+        <v>25.09497609860316</v>
       </c>
       <c r="BA25">
-        <v>0.04205784231854268</v>
+        <v>0.04208479069934225</v>
       </c>
       <c r="BB25">
-        <v>54.8221446115588</v>
+        <v>54.82673462814186</v>
       </c>
       <c r="BC25">
-        <v>0.04620799143886095</v>
+        <v>0.04623726748518817</v>
       </c>
       <c r="BD25">
-        <v>62.09960362423248</v>
+        <v>62.09961541879942</v>
       </c>
       <c r="BE25">
-        <v>7.608195879440144e-08</v>
+        <v>7.608195848565901e-08</v>
       </c>
       <c r="BF25">
-        <v>0.04205784231854268</v>
+        <v>0.04208479069934225</v>
       </c>
       <c r="BG25">
-        <v>0.04205784231854268</v>
+        <v>0.04208479069934225</v>
       </c>
       <c r="BH25">
         <v>0</v>
       </c>
       <c r="BI25">
-        <v>0.04031961496674576</v>
+        <v>0.04034449377303215</v>
       </c>
       <c r="BJ25">
-        <v>62.09960362423248</v>
+        <v>62.09961541879942</v>
       </c>
       <c r="BK25">
-        <v>64.15882197127614</v>
+        <v>64.15882209717286</v>
       </c>
       <c r="BL25">
-        <v>2.917986895400257e-06</v>
+        <v>2.917986931768216e-06</v>
       </c>
       <c r="BM25">
-        <v>76.79151140446872</v>
+        <v>76.79151140446764</v>
       </c>
       <c r="BN25">
-        <v>2.917986895400257e-06</v>
+        <v>2.917986931768216e-06</v>
       </c>
       <c r="BO25">
-        <v>7.38915742918754</v>
+        <v>7.389157429187541</v>
       </c>
       <c r="BP25">
-        <v>99.99991999998402</v>
+        <v>99.99991999998399</v>
       </c>
       <c r="BQ25">
-        <v>7.38915742918754</v>
+        <v>7.389157429187541</v>
       </c>
       <c r="BR25">
-        <v>99.99991999998402</v>
+        <v>99.99991999998399</v>
       </c>
     </row>
     <row r="26" spans="1:70">
@@ -10286,61 +10286,61 @@
         <v>0</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>54.98434159094833</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
         <v>100</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -10489,13 +10489,13 @@
         <v>176</v>
       </c>
       <c r="B34">
-        <v>0.004513143714611539</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>8.942341727868523e-05</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -10507,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>28.28995708733823</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.004456525633957254</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -10522,10 +10522,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.004512236669748934</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>8.943039225514054e-05</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -10549,13 +10549,13 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>28.29135224934717</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0.004457411736322969</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>28.2915621052036</v>
+        <v>28.290210491422</v>
       </c>
       <c r="AL34">
-        <v>0.003282785886764898</v>
+        <v>0.003282598042080179</v>
       </c>
       <c r="AM34">
-        <v>0.003282785886764898</v>
+        <v>0.003282598042080179</v>
       </c>
       <c r="AN34">
-        <v>0.003282785886764898</v>
+        <v>0.003282598042080179</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -10701,13 +10701,13 @@
         <v>177</v>
       </c>
       <c r="B35">
-        <v>0.9343546446706459</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.01851330038663582</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -10719,10 +10719,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.5853150319604133</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.9220485686206775</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -10737,37 +10737,37 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.9335750996063145</v>
       </c>
       <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0.01850301601357938</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
         <v>100</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0.585714926218928</v>
-      </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0.9228164717110705</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -10806,16 +10806,16 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0.5857192708577555</v>
+        <v>0.5853202748534632</v>
       </c>
       <c r="AL35">
-        <v>0.6796340721053326</v>
+        <v>0.679164684478532</v>
       </c>
       <c r="AM35">
-        <v>0.6796340721053326</v>
+        <v>0.679164684478532</v>
       </c>
       <c r="AN35">
-        <v>0.6796340721053326</v>
+        <v>0.679164684478532</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>178</v>
       </c>
       <c r="B36">
-        <v>0.03978476203280301</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.0007882951666427842</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -10931,10 +10931,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.02493852325156005</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.0392857323185399</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -10943,13 +10943,13 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.03977684333619539</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.0007883581829995539</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -10973,13 +10973,13 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0.02493970473801713</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.03929346735352003</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -11015,19 +11015,19 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="AK36">
-        <v>0.02481395676334447</v>
+        <v>0.0248127712951306</v>
       </c>
       <c r="AL36">
-        <v>0.02893877606572678</v>
+        <v>0.02893717630790633</v>
       </c>
       <c r="AM36">
-        <v>0.02893877606572678</v>
+        <v>0.02893717630790633</v>
       </c>
       <c r="AN36">
-        <v>0.02893877606572678</v>
+        <v>0.02893717630790633</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -11125,13 +11125,13 @@
         <v>179</v>
       </c>
       <c r="B37">
-        <v>0.3190452119843458</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.006321560961968706</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -11143,10 +11143,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.2499977606733975</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.3938222406747807</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.3987454132867847</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -11170,31 +11170,31 @@
         <v>0</v>
       </c>
       <c r="Q37">
+        <v>0.007902945109073691</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>100</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0.1999985164774171</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0.3151053815796954</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>0.1993841661755337</v>
+        <v>0.2492302366760122</v>
       </c>
       <c r="AL37">
-        <v>0.2320681957791976</v>
+        <v>0.2900825042531471</v>
       </c>
       <c r="AM37">
-        <v>0.2320681957791976</v>
+        <v>0.2900825042531471</v>
       </c>
       <c r="AN37">
-        <v>0.2320681957791976</v>
+        <v>0.2900825042531471</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -11549,16 +11549,16 @@
         <v>181</v>
       </c>
       <c r="B39">
-        <v>0.002778807858751771</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>54.94922782730595</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -11567,10 +11567,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.2926575159802066</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.002743654768299629</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.00277795320200145</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -11594,13 +11594,13 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>54.94765550043758</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -11609,13 +11609,13 @@
         <v>0</v>
       </c>
       <c r="V39">
-        <v>0.292857463109464</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0.002744492873667058</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -11654,16 +11654,16 @@
         <v>0</v>
       </c>
       <c r="AK39">
-        <v>0.2928596354288778</v>
+        <v>0.2926601374267315</v>
       </c>
       <c r="AL39">
-        <v>2.019237490713357</v>
+        <v>2.018906698580817</v>
       </c>
       <c r="AM39">
-        <v>2.019237490713357</v>
+        <v>2.018906698580817</v>
       </c>
       <c r="AN39">
-        <v>2.019237490713357</v>
+        <v>2.018906698580817</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -12417,10 +12417,10 @@
         <v>145</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -12432,7 +12432,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:70">
@@ -12446,13 +12446,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
         <v>7</v>
@@ -12463,22 +12463,22 @@
         <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12486,16 +12486,16 @@
         <v>148</v>
       </c>
       <c r="B49">
-        <v>10743.11539645084</v>
+        <v>10743.06352557832</v>
       </c>
       <c r="C49">
-        <v>976646.8542228033</v>
+        <v>976642.1386889378</v>
       </c>
       <c r="D49">
-        <v>976646.8542228033</v>
+        <v>976642.1386889378</v>
       </c>
       <c r="E49">
-        <v>10743.11539645084</v>
+        <v>10743.06352557832</v>
       </c>
       <c r="F49">
         <v>551423.6037480946</v>
@@ -12517,10 +12517,10 @@
         <v>100</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -12564,19 +12564,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3">
-        <v>-2193178.650183149</v>
+        <v>-2193178.650189401</v>
       </c>
       <c r="D3">
-        <v>1498.807153770591</v>
+        <v>1498.807153774864</v>
       </c>
       <c r="E3">
-        <v>0.7311930699669831</v>
+        <v>0.7311930699690674</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12587,13 +12587,13 @@
         <v>59</v>
       </c>
       <c r="C4">
-        <v>-1921699.444204094</v>
+        <v>-1922039.531762378</v>
       </c>
       <c r="D4">
-        <v>1313.279642827792</v>
+        <v>1313.512056938345</v>
       </c>
       <c r="E4">
-        <v>0.6406834737535386</v>
+        <v>0.6407968569773717</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12604,7 +12604,7 @@
         <v>46</v>
       </c>
       <c r="C5">
-        <v>-46185471.69587413</v>
+        <v>-46185471.69587412</v>
       </c>
       <c r="D5">
         <v>31562.91685233422</v>
@@ -12621,98 +12621,98 @@
         <v>47</v>
       </c>
       <c r="C6">
-        <v>79313083.83221008</v>
+        <v>79312705.90770347</v>
       </c>
       <c r="D6">
-        <v>-54212.1384859299</v>
+        <v>-54211.87673402455</v>
       </c>
       <c r="E6">
-        <v>-26.44739176036091</v>
+        <v>-26.44726406469388</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7">
-        <v>-12809204.31202195</v>
+        <v>-12809197.45919845</v>
       </c>
       <c r="D7">
-        <v>8753.745188685094</v>
+        <v>8753.740505500307</v>
       </c>
       <c r="E7">
-        <v>4.270514590300023</v>
+        <v>4.270512305608325</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8">
-        <v>-2172469.846472067</v>
+        <v>-2172469.846472198</v>
       </c>
       <c r="D8">
-        <v>1484.654862462445</v>
+        <v>1484.654862462534</v>
       </c>
       <c r="E8">
-        <v>0.7242888746523037</v>
+        <v>0.7242888746523474</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9">
-        <v>-2952400.862616215</v>
+        <v>-2952400.862616208</v>
       </c>
       <c r="D9">
-        <v>2017.655758831191</v>
+        <v>2017.655758831186</v>
       </c>
       <c r="E9">
-        <v>0.9843133619457965</v>
+        <v>0.9843133619457943</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10">
-        <v>-14767.27977461647</v>
+        <v>-1186393.090424424</v>
       </c>
       <c r="D10">
-        <v>20.07158758125167</v>
+        <v>810.775014139242</v>
       </c>
       <c r="E10">
-        <v>0.009791924001513626</v>
+        <v>0.3955365906478292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11">
-        <v>-1186393.161102608</v>
+        <v>-14762.12998940842</v>
       </c>
       <c r="D11">
-        <v>810.7750624403549</v>
+        <v>20.06458802775193</v>
       </c>
       <c r="E11">
-        <v>0.3955366142115271</v>
+        <v>0.00978850926933878</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12723,47 +12723,47 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>-3948006.48777041</v>
+        <v>-5486178.898379933</v>
       </c>
       <c r="D12">
-        <v>2698.047587919413</v>
+        <v>3749.226803329697</v>
       </c>
       <c r="E12">
-        <v>1.316242515766486</v>
+        <v>1.829060296004393</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13">
-        <v>-413836.3530007736</v>
+        <v>-3948001.132674368</v>
       </c>
       <c r="D13">
-        <v>282.8136624055201</v>
+        <v>2698.043928273968</v>
       </c>
       <c r="E13">
-        <v>0.137970645204533</v>
+        <v>1.316240730408455</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14">
-        <v>-5486888.631676152</v>
+        <v>-413836.3253673976</v>
       </c>
       <c r="D14">
-        <v>3749.711831460695</v>
+        <v>282.8136435210113</v>
       </c>
       <c r="E14">
-        <v>1.8292969169781</v>
+        <v>0.1379706359917253</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -12785,19 +12785,19 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18">
-        <v>5273304.253231313</v>
+        <v>5273304.253239815</v>
       </c>
       <c r="D18">
-        <v>164.6685048528461</v>
+        <v>164.6685048531116</v>
       </c>
       <c r="E18">
-        <v>52.49231292043829</v>
+        <v>52.49231292052293</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12808,13 +12808,13 @@
         <v>59</v>
       </c>
       <c r="C19">
-        <v>-41988346.3498651</v>
+        <v>-41987959.74962776</v>
       </c>
       <c r="D19">
-        <v>-1311.162391291754</v>
+        <v>-1311.15031899704</v>
       </c>
       <c r="E19">
-        <v>-417.9666694289981</v>
+        <v>-417.9628210751655</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12825,47 +12825,47 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>4463692.666988897</v>
+        <v>27141442.63871963</v>
       </c>
       <c r="D20">
-        <v>139.3869123226243</v>
+        <v>847.54085185367</v>
       </c>
       <c r="E20">
-        <v>44.43315632938675</v>
+        <v>270.1754026862334</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21">
-        <v>5108422.099742129</v>
+        <v>4464790.861412016</v>
       </c>
       <c r="D21">
-        <v>159.519760083313</v>
+        <v>139.4212054384789</v>
       </c>
       <c r="E21">
-        <v>50.85101835818229</v>
+        <v>44.44408814036095</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22">
-        <v>27142927.32990276</v>
+        <v>5108421.996256297</v>
       </c>
       <c r="D22">
-        <v>847.5872140329705</v>
+        <v>159.5197568517799</v>
       </c>
       <c r="E22">
-        <v>270.1901818209908</v>
+        <v>50.85101732804817</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12893,30 +12893,30 @@
         <v>59</v>
       </c>
       <c r="C26">
-        <v>-851773.5266814616</v>
+        <v>-3693094.162426081</v>
       </c>
       <c r="D26">
-        <v>-21.94265444034285</v>
+        <v>-281.7898368770269</v>
       </c>
       <c r="E26">
-        <v>-5.217963225913531</v>
+        <v>-115.8708066062586</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
       <c r="C27">
-        <v>851773.5266814616</v>
+        <v>3693094.162426081</v>
       </c>
       <c r="D27">
-        <v>21.94265444034285</v>
+        <v>281.7898368770269</v>
       </c>
       <c r="E27">
-        <v>5.217963225913531</v>
+        <v>115.8708066062586</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -12944,30 +12944,30 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>-3693453.284819456</v>
+        <v>-857249.2942050609</v>
       </c>
       <c r="D31">
-        <v>-281.8172385722443</v>
+        <v>-22.08371643722613</v>
       </c>
       <c r="E31">
-        <v>-115.8820740691395</v>
+        <v>-5.251507768772373</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
       <c r="C32">
-        <v>3693453.284819456</v>
+        <v>857249.2942050609</v>
       </c>
       <c r="D32">
-        <v>281.8172385722443</v>
+        <v>22.08371643722613</v>
       </c>
       <c r="E32">
-        <v>115.8820740691395</v>
+        <v>5.251507768772373</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12995,13 +12995,13 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>46185471.69587413</v>
+        <v>46185471.69587412</v>
       </c>
       <c r="D36">
         <v>-30608.66130019043</v>
       </c>
       <c r="E36">
-        <v>-230.9273584793707</v>
+        <v>-230.9273584793706</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -13012,13 +13012,13 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>-46185471.69587413</v>
+        <v>-46185471.69587412</v>
       </c>
       <c r="D37">
         <v>30608.66130019043</v>
       </c>
       <c r="E37">
-        <v>230.9273584793707</v>
+        <v>230.9273584793706</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -13043,10 +13043,10 @@
         <v>59</v>
       </c>
       <c r="C41">
-        <v>-2869.450139630124</v>
+        <v>-2869.973156489874</v>
       </c>
       <c r="D41">
-        <v>-224.3910009190757</v>
+        <v>-224.4319008375082</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13057,10 +13057,10 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>2.293935474334395</v>
+        <v>2.867556338841115</v>
       </c>
       <c r="D42">
-        <v>0.1793857540929497</v>
+        <v>0.2242429056973752</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13071,7 +13071,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>1999.073361586407</v>
+        <v>1999.073361586406</v>
       </c>
       <c r="D43">
         <v>156.327536876057</v>
@@ -13085,10 +13085,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>254.820392392895</v>
+        <v>254.8191620462403</v>
       </c>
       <c r="D44">
-        <v>19.92695468512439</v>
+        <v>19.92685847201599</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13099,10 +13099,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>1.398323877017119</v>
+        <v>1.398326590410089</v>
       </c>
       <c r="D45">
-        <v>0.1093489271827387</v>
+        <v>0.109349139370069</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13113,10 +13113,10 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>147.5964104569771</v>
+        <v>147.5966466111095</v>
       </c>
       <c r="D46">
-        <v>11.54203929773561</v>
+        <v>11.54205776498876</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13127,10 +13127,10 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>31.57829463680113</v>
+        <v>31.57829034297928</v>
       </c>
       <c r="D47">
-        <v>2.469422640597848</v>
+        <v>2.46942230482098</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13141,10 +13141,10 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>79.26424206332183</v>
+        <v>79.23557277708669</v>
       </c>
       <c r="D48">
-        <v>6.198463729351768</v>
+        <v>6.196221791168179</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13155,10 +13155,10 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>3.573198098665491</v>
+        <v>3.573209079068601</v>
       </c>
       <c r="D49">
-        <v>0.2794240913156414</v>
+        <v>0.2794249499831646</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13169,10 +13169,10 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>31.24386486295478</v>
+        <v>31.24390867804181</v>
       </c>
       <c r="D50">
-        <v>2.443270232283064</v>
+        <v>2.443273658622869</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13183,10 +13183,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>7.41095960805221</v>
+        <v>7.40742634372257</v>
       </c>
       <c r="D51">
-        <v>0.5795370413496829</v>
+        <v>0.579260740079105</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13197,10 +13197,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>11.37026028204426</v>
+        <v>11.36692450578174</v>
       </c>
       <c r="D52">
-        <v>0.8891543540558613</v>
+        <v>0.8888934963521323</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13211,10 +13211,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>7.410648403817354</v>
+        <v>10.9190009278687</v>
       </c>
       <c r="D53">
-        <v>0.5795127051785172</v>
+        <v>0.8538658725593322</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13225,10 +13225,10 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>10.92232256282081</v>
+        <v>8.622674907747813</v>
       </c>
       <c r="D54">
-        <v>0.8541256244125875</v>
+        <v>0.674293177785879</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13239,10 +13239,10 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>8.62701869577371</v>
+        <v>11.01944974591816</v>
       </c>
       <c r="D55">
-        <v>0.6746328620095042</v>
+        <v>0.8617209701308001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13253,10 +13253,10 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>11.02279470541556</v>
+        <v>7.407115135465596</v>
       </c>
       <c r="D56">
-        <v>0.8619825459634969</v>
+        <v>0.5792364035934097</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -13267,10 +13267,10 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>261.8441119228262</v>
+        <v>261.8445308731846</v>
       </c>
       <c r="D57">
-        <v>20.47620955236501</v>
+        <v>20.47624231428304</v>
       </c>
     </row>
   </sheetData>
@@ -13309,7 +13309,7 @@
         <v>222</v>
       </c>
       <c r="D3">
-        <v>41613.98067766536</v>
+        <v>41598.85966068391</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13321,7 +13321,7 @@
         <v>223</v>
       </c>
       <c r="D4">
-        <v>554.5604692217165</v>
+        <v>554.3589619845864</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13342,7 +13342,7 @@
         <v>224</v>
       </c>
       <c r="D6">
-        <v>22.43845773825459</v>
+        <v>22.43573963407589</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>224</v>
       </c>
       <c r="D7">
-        <v>11.2192288691273</v>
+        <v>11.21786981703795</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13366,7 +13366,7 @@
         <v>225</v>
       </c>
       <c r="D8">
-        <v>20867.39</v>
+        <v>20862.34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13401,7 +13401,7 @@
         <v>227</v>
       </c>
       <c r="D11">
-        <v>143116.6116980872</v>
+        <v>143094.0313924564</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13413,7 +13413,7 @@
         <v>227</v>
       </c>
       <c r="D12">
-        <v>403239.4727665773</v>
+        <v>403092.950112027</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13439,7 +13439,7 @@
         <v>237</v>
       </c>
       <c r="D16">
-        <v>37103.05454336178</v>
+        <v>37105.99184876114</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13451,7 +13451,7 @@
         <v>238</v>
       </c>
       <c r="D17">
-        <v>3024.897273284221</v>
+        <v>3025.432596292632</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -13465,7 +13465,7 @@
         <v>227</v>
       </c>
       <c r="D18">
-        <v>9624319.027711589</v>
+        <v>9624776.172553347</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13477,7 +13477,7 @@
         <v>227</v>
       </c>
       <c r="D19">
-        <v>103569.1255793452</v>
+        <v>103574.0450018402</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -13489,7 +13489,7 @@
         <v>227</v>
       </c>
       <c r="D20">
-        <v>13582.83614155347</v>
+        <v>13583.48131171675</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -13501,7 +13501,7 @@
         <v>227</v>
       </c>
       <c r="D21">
-        <v>26486.53047602927</v>
+        <v>26487.78855784766</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -13513,7 +13513,7 @@
         <v>227</v>
       </c>
       <c r="D22">
-        <v>2012689.495597008</v>
+        <v>2012903.202199161</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -13539,7 +13539,7 @@
         <v>237</v>
       </c>
       <c r="D26">
-        <v>408.1115367149835</v>
+        <v>510.1637936877045</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13553,7 +13553,7 @@
         <v>227</v>
       </c>
       <c r="D27">
-        <v>32223.50901574658</v>
+        <v>37672.49334481723</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13565,7 +13565,7 @@
         <v>227</v>
       </c>
       <c r="D28">
-        <v>1221.458797640842</v>
+        <v>1460.237278034282</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13577,7 +13577,7 @@
         <v>227</v>
       </c>
       <c r="D29">
-        <v>12475.13061762919</v>
+        <v>13947.95322647109</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13600,7 +13600,7 @@
         <v>213</v>
       </c>
       <c r="D33">
-        <v>5270.178911044059</v>
+        <v>5266.838673575063</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13614,7 +13614,7 @@
         <v>227</v>
       </c>
       <c r="D34">
-        <v>3394258.727657926</v>
+        <v>3392107.447716019</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13640,7 +13640,7 @@
         <v>243</v>
       </c>
       <c r="D38">
-        <v>-46185471.69587413</v>
+        <v>-46185471.69587412</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13680,7 +13680,7 @@
         <v>245</v>
       </c>
       <c r="D43">
-        <v>54212.1384859299</v>
+        <v>54211.87673402455</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13694,7 +13694,7 @@
         <v>227</v>
       </c>
       <c r="D44">
-        <v>277195.4149382651</v>
+        <v>277194.4780717659</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13706,7 +13706,7 @@
         <v>227</v>
       </c>
       <c r="D45">
-        <v>45301.03787065511</v>
+        <v>45300.862889346</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13732,7 +13732,7 @@
         <v>237</v>
       </c>
       <c r="D49">
-        <v>50.89128362109326</v>
+        <v>50.89138237364515</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -13746,7 +13746,7 @@
         <v>227</v>
       </c>
       <c r="D50">
-        <v>49092.43741491987</v>
+        <v>49092.50409827313</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -13758,7 +13758,7 @@
         <v>227</v>
       </c>
       <c r="D51">
-        <v>1285.231195032905</v>
+        <v>1285.233190185341</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -13770,7 +13770,7 @@
         <v>227</v>
       </c>
       <c r="D52">
-        <v>5953.1844532194</v>
+        <v>5953.190229177772</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -13782,7 +13782,7 @@
         <v>227</v>
       </c>
       <c r="D53">
-        <v>16221.46590332247</v>
+        <v>16221.48478958846</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -13811,13 +13811,13 @@
         <v>247</v>
       </c>
       <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
         <v>1</v>
       </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
       <c r="F57">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -13826,13 +13826,13 @@
         <v>248</v>
       </c>
       <c r="D58">
+        <v>25</v>
+      </c>
+      <c r="E58">
         <v>60</v>
       </c>
-      <c r="E58">
-        <v>25</v>
-      </c>
       <c r="F58">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -13850,7 +13850,7 @@
         <v>0.3</v>
       </c>
       <c r="F59">
-        <v>1.19258271441683</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -13868,7 +13868,7 @@
         <v>0.315</v>
       </c>
       <c r="F60">
-        <v>1.252211850137671</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -13877,10 +13877,10 @@
         <v>251</v>
       </c>
       <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
         <v>1</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -13889,10 +13889,10 @@
         <v>252</v>
       </c>
       <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
         <v>87</v>
-      </c>
-      <c r="E62">
-        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -13904,10 +13904,10 @@
         <v>224</v>
       </c>
       <c r="D63">
+        <v>19.900416</v>
+      </c>
+      <c r="E63">
         <v>13.996416</v>
-      </c>
-      <c r="E63">
-        <v>19.900416</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -13919,10 +13919,10 @@
         <v>224</v>
       </c>
       <c r="D64">
+        <v>71.56041599999999</v>
+      </c>
+      <c r="E64">
         <v>140.932416</v>
-      </c>
-      <c r="E64">
-        <v>71.56041599999999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -13934,10 +13934,10 @@
         <v>224</v>
       </c>
       <c r="D65">
-        <v>5.549305772532383</v>
+        <v>5.938419023602472</v>
       </c>
       <c r="E65">
-        <v>5.938668193914531</v>
+        <v>5.549304246991911</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -13949,10 +13949,10 @@
         <v>224</v>
       </c>
       <c r="D66">
+        <v>7.069663224773167</v>
+      </c>
+      <c r="E66">
         <v>2.99792</v>
-      </c>
-      <c r="E66">
-        <v>7.070057583250141</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -13979,10 +13979,10 @@
         <v>226</v>
       </c>
       <c r="D68">
+        <v>0.375</v>
+      </c>
+      <c r="E68">
         <v>1.75</v>
-      </c>
-      <c r="E68">
-        <v>0.375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -13994,10 +13994,10 @@
         <v>225</v>
       </c>
       <c r="D69">
-        <v>24022.37867272377</v>
+        <v>7214.877044899381</v>
       </c>
       <c r="E69">
-        <v>7215.23653341975</v>
+        <v>24022.37064766564</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -14009,10 +14009,10 @@
         <v>225</v>
       </c>
       <c r="D70">
+        <v>26882.13794926384</v>
+      </c>
+      <c r="E70">
         <v>103094.6428787647</v>
-      </c>
-      <c r="E70">
-        <v>26883.74072396658</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -14026,10 +14026,10 @@
         <v>227</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>12268.73530807186</v>
       </c>
       <c r="E71">
-        <v>12269.3039961496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -14041,10 +14041,10 @@
         <v>227</v>
       </c>
       <c r="D72">
-        <v>87867.64883632163</v>
+        <v>73943.81055311626</v>
       </c>
       <c r="E72">
-        <v>73948.82917419434</v>
+        <v>87867.64369047798</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -14056,10 +14056,10 @@
         <v>227</v>
       </c>
       <c r="D73">
-        <v>188513.8032334406</v>
+        <v>107880.3216653906</v>
       </c>
       <c r="E73">
-        <v>107883.4169590122</v>
+        <v>188513.7633939934</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -14071,10 +14071,10 @@
         <v>227</v>
       </c>
       <c r="D74">
+        <v>267846.2168957767</v>
+      </c>
+      <c r="E74">
         <v>539766.8531757435</v>
-      </c>
-      <c r="E74">
-        <v>267856.3110900518</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -14086,13 +14086,13 @@
         <v>227</v>
       </c>
       <c r="D75">
-        <v>77002.80615463122</v>
+        <v>78838.59313605304</v>
       </c>
       <c r="E75">
-        <v>78839.37692114535</v>
+        <v>77002.79242905583</v>
       </c>
       <c r="F75">
-        <v>5471.255506147141</v>
+        <v>4900.804847246502</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -14104,13 +14104,13 @@
         <v>227</v>
       </c>
       <c r="D76">
-        <v>170061.1522468124</v>
+        <v>562768.7137561945</v>
       </c>
       <c r="E76">
-        <v>562800.7498593036</v>
+        <v>170082.4178566916</v>
       </c>
       <c r="F76">
-        <v>87022.13502678981</v>
+        <v>6043.141157778955</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -14136,7 +14136,7 @@
         <v>278</v>
       </c>
       <c r="D80">
-        <v>3567.452847625807</v>
+        <v>3567.458555547356</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -14160,7 +14160,7 @@
         <v>279</v>
       </c>
       <c r="D82">
-        <v>17.16666666666667</v>
+        <v>17.16666666666666</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -14181,7 +14181,7 @@
         <v>243</v>
       </c>
       <c r="D84">
-        <v>46185471.69587413</v>
+        <v>46185471.69587412</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -14228,7 +14228,7 @@
         <v>227</v>
       </c>
       <c r="D88">
-        <v>6236849.072198733</v>
+        <v>6236854.061673366</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -14240,7 +14240,7 @@
         <v>227</v>
       </c>
       <c r="D89">
-        <v>387955.659111888</v>
+        <v>387955.9694761276</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -14252,7 +14252,7 @@
         <v>227</v>
       </c>
       <c r="D90">
-        <v>441810.5472683664</v>
+        <v>441810.9714061326</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -14299,28 +14299,28 @@
         <v>289</v>
       </c>
       <c r="D94">
-        <v>47.12189682636436</v>
+        <v>47.42296808428759</v>
       </c>
       <c r="E94">
-        <v>1794.294888214704</v>
+        <v>367.7216230059538</v>
       </c>
       <c r="F94">
-        <v>367.7216230059317</v>
+        <v>371.2443951530341</v>
       </c>
       <c r="G94">
-        <v>371.2443951530349</v>
+        <v>433.1603945152536</v>
       </c>
       <c r="H94">
-        <v>965.7940315766072</v>
+        <v>9.84942172796565</v>
       </c>
       <c r="I94">
-        <v>9.852857709518373</v>
+        <v>965.5751643206036</v>
       </c>
       <c r="J94">
-        <v>2661.41714205312</v>
+        <v>16154.92889398687</v>
       </c>
       <c r="K94">
-        <v>433.1604389811908</v>
+        <v>2659.010670203337</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -14350,7 +14350,7 @@
         <v>0.5</v>
       </c>
       <c r="J95">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K95">
         <v>0.5</v>
@@ -14365,28 +14365,28 @@
         <v>291</v>
       </c>
       <c r="D96">
-        <v>102.6799892153585</v>
+        <v>102.6840157831637</v>
       </c>
       <c r="E96">
-        <v>44.77889971820499</v>
+        <v>37.22371093899798</v>
       </c>
       <c r="F96">
-        <v>37.22371093899798</v>
+        <v>49.76261134018031</v>
       </c>
       <c r="G96">
-        <v>49.76261134018034</v>
+        <v>17.63889190345648</v>
       </c>
       <c r="H96">
-        <v>21.72363682372596</v>
+        <v>8.968797108954364</v>
       </c>
       <c r="I96">
-        <v>8.968797108954364</v>
+        <v>21.72644821335403</v>
       </c>
       <c r="J96">
-        <v>24.79173522059014</v>
+        <v>11.1805607847912</v>
       </c>
       <c r="K96">
-        <v>17.63889117044934</v>
+        <v>24.79827630896541</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -14395,28 +14395,28 @@
         <v>283</v>
       </c>
       <c r="D97">
-        <v>0.9999999999999944</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>0.9532696144066711</v>
+        <v>0.9490208567812846</v>
       </c>
       <c r="F97">
-        <v>0.9490208567812846</v>
+        <v>0.9555932883225854</v>
       </c>
       <c r="G97">
-        <v>0.9555932883225855</v>
+        <v>0.9284732684114031</v>
       </c>
       <c r="H97">
+        <v>0.9992287647690118</v>
+      </c>
+      <c r="I97">
         <v>1</v>
-      </c>
-      <c r="I97">
-        <v>0.9992287647690118</v>
       </c>
       <c r="J97">
         <v>1</v>
       </c>
       <c r="K97">
-        <v>0.928473266996076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -14434,22 +14434,22 @@
         <v>1.5</v>
       </c>
       <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
         <v>1.5</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>5</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>1.5</v>
       </c>
-      <c r="I98">
+      <c r="J98">
+        <v>1.5</v>
+      </c>
+      <c r="K98">
         <v>5</v>
-      </c>
-      <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98">
-        <v>1.5</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -14473,13 +14473,13 @@
         <v>5</v>
       </c>
       <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
         <v>3</v>
       </c>
-      <c r="I99">
-        <v>5</v>
-      </c>
       <c r="J99">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K99">
         <v>5</v>
@@ -14506,13 +14506,13 @@
         <v>14.7</v>
       </c>
       <c r="H100">
+        <v>14.7</v>
+      </c>
+      <c r="I100">
         <v>2709.531861458823</v>
       </c>
-      <c r="I100">
-        <v>14.7</v>
-      </c>
       <c r="J100">
-        <v>14.7</v>
+        <v>73.5</v>
       </c>
       <c r="K100">
         <v>14.7</v>
@@ -14562,10 +14562,10 @@
         <v>227</v>
       </c>
       <c r="D102">
-        <v>4599.298264793981</v>
-      </c>
-      <c r="I102">
-        <v>3548.4066786823</v>
+        <v>4603.987431454468</v>
+      </c>
+      <c r="H102">
+        <v>3548.208660257398</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -14591,7 +14591,7 @@
         <v>294</v>
       </c>
       <c r="D106">
-        <v>22.55592474057223</v>
+        <v>22.55592167355663</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -14614,7 +14614,7 @@
         <v>227</v>
       </c>
       <c r="D108">
-        <v>181532.2217167394</v>
+        <v>181532.207548334</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -14640,7 +14640,7 @@
         <v>227</v>
       </c>
       <c r="D112">
-        <v>14640.83000475229</v>
+        <v>14640.84564766531</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -14652,7 +14652,7 @@
         <v>227</v>
       </c>
       <c r="D113">
-        <v>3060.891636367438</v>
+        <v>3060.892576526662</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -14693,22 +14693,22 @@
         <v>305</v>
       </c>
       <c r="D117">
-        <v>28.23694172461768</v>
+        <v>28.23698690370064</v>
       </c>
       <c r="E117">
-        <v>8.547756783806047</v>
+        <v>8.544665123815058</v>
       </c>
       <c r="F117">
-        <v>4.977151111476201</v>
+        <v>8.130620616312354</v>
       </c>
       <c r="G117">
-        <v>8.133682844602459</v>
+        <v>6.046367566590455</v>
       </c>
       <c r="H117">
-        <v>6.050242054059106</v>
+        <v>8.223279488327947</v>
       </c>
       <c r="I117">
-        <v>8.226366980955163</v>
+        <v>4.974070922404627</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -14720,22 +14720,22 @@
         <v>306</v>
       </c>
       <c r="D118">
-        <v>823.4997319972884</v>
+        <v>823.5010495961657</v>
       </c>
       <c r="E118">
-        <v>249.2860412891472</v>
+        <v>249.1958763839376</v>
       </c>
       <c r="F118">
-        <v>145.1532055554487</v>
+        <v>237.1207180934715</v>
       </c>
       <c r="G118">
-        <v>237.210024655096</v>
+        <v>176.3357419937358</v>
       </c>
       <c r="H118">
-        <v>176.4487372119566</v>
+        <v>239.8230134417488</v>
       </c>
       <c r="I118">
-        <v>239.9130568103208</v>
+        <v>145.0633751871433</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -14744,22 +14744,22 @@
         <v>298</v>
       </c>
       <c r="D119">
-        <v>0.6739444930865033</v>
+        <v>0.6739446262854176</v>
       </c>
       <c r="E119">
-        <v>0.5605998433174054</v>
+        <v>0.5605615345572469</v>
       </c>
       <c r="F119">
-        <v>0.5008363478323792</v>
+        <v>0.5552799804863038</v>
       </c>
       <c r="G119">
-        <v>0.555320182875835</v>
+        <v>0.5229061557924071</v>
       </c>
       <c r="H119">
-        <v>0.5229777748445705</v>
+        <v>0.5564887186466818</v>
       </c>
       <c r="I119">
-        <v>0.5565287219823215</v>
+        <v>0.5007651534194595</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -14768,22 +14768,22 @@
         <v>299</v>
       </c>
       <c r="D120">
-        <v>41.89802278122237</v>
+        <v>41.89808153725406</v>
       </c>
       <c r="E120">
-        <v>15.24751903822135</v>
+        <v>15.24304576225332</v>
       </c>
       <c r="F120">
-        <v>9.937679509519072</v>
+        <v>14.64238024427192</v>
       </c>
       <c r="G120">
-        <v>14.64683455674271</v>
+        <v>11.56300705128982</v>
       </c>
       <c r="H120">
-        <v>11.56883207103255</v>
+        <v>14.77708210927625</v>
       </c>
       <c r="I120">
-        <v>14.78156769996226</v>
+        <v>9.932941396659364</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -14798,7 +14798,7 @@
         <v>20</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G121">
         <v>15</v>
@@ -14807,7 +14807,7 @@
         <v>15</v>
       </c>
       <c r="I121">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -14843,22 +14843,22 @@
         <v>224</v>
       </c>
       <c r="D123">
-        <v>213.9009857657767</v>
+        <v>213.8890460604469</v>
       </c>
       <c r="E123">
-        <v>328.9594952154278</v>
+        <v>328.9825263301607</v>
       </c>
       <c r="F123">
-        <v>362.939417627667</v>
+        <v>316.0186828393621</v>
       </c>
       <c r="G123">
-        <v>315.9999531866147</v>
+        <v>440.786959303333</v>
       </c>
       <c r="H123">
-        <v>440.7266179126649</v>
+        <v>335.8986966397204</v>
       </c>
       <c r="I123">
-        <v>335.8723050393955</v>
+        <v>362.9902157470754</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -14896,22 +14896,22 @@
         <v>227</v>
       </c>
       <c r="D125">
-        <v>16537.58451721483</v>
+        <v>16537.37778895486</v>
       </c>
       <c r="E125">
-        <v>11278.23963153474</v>
+        <v>11277.11132290081</v>
       </c>
       <c r="F125">
-        <v>9906.169943996871</v>
+        <v>11043.40591733271</v>
       </c>
       <c r="G125">
-        <v>11044.53297089138</v>
+        <v>15967.77793668152</v>
       </c>
       <c r="H125">
-        <v>15970.26126599507</v>
+        <v>11181.82450271458</v>
       </c>
       <c r="I125">
-        <v>11182.95718492689</v>
+        <v>9904.965722050958</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -14929,7 +14929,7 @@
         <v>950.2548879891278</v>
       </c>
       <c r="F126">
-        <v>620.5362044090547</v>
+        <v>778.9098966193278</v>
       </c>
       <c r="G126">
         <v>778.9098966193278</v>
@@ -14938,7 +14938,7 @@
         <v>778.9098966193278</v>
       </c>
       <c r="I126">
-        <v>778.9098966193278</v>
+        <v>620.5362044090547</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -14964,7 +14964,7 @@
         <v>294</v>
       </c>
       <c r="D130">
-        <v>187.0315085163045</v>
+        <v>187.0318077665605</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -14987,7 +14987,7 @@
         <v>227</v>
       </c>
       <c r="D132">
-        <v>611309.5762833187</v>
+        <v>611310.1377095466</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -15028,7 +15028,7 @@
         <v>279</v>
       </c>
       <c r="D136">
-        <v>168</v>
+        <v>0.25</v>
       </c>
       <c r="E136">
         <v>168</v>
@@ -15037,7 +15037,7 @@
         <v>168</v>
       </c>
       <c r="G136">
-        <v>0.25</v>
+        <v>168</v>
       </c>
       <c r="H136">
         <v>168</v>
@@ -15055,22 +15055,22 @@
         <v>312</v>
       </c>
       <c r="D137">
-        <v>9.698734824930513</v>
+        <v>8.237070584158236</v>
       </c>
       <c r="E137">
-        <v>0.2007925850392042</v>
+        <v>655.0171644232955</v>
       </c>
       <c r="F137">
-        <v>655.017169575882</v>
+        <v>780.4995050039232</v>
       </c>
       <c r="G137">
-        <v>8.242171132099656</v>
+        <v>9.698734824930511</v>
       </c>
       <c r="H137">
-        <v>780.4995050038758</v>
+        <v>2250.256878889968</v>
       </c>
       <c r="I137">
-        <v>2250.256878889973</v>
+        <v>0.2006653904247368</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -15108,22 +15108,22 @@
         <v>227</v>
       </c>
       <c r="D139">
+        <v>71620.38277544368</v>
+      </c>
+      <c r="E139">
+        <v>430371.1637965343</v>
+      </c>
+      <c r="F139">
+        <v>470366.0631239096</v>
+      </c>
+      <c r="G139">
         <v>71870.93620191589</v>
       </c>
-      <c r="E139">
-        <v>70242.83180813085</v>
-      </c>
-      <c r="F139">
-        <v>430371.165512955</v>
-      </c>
-      <c r="G139">
-        <v>71621.25709372277</v>
-      </c>
       <c r="H139">
-        <v>470366.0631238952</v>
+        <v>804608.7092538</v>
       </c>
       <c r="I139">
-        <v>804608.7092538007</v>
+        <v>70242.81000487017</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -15161,7 +15161,7 @@
         <v>312</v>
       </c>
       <c r="D144">
-        <v>5.66173157595156</v>
+        <v>5.659683769791907</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -15184,7 +15184,7 @@
         <v>227</v>
       </c>
       <c r="D146">
-        <v>71178.92707389846</v>
+        <v>71178.57604605242</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Report.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="318">
   <si>
     <t>Unit operation</t>
   </si>
@@ -51,81 +51,90 @@
     <t>T106</t>
   </si>
   <si>
+    <t>D103</t>
+  </si>
+  <si>
     <t>D102</t>
   </si>
   <si>
+    <t>D101</t>
+  </si>
+  <si>
     <t>D104</t>
   </si>
   <si>
-    <t>D101</t>
-  </si>
-  <si>
-    <t>D103</t>
-  </si>
-  <si>
     <t>R101</t>
   </si>
   <si>
+    <t>H101</t>
+  </si>
+  <si>
+    <t>H102</t>
+  </si>
+  <si>
+    <t>H107</t>
+  </si>
+  <si>
     <t>H108</t>
   </si>
   <si>
-    <t>H107</t>
+    <t>H105</t>
   </si>
   <si>
     <t>H106</t>
   </si>
   <si>
-    <t>H101</t>
+    <t>H109</t>
   </si>
   <si>
     <t>H103</t>
   </si>
   <si>
-    <t>H109</t>
-  </si>
-  <si>
-    <t>H105</t>
-  </si>
-  <si>
     <t>H104</t>
   </si>
   <si>
-    <t>H102</t>
+    <t>C102</t>
   </si>
   <si>
     <t>C103</t>
   </si>
   <si>
-    <t>C102</t>
-  </si>
-  <si>
     <t>M104</t>
   </si>
   <si>
+    <t>P104</t>
+  </si>
+  <si>
     <t>P107</t>
   </si>
   <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
     <t>P106</t>
   </si>
   <si>
-    <t>P104</t>
-  </si>
-  <si>
-    <t>P105</t>
+    <t>P109</t>
   </si>
   <si>
     <t>P108</t>
   </si>
   <si>
-    <t>P102</t>
-  </si>
-  <si>
-    <t>P109</t>
-  </si>
-  <si>
     <t>C101</t>
   </si>
   <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T108</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
     <t>T102</t>
   </si>
   <si>
@@ -135,18 +144,9 @@
     <t>T110</t>
   </si>
   <si>
-    <t>T101</t>
-  </si>
-  <si>
     <t>T104</t>
   </si>
   <si>
-    <t>T108</t>
-  </si>
-  <si>
-    <t>T105</t>
-  </si>
-  <si>
     <t>T107</t>
   </si>
   <si>
@@ -249,90 +249,90 @@
     <t>Cumilative NPV</t>
   </si>
   <si>
+    <t>process_water</t>
+  </si>
+  <si>
+    <t>tridecane</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>oil_fraction</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>recycle_nitrogen</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>s.12</t>
+  </si>
+  <si>
+    <t>LAOs_to_separations</t>
+  </si>
+  <si>
+    <t>s.13</t>
+  </si>
+  <si>
+    <t>cell_recycle</t>
+  </si>
+  <si>
+    <t>wastewater</t>
+  </si>
+  <si>
+    <t>mixed_bioreactor_feed</t>
+  </si>
+  <si>
+    <t>boiler_makeup_water</t>
+  </si>
+  <si>
+    <t>solvent_recycle</t>
+  </si>
+  <si>
+    <t>natural_gas</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>hexene</t>
+  </si>
+  <si>
+    <t>aqueous_fraction</t>
+  </si>
+  <si>
+    <t>boiler_chemicals</t>
+  </si>
+  <si>
     <t>octene</t>
   </si>
   <si>
+    <t>cell_mass</t>
+  </si>
+  <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>decene</t>
+  </si>
+  <si>
     <t>rejected_water_and_blowdown</t>
   </si>
   <si>
     <t>ash_disposal</t>
   </si>
   <si>
-    <t>tridecane</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>process_water</t>
-  </si>
-  <si>
-    <t>oil_fraction</t>
-  </si>
-  <si>
-    <t>recycle_nitrogen</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>cell_recycle</t>
-  </si>
-  <si>
-    <t>s.12</t>
-  </si>
-  <si>
-    <t>hexene</t>
-  </si>
-  <si>
-    <t>wastewater</t>
-  </si>
-  <si>
-    <t>LAOs_to_separations</t>
-  </si>
-  <si>
-    <t>mixed_bioreactor_feed</t>
-  </si>
-  <si>
     <t>glucose</t>
   </si>
   <si>
-    <t>s.13</t>
-  </si>
-  <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>solvent_recycle</t>
-  </si>
-  <si>
-    <t>boiler_makeup_water</t>
-  </si>
-  <si>
-    <t>natural_gas</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>boiler_chemicals</t>
-  </si>
-  <si>
-    <t>aqueous_fraction</t>
-  </si>
-  <si>
-    <t>decene</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>cell_mass</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
@@ -579,36 +579,36 @@
     <t>-</t>
   </si>
   <si>
+    <t>M102</t>
+  </si>
+  <si>
     <t>liquid</t>
   </si>
   <si>
     <t>M101</t>
   </si>
   <si>
-    <t>M102</t>
+    <t>gas</t>
   </si>
   <si>
     <t>M103</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
     <t>M105</t>
   </si>
   <si>
     <t>gas|liquid</t>
   </si>
   <si>
+    <t>s.15</t>
+  </si>
+  <si>
+    <t>s.16</t>
+  </si>
+  <si>
     <t>cooling_tower_makeup_water</t>
   </si>
   <si>
-    <t>s.15</t>
-  </si>
-  <si>
-    <t>s.16</t>
-  </si>
-  <si>
     <t>evaporation_and_blowdown</t>
   </si>
   <si>
@@ -777,46 +777,16 @@
     <t>Reflux</t>
   </si>
   <si>
-    <t>Rectifier stages</t>
-  </si>
-  <si>
-    <t>Stripper stages</t>
-  </si>
-  <si>
-    <t>Rectifier height</t>
-  </si>
-  <si>
-    <t>Stripper height</t>
-  </si>
-  <si>
-    <t>Rectifier diameter</t>
-  </si>
-  <si>
-    <t>Stripper diameter</t>
-  </si>
-  <si>
-    <t>Rectifier wall thickness</t>
-  </si>
-  <si>
-    <t>Stripper wall thickness</t>
-  </si>
-  <si>
-    <t>Rectifier weight</t>
-  </si>
-  <si>
-    <t>Stripper weight</t>
-  </si>
-  <si>
-    <t>Rectifier trays</t>
-  </si>
-  <si>
-    <t>Stripper trays</t>
-  </si>
-  <si>
-    <t>Rectifier tower</t>
-  </si>
-  <si>
-    <t>Stripper tower</t>
+    <t>Actual stages</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Trays</t>
+  </si>
+  <si>
+    <t>Tower</t>
   </si>
   <si>
     <t>Condenser</t>
@@ -888,7 +858,7 @@
     <t>Total tube length</t>
   </si>
   <si>
-    <t>Floating head</t>
+    <t>Double pipe</t>
   </si>
   <si>
     <t>ft^2</t>
@@ -1085,10 +1055,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>287</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>304</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1106,7 +1076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="175317150" cy="30241875"/>
+          <a:ext cx="185880375" cy="38414325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,13 +1414,13 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>1.054852137793614</v>
+        <v>1.054773541655092</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.675878022449438</v>
+        <v>1.675770022977323</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1461,13 +1431,13 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <v>0.05308068385081025</v>
+        <v>0.09213034252712669</v>
       </c>
       <c r="D4">
-        <v>0.001885793139833932</v>
+        <v>0.004383953515598994</v>
       </c>
       <c r="E4">
-        <v>0.1233971481017001</v>
+        <v>0.2175795265056247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1478,13 +1448,13 @@
         <v>45</v>
       </c>
       <c r="C5">
-        <v>6.165515069407353</v>
+        <v>6.395696383675963</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.165515069407353</v>
+        <v>6.395696383675963</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1495,13 +1465,13 @@
         <v>46</v>
       </c>
       <c r="C6">
-        <v>1.199131842135328</v>
+        <v>1.198961278474678</v>
       </c>
       <c r="D6">
-        <v>-0.4978638997671023</v>
+        <v>-0.4977627812933903</v>
       </c>
       <c r="E6">
-        <v>1.798697763202992</v>
+        <v>1.798441917712017</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1512,13 +1482,13 @@
         <v>47</v>
       </c>
       <c r="C7">
-        <v>0.3540274582201211</v>
+        <v>0.3532332768636932</v>
       </c>
       <c r="D7">
-        <v>-0.06248582837580649</v>
+        <v>-0.06228965176681526</v>
       </c>
       <c r="E7">
-        <v>0.6115070593445878</v>
+        <v>0.6101136232739687</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1529,13 +1499,13 @@
         <v>48</v>
       </c>
       <c r="C8">
-        <v>0.07255241231115055</v>
+        <v>0.1437748901163468</v>
       </c>
       <c r="D8">
-        <v>0.0009195825225215832</v>
+        <v>0.002571229068604121</v>
       </c>
       <c r="E8">
-        <v>0.1288570397595565</v>
+        <v>0.2566055379164042</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1546,13 +1516,13 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>1.063233458581979</v>
+        <v>0.4206386163803169</v>
       </c>
       <c r="D9">
-        <v>0.3848260656063575</v>
+        <v>0.3585668088869168</v>
       </c>
       <c r="E9">
-        <v>4.292697597848596</v>
+        <v>1.78126729043171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1563,13 +1533,13 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>0.5328966353043671</v>
+        <v>1.01013167602868</v>
       </c>
       <c r="D10">
-        <v>0.4658603219781124</v>
+        <v>0.4353248988259659</v>
       </c>
       <c r="E10">
-        <v>2.10757933032247</v>
+        <v>4.046710351458577</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1580,13 +1550,13 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>1.103546388268882</v>
+        <v>1.43515882737056</v>
       </c>
       <c r="D11">
-        <v>2.287448734560019</v>
+        <v>3.396339748077175</v>
       </c>
       <c r="E11">
-        <v>4.020233216300775</v>
+        <v>5.160802574210532</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1597,13 +1567,13 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>0.4206322132072747</v>
+        <v>0.5328844259227101</v>
       </c>
       <c r="D12">
-        <v>0.3544575495203449</v>
+        <v>0.4658247108485561</v>
       </c>
       <c r="E12">
-        <v>1.781255764720234</v>
+        <v>2.107527985737564</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1614,13 +1584,13 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>12.8418406321247</v>
+        <v>12.96608205967915</v>
       </c>
       <c r="D13">
-        <v>2.119643420412251</v>
+        <v>2.122731309346135</v>
       </c>
       <c r="E13">
-        <v>19.52756125688624</v>
+        <v>19.71544382561558</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1631,13 +1601,13 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>0.1062874280706661</v>
+        <v>0.004670596361043651</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.04813445639390097</v>
       </c>
       <c r="E14">
-        <v>0.3369311469840116</v>
+        <v>0.008407073449878571</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1648,13 +1618,13 @@
         <v>51</v>
       </c>
       <c r="C15">
-        <v>0.08466714530874628</v>
+        <v>1.240427413014563</v>
       </c>
       <c r="D15">
-        <v>0.005925432416648838</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2683948506287256</v>
+        <v>3.932154899256164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1665,13 +1635,13 @@
         <v>51</v>
       </c>
       <c r="C16">
-        <v>0.08963510565312641</v>
+        <v>0.08470285584514819</v>
       </c>
       <c r="D16">
-        <v>0.003045590888969005</v>
+        <v>0.00593707528299791</v>
       </c>
       <c r="E16">
-        <v>0.2841432849204107</v>
+        <v>0.2685080530291198</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1682,13 +1652,13 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>0.004603987431406415</v>
+        <v>0.1064978160125473</v>
       </c>
       <c r="D17">
-        <v>0.0441630797293597</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.008287177376531549</v>
+        <v>0.3375980767597751</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1699,13 +1669,13 @@
         <v>51</v>
       </c>
       <c r="C18">
-        <v>0.4778337860645997</v>
+        <v>0.1086702220567447</v>
       </c>
       <c r="D18">
-        <v>4.895358121703571</v>
+        <v>0.004276391960233302</v>
       </c>
       <c r="E18">
-        <v>1.514733101824781</v>
+        <v>0.3444846039198809</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1716,13 +1686,13 @@
         <v>51</v>
       </c>
       <c r="C19">
-        <v>0.1487926334305923</v>
+        <v>0.08966633878962171</v>
       </c>
       <c r="D19">
-        <v>0.03591330030189272</v>
+        <v>0.003049186240635165</v>
       </c>
       <c r="E19">
-        <v>0.4716726479749775</v>
+        <v>0.2842422939631008</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1733,13 +1703,13 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>0.1650612302463063</v>
+        <v>0.1490939799232604</v>
       </c>
       <c r="D20">
-        <v>0.03962242967560668</v>
+        <v>0.03603022158708855</v>
       </c>
       <c r="E20">
-        <v>0.5232440998807908</v>
+        <v>0.4726279163567356</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1750,13 +1720,13 @@
         <v>51</v>
       </c>
       <c r="C21">
-        <v>0.1837104564111267</v>
+        <v>0.4013526315076728</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1.505971154195312</v>
       </c>
       <c r="E21">
-        <v>0.5823621468232715</v>
+        <v>1.272287841879323</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1767,13 +1737,13 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>0.2628909548208345</v>
+        <v>0.5374289071064848</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8333643267820454</v>
+        <v>1.703649635527557</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1784,13 +1754,13 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>0.181532207607021</v>
+        <v>0.621235868181682</v>
       </c>
       <c r="D23">
-        <v>0.02076685382631878</v>
+        <v>0.1058764506366961</v>
       </c>
       <c r="E23">
-        <v>0.3685103814422526</v>
+        <v>1.261108812408814</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1801,13 +1771,13 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>0.3078114853999015</v>
+        <v>0.1815653258897948</v>
       </c>
       <c r="D24">
-        <v>0.05210774678677146</v>
+        <v>0.02077345471386733</v>
       </c>
       <c r="E24">
-        <v>0.6248573153618</v>
+        <v>0.3685776115562834</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1818,13 +1788,13 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>0.01770173822419393</v>
+        <v>0.02626613999648093</v>
       </c>
       <c r="D25">
-        <v>0.002349852059379274</v>
+        <v>0.006293349664885318</v>
       </c>
       <c r="E25">
-        <v>0.05362328274531229</v>
+        <v>0.07722798573797388</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1835,13 +1805,13 @@
         <v>54</v>
       </c>
       <c r="C26">
-        <v>0.01182231581467551</v>
+        <v>0.04464129424864223</v>
       </c>
       <c r="D26">
-        <v>0.00718067044323512</v>
+        <v>0.04658555435084429</v>
       </c>
       <c r="E26">
-        <v>0.03901364218842918</v>
+        <v>0.1473162710205194</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1852,13 +1822,13 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>0.01196073440006591</v>
+        <v>0.01534405206600957</v>
       </c>
       <c r="D27">
-        <v>0.007246728671786357</v>
+        <v>0.01316082318942721</v>
       </c>
       <c r="E27">
-        <v>0.03947042352021751</v>
+        <v>0.05063537181783159</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1869,13 +1839,13 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>0.01872290930593616</v>
+        <v>0.01558720964477061</v>
       </c>
       <c r="D28">
-        <v>0.02054695416076678</v>
+        <v>0.01349123948172695</v>
       </c>
       <c r="E28">
-        <v>0.06178560070958933</v>
+        <v>0.05143779182774303</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1886,13 +1856,13 @@
         <v>54</v>
       </c>
       <c r="C29">
-        <v>0.01222736621161779</v>
+        <v>0.01419006013850257</v>
       </c>
       <c r="D29">
-        <v>0.00747523874829165</v>
+        <v>0.0110696372105584</v>
       </c>
       <c r="E29">
-        <v>0.04035030849833869</v>
+        <v>0.04682719845705849</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1903,13 +1873,13 @@
         <v>54</v>
       </c>
       <c r="C30">
-        <v>0.01674668783323073</v>
+        <v>0.01550065083927062</v>
       </c>
       <c r="D30">
-        <v>0.005670535907859805</v>
+        <v>0.01327020730349047</v>
       </c>
       <c r="E30">
-        <v>0.0552640698496614</v>
+        <v>0.05115214776959305</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1920,13 +1890,13 @@
         <v>54</v>
       </c>
       <c r="C31">
-        <v>0.01052560448870864</v>
+        <v>0.01419003994534492</v>
       </c>
       <c r="D31">
-        <v>0.00487135112121182</v>
+        <v>0.01106959615794464</v>
       </c>
       <c r="E31">
-        <v>0.03473449481273852</v>
+        <v>0.04682713181963823</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1937,13 +1907,13 @@
         <v>54</v>
       </c>
       <c r="C32">
-        <v>0.01052550192646622</v>
+        <v>0.01619864588326424</v>
       </c>
       <c r="D32">
-        <v>0.004871146459670669</v>
+        <v>0.01331521037659321</v>
       </c>
       <c r="E32">
-        <v>0.03473415635733854</v>
+        <v>0.05345553141477198</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1954,13 +1924,13 @@
         <v>55</v>
       </c>
       <c r="C33">
-        <v>0.6113101377331597</v>
+        <v>1.649327842540777</v>
       </c>
       <c r="D33">
-        <v>0.1721970073777826</v>
+        <v>0.4294131276048939</v>
       </c>
       <c r="E33">
-        <v>1.240959579598314</v>
+        <v>3.348135520357777</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1971,13 +1941,13 @@
         <v>56</v>
       </c>
       <c r="C34">
-        <v>0.07162038277598648</v>
+        <v>0.2301082083987516</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.1647268803847689</v>
+        <v>0.5292488793171287</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1988,13 +1958,13 @@
         <v>56</v>
       </c>
       <c r="C35">
-        <v>0.4690692361359995</v>
+        <v>0.4193255051023682</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1.078859243112799</v>
+        <v>0.9644486617354467</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2005,13 +1975,13 @@
         <v>56</v>
       </c>
       <c r="C36">
-        <v>0.8135305854415096</v>
+        <v>0.07207875289322038</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1.871120346515472</v>
+        <v>0.1657811316544069</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2022,13 +1992,13 @@
         <v>56</v>
       </c>
       <c r="C37">
-        <v>0.07187093620191588</v>
+        <v>0.07410958687449432</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.1653031532644065</v>
+        <v>0.1704520498113369</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2039,13 +2009,13 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>0.07024281000487015</v>
+        <v>0.4690486814013057</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0.1615584630112013</v>
+        <v>1.078811967223003</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2056,13 +2026,13 @@
         <v>56</v>
       </c>
       <c r="C39">
-        <v>0.4193125006285951</v>
+        <v>0.8134922165514918</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.9644187514457687</v>
+        <v>1.871032098068431</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2073,13 +2043,13 @@
         <v>56</v>
       </c>
       <c r="C40">
-        <v>0.1343291032742956</v>
+        <v>0.07030499200977856</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.3089569375308799</v>
+        <v>0.1617014816224907</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2090,13 +2060,13 @@
         <v>57</v>
       </c>
       <c r="C41">
-        <v>0.07117857604627145</v>
+        <v>0.0721796638346069</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.1637107249064243</v>
+        <v>0.1660132268195959</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2121,13 +2091,13 @@
         <v>59</v>
       </c>
       <c r="C45">
-        <v>15.19744829649239</v>
+        <v>13.91696547242722</v>
       </c>
       <c r="D45">
-        <v>-6.583290852109744</v>
+        <v>-4.558759364599154</v>
       </c>
       <c r="E45">
-        <v>27.52188364327255</v>
+        <v>25.19814521262255</v>
       </c>
     </row>
   </sheetData>
@@ -2198,10 +2168,10 @@
         <v>2014</v>
       </c>
       <c r="B2">
-        <v>7227961.859834491</v>
+        <v>7837000.726012919</v>
       </c>
       <c r="C2">
-        <v>13010331.34770208</v>
+        <v>14106601.30682325</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2210,16 +2180,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5204132.539080834</v>
+        <v>5642640.522729302</v>
       </c>
       <c r="G2">
-        <v>416330.6031264667</v>
+        <v>451411.2418183441</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5620463.142207301</v>
+        <v>6094051.764547646</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2231,19 +2201,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-7806198.80862125</v>
+        <v>-8463960.784093952</v>
       </c>
       <c r="N2">
         <v>2.42</v>
       </c>
       <c r="O2">
-        <v>-18891001.11686343</v>
+        <v>-20482785.09750737</v>
       </c>
       <c r="P2">
-        <v>-9445500.558431713</v>
+        <v>-10241392.54875368</v>
       </c>
       <c r="Q2">
-        <v>-18891001.11686343</v>
+        <v>-20482785.09750737</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2251,10 +2221,10 @@
         <v>2015</v>
       </c>
       <c r="B3">
-        <v>54209713.94875868</v>
+        <v>58777505.4450969</v>
       </c>
       <c r="C3">
-        <v>97577485.10776561</v>
+        <v>105799509.8011744</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2263,16 +2233,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39030994.04310625</v>
+        <v>42319803.92046976</v>
       </c>
       <c r="G3">
-        <v>3572116.574825084</v>
+        <v>3873108.454801392</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>48223573.76013863</v>
+        <v>52286964.1398188</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2284,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-58546491.06465937</v>
+        <v>-63479705.88070464</v>
       </c>
       <c r="N3">
         <v>2.2</v>
       </c>
       <c r="O3">
-        <v>-128802280.3422506</v>
+        <v>-139655352.9375502</v>
       </c>
       <c r="P3">
-        <v>-73846640.72955702</v>
+        <v>-80069069.0175288</v>
       </c>
       <c r="Q3">
-        <v>-147693281.4591141</v>
+        <v>-160138138.0350576</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2304,28 +2274,28 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>28911847.43933797</v>
+        <v>31348002.90405168</v>
       </c>
       <c r="C4">
-        <v>52041325.39080834</v>
+        <v>56426405.22729301</v>
       </c>
       <c r="D4">
-        <v>8131457.092313804</v>
+        <v>8816625.816764534</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24069112.99324886</v>
+        <v>26097212.41762302</v>
       </c>
       <c r="G4">
-        <v>5783414.940270999</v>
+        <v>6270734.124595346</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>78076101.69365849</v>
+        <v>84654910.68203717</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2337,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-36103669.48987328</v>
+        <v>-39145818.62643453</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>-72207338.97974657</v>
+        <v>-78291637.25286905</v>
       </c>
       <c r="P4">
-        <v>-109950310.2194303</v>
+        <v>-119214887.6439633</v>
       </c>
       <c r="Q4">
-        <v>-219900620.4388607</v>
+        <v>-238429775.2879266</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2366,43 +2336,43 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10010140.33612843</v>
+        <v>11342958.04143016</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6246088.135492679</v>
+        <v>6772392.854562974</v>
       </c>
       <c r="H5">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I5">
-        <v>72686548.31479818</v>
+        <v>78811225.48238644</v>
       </c>
       <c r="J5">
-        <v>188512414.568737</v>
+        <v>150801285.4829822</v>
       </c>
       <c r="K5">
-        <v>193875437.3898671</v>
+        <v>145888050.2616288</v>
       </c>
       <c r="L5">
-        <v>-16282759.02935134</v>
+        <v>-28872271.31699727</v>
       </c>
       <c r="M5">
-        <v>-6272618.693222903</v>
+        <v>-17529313.27556711</v>
       </c>
       <c r="N5">
         <v>1.818181818181818</v>
       </c>
       <c r="O5">
-        <v>-11404761.26040528</v>
+        <v>-31871478.68284928</v>
       </c>
       <c r="P5">
-        <v>-116054382.8903902</v>
+        <v>-135150626.985388</v>
       </c>
       <c r="Q5">
-        <v>-231305381.6992659</v>
+        <v>-270301253.9707759</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2419,43 +2389,43 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17373293.71938873</v>
+        <v>19639046.81283501</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5814923.865183854</v>
+        <v>6304898.038590916</v>
       </c>
       <c r="H6">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I6">
-        <v>66865830.66562906</v>
+        <v>72500045.46676368</v>
       </c>
       <c r="J6">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K6">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L6">
-        <v>-8049001.863026571</v>
+        <v>-25890504.30543742</v>
       </c>
       <c r="M6">
-        <v>9324291.85636216</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N6">
         <v>1.652892561983471</v>
       </c>
       <c r="O6">
-        <v>15412052.65514407</v>
+        <v>-10332987.59107836</v>
       </c>
       <c r="P6">
-        <v>-108556384.4818</v>
+        <v>-140317120.7809271</v>
       </c>
       <c r="Q6">
-        <v>-215893329.0441219</v>
+        <v>-280634241.5618542</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2472,43 +2442,43 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12826190.33771609</v>
+        <v>14408967.39540487</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5349266.453250324</v>
+        <v>5800003.637341093</v>
       </c>
       <c r="H7">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I7">
-        <v>60579455.6045264</v>
+        <v>65683971.04989107</v>
       </c>
       <c r="J7">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K7">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L7">
-        <v>-3501898.481353933</v>
+        <v>-20660424.88800728</v>
       </c>
       <c r="M7">
-        <v>9324291.85636216</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N7">
         <v>1.502629601803155</v>
       </c>
       <c r="O7">
-        <v>14010956.95922188</v>
+        <v>-9393625.082798507</v>
       </c>
       <c r="P7">
-        <v>-101779247.6965838</v>
+        <v>-145013933.3223264</v>
       </c>
       <c r="Q7">
-        <v>-201882372.0849</v>
+        <v>-290027866.6446527</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2525,43 +2495,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9547198.939266803</v>
+        <v>10644758.47621481</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4846356.448362112</v>
+        <v>5254717.683991286</v>
       </c>
       <c r="H8">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I8">
-        <v>53790170.53853554</v>
+        <v>58322610.67966866</v>
       </c>
       <c r="J8">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K8">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L8">
-        <v>-222907.0829046415</v>
+        <v>-16896215.96881722</v>
       </c>
       <c r="M8">
-        <v>9324291.85636216</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N8">
         <v>1.366026910730141</v>
       </c>
       <c r="O8">
-        <v>12737233.59929261</v>
+        <v>-8539659.166180462</v>
       </c>
       <c r="P8">
-        <v>-95651110.43495753</v>
+        <v>-149283762.9054166</v>
       </c>
       <c r="Q8">
-        <v>-189145138.4856074</v>
+        <v>-298567525.8108332</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2578,43 +2548,43 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7182833.429236173</v>
+        <v>7937427.728921853</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4303213.643082843</v>
+        <v>4665808.854373493</v>
       </c>
       <c r="H9">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I9">
-        <v>46457742.6672654</v>
+        <v>50372341.47982846</v>
       </c>
       <c r="J9">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K9">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L9">
-        <v>1391947.977631892</v>
+        <v>-14188885.22152426</v>
       </c>
       <c r="M9">
-        <v>8574781.406868065</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N9">
         <v>1.24184264611831</v>
       </c>
       <c r="O9">
-        <v>10648529.23219112</v>
+        <v>-7763326.514709509</v>
       </c>
       <c r="P9">
-        <v>-90326845.81886198</v>
+        <v>-153165426.1627714</v>
       </c>
       <c r="Q9">
-        <v>-178496609.2534163</v>
+        <v>-306330852.3255427</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2631,43 +2601,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7058757.003282499</v>
+        <v>7822303.231025575</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3716619.413381232</v>
+        <v>4029787.318386277</v>
       </c>
       <c r="H10">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I10">
-        <v>38538720.56629366</v>
+        <v>41786050.74400105</v>
       </c>
       <c r="J10">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K10">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L10">
-        <v>1472597.65450178</v>
+        <v>-14073760.72362798</v>
       </c>
       <c r="M10">
-        <v>8531354.657784279</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N10">
         <v>1.128947860107554</v>
       </c>
       <c r="O10">
-        <v>9631454.58472418</v>
+        <v>-7057569.558826827</v>
       </c>
       <c r="P10">
-        <v>-85511118.5264999</v>
+        <v>-156694210.9421848</v>
       </c>
       <c r="Q10">
-        <v>-168865154.6686921</v>
+        <v>-313388421.8843696</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2684,43 +2654,43 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6955777.889179174</v>
+        <v>7729543.030917717</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3083097.645303492</v>
+        <v>3342884.059520084</v>
       </c>
       <c r="H11">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I11">
-        <v>29986176.69724416</v>
+        <v>32512856.74930744</v>
       </c>
       <c r="J11">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K11">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L11">
-        <v>1539534.078668941</v>
+        <v>-13981000.52352013</v>
       </c>
       <c r="M11">
-        <v>8495311.967848115</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N11">
         <v>1.026316236461413</v>
       </c>
       <c r="O11">
-        <v>8718876.606407477</v>
+        <v>-6415972.326206204</v>
       </c>
       <c r="P11">
-        <v>-81151680.22329615</v>
+        <v>-159902197.1052879</v>
       </c>
       <c r="Q11">
-        <v>-160146278.0622846</v>
+        <v>-319804394.2105758</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2737,43 +2707,43 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4046652.304716557</v>
+        <v>4384750.754784029</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2398894.135779533</v>
+        <v>2601028.539944595</v>
       </c>
       <c r="H12">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I12">
-        <v>20749429.31867072</v>
+        <v>22497807.23503835</v>
       </c>
       <c r="J12">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K12">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L12">
-        <v>3430465.708569643</v>
+        <v>-10636208.24738644</v>
       </c>
       <c r="M12">
-        <v>7477118.0132862</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N12">
         <v>0.9330147604194662</v>
       </c>
       <c r="O12">
-        <v>6976261.471794299</v>
+        <v>-5832702.114732913</v>
       </c>
       <c r="P12">
-        <v>-77663549.487399</v>
+        <v>-162818548.1626543</v>
       </c>
       <c r="Q12">
-        <v>-153170016.5904903</v>
+        <v>-325637096.3253087</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2790,43 +2760,43 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12280264.48162821</v>
+        <v>11243412.39387218</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1659954.345493657</v>
+        <v>1799824.578803068</v>
       </c>
       <c r="H13">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I13">
-        <v>10773742.14981139</v>
+        <v>11681553.75962772</v>
       </c>
       <c r="J13">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K13">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L13">
-        <v>-2955972.625266052</v>
+        <v>-17494869.88647459</v>
       </c>
       <c r="M13">
-        <v>9324291.85636216</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N13">
         <v>0.8481952367449691</v>
       </c>
       <c r="O13">
-        <v>7908819.93858629</v>
+        <v>-5302456.46793901</v>
       </c>
       <c r="P13">
-        <v>-74691522.08050424</v>
+        <v>-165469776.3966238</v>
       </c>
       <c r="Q13">
-        <v>-145261196.651904</v>
+        <v>-330939552.7932477</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2843,43 +2813,43 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1227751.229326389</v>
+        <v>1124089.257935092</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>861899.3719849113</v>
+        <v>934524.3007702178</v>
       </c>
       <c r="H14">
-        <v>11635641.51435298</v>
+        <v>12616078.05421369</v>
       </c>
       <c r="I14">
-        <v>0.007443319191224873</v>
+        <v>0.006184248544741422</v>
       </c>
       <c r="J14">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K14">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L14">
-        <v>5262751.407573252</v>
+        <v>-7375546.7505375</v>
       </c>
       <c r="M14">
-        <v>6490502.636899641</v>
+        <v>-6251457.492602408</v>
       </c>
       <c r="N14">
         <v>0.7710865788590628</v>
       </c>
       <c r="O14">
-        <v>5004739.47336267</v>
+        <v>-4820414.970853646</v>
       </c>
       <c r="P14">
-        <v>-72189152.3438229</v>
+        <v>-167879983.8820507</v>
       </c>
       <c r="Q14">
-        <v>-140256457.1785413</v>
+        <v>-335759967.7641013</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2896,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1228026.448162821</v>
+        <v>1124341.239387218</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2911,28 +2881,28 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K15">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L15">
-        <v>12825739.49965901</v>
+        <v>3406181.559445643</v>
       </c>
       <c r="M15">
-        <v>14053765.94782183</v>
+        <v>4530522.798832862</v>
       </c>
       <c r="N15">
         <v>0.7009877989627844</v>
       </c>
       <c r="O15">
-        <v>9851518.458901756</v>
+        <v>3175841.204904561</v>
       </c>
       <c r="P15">
-        <v>-67263393.11437201</v>
+        <v>-166292063.2795984</v>
       </c>
       <c r="Q15">
-        <v>-130404938.7196396</v>
+        <v>-332584126.5591968</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2949,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1227751.229326389</v>
+        <v>1124089.257935092</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2964,28 +2934,28 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K16">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L16">
-        <v>12825918.39190269</v>
+        <v>3406345.347389525</v>
       </c>
       <c r="M16">
-        <v>14053669.62122908</v>
+        <v>4530434.605324617</v>
       </c>
       <c r="N16">
         <v>0.637261635420713</v>
       </c>
       <c r="O16">
-        <v>8955864.486486835</v>
+        <v>2887072.165755758</v>
       </c>
       <c r="P16">
-        <v>-62785460.8711286</v>
+        <v>-164848527.1967205</v>
       </c>
       <c r="Q16">
-        <v>-121449074.2331527</v>
+        <v>-329697054.393441</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3002,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1228026.448162821</v>
+        <v>1124341.239387218</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3017,28 +2987,28 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K17">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L17">
-        <v>12825739.49965901</v>
+        <v>3406181.559445643</v>
       </c>
       <c r="M17">
-        <v>14053765.94782183</v>
+        <v>4530522.798832862</v>
       </c>
       <c r="N17">
         <v>0.5793287594733754</v>
       </c>
       <c r="O17">
-        <v>8141750.792480787</v>
+        <v>2624662.152813687</v>
       </c>
       <c r="P17">
-        <v>-58714585.47488821</v>
+        <v>-163536196.1203137</v>
       </c>
       <c r="Q17">
-        <v>-113307323.440672</v>
+        <v>-327072392.2406273</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3055,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1227751.229326389</v>
+        <v>1124089.257935092</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3070,28 +3040,28 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K18">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L18">
-        <v>12825918.39190269</v>
+        <v>3406345.347389525</v>
       </c>
       <c r="M18">
-        <v>14053669.62122908</v>
+        <v>4530434.605324617</v>
       </c>
       <c r="N18">
         <v>0.5266625086121595</v>
       </c>
       <c r="O18">
-        <v>7401540.897923004</v>
+        <v>2386010.054343601</v>
       </c>
       <c r="P18">
-        <v>-55013815.02592671</v>
+        <v>-162343191.0931419</v>
       </c>
       <c r="Q18">
-        <v>-105905782.5427489</v>
+        <v>-324686382.1862838</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3108,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1228026.448162821</v>
+        <v>1124341.239387218</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3123,28 +3093,28 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K19">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L19">
-        <v>12825739.49965901</v>
+        <v>3406181.559445643</v>
       </c>
       <c r="M19">
-        <v>14053765.94782183</v>
+        <v>4530522.798832862</v>
       </c>
       <c r="N19">
         <v>0.4787840987383267</v>
       </c>
       <c r="O19">
-        <v>6728719.663207261</v>
+        <v>2169142.275052633</v>
       </c>
       <c r="P19">
-        <v>-51649455.19432308</v>
+        <v>-161258619.9556156</v>
       </c>
       <c r="Q19">
-        <v>-99177062.87954168</v>
+        <v>-322517239.9112312</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3161,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1227751.229326389</v>
+        <v>1124089.257935092</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3176,28 +3146,28 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K20">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L20">
-        <v>12825918.39190269</v>
+        <v>3406345.347389525</v>
       </c>
       <c r="M20">
-        <v>14053669.62122908</v>
+        <v>4530434.605324617</v>
       </c>
       <c r="N20">
         <v>0.435258271580297</v>
       </c>
       <c r="O20">
-        <v>6116975.948696696</v>
+        <v>1971909.135821158</v>
       </c>
       <c r="P20">
-        <v>-48590967.21997473</v>
+        <v>-160272665.387705</v>
       </c>
       <c r="Q20">
-        <v>-93060086.93084498</v>
+        <v>-320545330.77541</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3214,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1228026.448162821</v>
+        <v>1124341.239387218</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3229,28 +3199,28 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K21">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L21">
-        <v>12825739.49965901</v>
+        <v>3406181.559445643</v>
       </c>
       <c r="M21">
-        <v>14053765.94782183</v>
+        <v>4530522.798832862</v>
       </c>
       <c r="N21">
         <v>0.3956893378002699</v>
       </c>
       <c r="O21">
-        <v>5560925.341493604</v>
+        <v>1792679.566159201</v>
       </c>
       <c r="P21">
-        <v>-45810504.54922793</v>
+        <v>-159376325.6046254</v>
       </c>
       <c r="Q21">
-        <v>-87499161.58935137</v>
+        <v>-318752651.2092508</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3267,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1227751.229326389</v>
+        <v>1124089.257935092</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3282,28 +3252,28 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K22">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L22">
-        <v>12825918.39190269</v>
+        <v>3406345.347389525</v>
       </c>
       <c r="M22">
-        <v>14053669.62122908</v>
+        <v>4530434.605324617</v>
       </c>
       <c r="N22">
         <v>0.3597175798184272</v>
       </c>
       <c r="O22">
-        <v>5055352.023716277</v>
+        <v>1629676.971753022</v>
       </c>
       <c r="P22">
-        <v>-43282828.5373698</v>
+        <v>-158561487.1187489</v>
       </c>
       <c r="Q22">
-        <v>-82443809.5656351</v>
+        <v>-317122974.2374978</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3320,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1228026.448162821</v>
+        <v>1124341.239387218</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3335,28 +3305,28 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K23">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L23">
-        <v>12825739.49965901</v>
+        <v>3406181.559445643</v>
       </c>
       <c r="M23">
-        <v>14053765.94782183</v>
+        <v>4530522.798832862</v>
       </c>
       <c r="N23">
         <v>0.3270159816531156</v>
       </c>
       <c r="O23">
-        <v>4595806.067350085</v>
+        <v>1481553.360462149</v>
       </c>
       <c r="P23">
-        <v>-40984925.50369476</v>
+        <v>-157820710.4385178</v>
       </c>
       <c r="Q23">
-        <v>-77848003.49828501</v>
+        <v>-315641420.8770357</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3373,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1227751.229326389</v>
+        <v>1124089.257935092</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3388,28 +3358,28 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K24">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L24">
-        <v>12825918.39190269</v>
+        <v>3406345.347389525</v>
       </c>
       <c r="M24">
-        <v>14053669.62122908</v>
+        <v>4530434.605324617</v>
       </c>
       <c r="N24">
         <v>0.2972872560482869</v>
       </c>
       <c r="O24">
-        <v>4177976.87910436</v>
+        <v>1346840.472523159</v>
       </c>
       <c r="P24">
-        <v>-38895937.06414258</v>
+        <v>-157147290.2022563</v>
       </c>
       <c r="Q24">
-        <v>-73670026.61918065</v>
+        <v>-314294580.4045125</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3426,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>614013.2240814107</v>
+        <v>562170.6196936092</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3441,28 +3411,28 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K25">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L25">
-        <v>13224848.09531193</v>
+        <v>3771592.462246489</v>
       </c>
       <c r="M25">
-        <v>13838861.31939334</v>
+        <v>4333763.081940098</v>
       </c>
       <c r="N25">
         <v>0.2702611418620789</v>
       </c>
       <c r="O25">
-        <v>3740106.4622502</v>
+        <v>1171247.759084853</v>
       </c>
       <c r="P25">
-        <v>-37025883.83301748</v>
+        <v>-156561666.3227138</v>
       </c>
       <c r="Q25">
-        <v>-69929920.15693045</v>
+        <v>-313123332.6454276</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3494,28 +3464,28 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K26">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L26">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M26">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N26">
         <v>0.2456919471473445</v>
       </c>
       <c r="O26">
-        <v>3347296.447254244</v>
+        <v>1016428.412113596</v>
       </c>
       <c r="P26">
-        <v>-35352235.60939036</v>
+        <v>-156053452.116657</v>
       </c>
       <c r="Q26">
-        <v>-66582623.70967621</v>
+        <v>-312106904.233314</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3547,28 +3517,28 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K27">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L27">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M27">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N27">
         <v>0.223356315588495</v>
       </c>
       <c r="O27">
-        <v>3042996.770231131</v>
+        <v>924025.8291941782</v>
       </c>
       <c r="P27">
-        <v>-33830737.22427479</v>
+        <v>-155591439.20206</v>
       </c>
       <c r="Q27">
-        <v>-63539626.93944508</v>
+        <v>-311182878.4041198</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3600,28 +3570,28 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K28">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L28">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M28">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N28">
         <v>0.2030511959895409</v>
       </c>
       <c r="O28">
-        <v>2766360.700210119</v>
+        <v>840023.4810856165</v>
       </c>
       <c r="P28">
-        <v>-32447556.87416973</v>
+        <v>-155171427.4615171</v>
       </c>
       <c r="Q28">
-        <v>-60773266.23923496</v>
+        <v>-310342854.9230343</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3653,28 +3623,28 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K29">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L29">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M29">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N29">
         <v>0.184591996354128</v>
       </c>
       <c r="O29">
-        <v>2514873.36382738</v>
+        <v>763657.710077833</v>
       </c>
       <c r="P29">
-        <v>-31190120.19225604</v>
+        <v>-154789598.6064782</v>
       </c>
       <c r="Q29">
-        <v>-58258392.87540758</v>
+        <v>-309579197.2129564</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3706,28 +3676,28 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K30">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L30">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M30">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N30">
         <v>0.16781090577648</v>
       </c>
       <c r="O30">
-        <v>2286248.512570346</v>
+        <v>694234.2818889391</v>
       </c>
       <c r="P30">
-        <v>-30046995.93597087</v>
+        <v>-154442481.4655338</v>
       </c>
       <c r="Q30">
-        <v>-55972144.36283724</v>
+        <v>-308884962.9310675</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3759,28 +3729,28 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K31">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L31">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M31">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N31">
         <v>0.1525553688877091</v>
       </c>
       <c r="O31">
-        <v>2078407.738700314</v>
+        <v>631122.07444449</v>
       </c>
       <c r="P31">
-        <v>-29007792.06662071</v>
+        <v>-154126920.4283115</v>
       </c>
       <c r="Q31">
-        <v>-53893736.62413692</v>
+        <v>-308253840.856623</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3812,28 +3782,28 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K32">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L32">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M32">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N32">
         <v>0.1386866989888264</v>
       </c>
       <c r="O32">
-        <v>1889461.580636649</v>
+        <v>573747.3404040817</v>
       </c>
       <c r="P32">
-        <v>-28063061.27630238</v>
+        <v>-153840046.7581095</v>
       </c>
       <c r="Q32">
-        <v>-52004275.04350027</v>
+        <v>-307680093.5162189</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3865,28 +3835,28 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K33">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L33">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M33">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="N33">
         <v>0.1260788172625695</v>
       </c>
       <c r="O33">
-        <v>1717692.346033318</v>
+        <v>521588.491276438</v>
       </c>
       <c r="P33">
-        <v>-27204215.10328572</v>
+        <v>-153579252.5124713</v>
       </c>
       <c r="Q33">
-        <v>-50286582.69746695</v>
+        <v>-307158505.0249425</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3900,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-8131457.092313804</v>
+        <v>-8816625.816764534</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3918,28 +3888,28 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>200611995.0748472</v>
+        <v>160364579.737393</v>
       </c>
       <c r="K34">
-        <v>221571928.4455624</v>
+        <v>166729200.2990043</v>
       </c>
       <c r="L34">
-        <v>13623956.69096484</v>
+        <v>4137003.365047335</v>
       </c>
       <c r="M34">
-        <v>21755413.78327864</v>
+        <v>12953629.18181187</v>
       </c>
       <c r="N34">
         <v>0.1146171066023359</v>
       </c>
       <c r="O34">
-        <v>2493542.580775976</v>
+        <v>1484707.49681886</v>
       </c>
       <c r="P34">
-        <v>-25957443.81289773</v>
+        <v>-152836898.7640618</v>
       </c>
       <c r="Q34">
-        <v>-47793040.11669098</v>
+        <v>-305673797.5281236</v>
       </c>
     </row>
   </sheetData>
@@ -4172,52 +4142,52 @@
         <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
         <v>185</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
         <v>185</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>185</v>
       </c>
       <c r="L3" t="s">
         <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="Q3" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
         <v>185</v>
@@ -4226,106 +4196,106 @@
         <v>185</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
         <v>185</v>
       </c>
       <c r="W3" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="Z3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="AB3" t="s">
         <v>58</v>
       </c>
       <c r="AC3" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" t="s">
-        <v>35</v>
-      </c>
       <c r="AG3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="s">
         <v>5</v>
       </c>
       <c r="AI3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s">
         <v>9</v>
       </c>
       <c r="AK3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AL3" t="s">
         <v>14</v>
       </c>
       <c r="AM3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="s">
         <v>34</v>
       </c>
       <c r="AP3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AQ3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AS3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
       </c>
       <c r="AU3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AZ3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="s">
         <v>12</v>
@@ -4334,52 +4304,52 @@
         <v>12</v>
       </c>
       <c r="BD3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BE3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF3" t="s">
         <v>191</v>
       </c>
       <c r="BG3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BH3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BI3" t="s">
         <v>26</v>
       </c>
       <c r="BJ3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN3" t="s">
         <v>20</v>
       </c>
-      <c r="BK3" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL3" t="s">
+      <c r="BO3" t="s">
         <v>13</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BP3" t="s">
         <v>13</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BQ3" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>16</v>
-      </c>
       <c r="BR3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BS3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -4387,154 +4357,154 @@
         <v>147</v>
       </c>
       <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>185</v>
       </c>
-      <c r="C4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>188</v>
-      </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
         <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N4" t="s">
         <v>185</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="R4" t="s">
         <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="V4" t="s">
         <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="X4" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="Y4" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="Z4" t="s">
         <v>185</v>
       </c>
       <c r="AA4" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="AB4" t="s">
         <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>41</v>
-      </c>
       <c r="AM4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="s">
         <v>34</v>
       </c>
       <c r="AO4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AQ4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="s">
         <v>4</v>
       </c>
       <c r="AT4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AU4" t="s">
         <v>42</v>
       </c>
       <c r="AV4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AX4" t="s">
         <v>26</v>
       </c>
       <c r="AY4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="s">
         <v>12</v>
@@ -4543,58 +4513,58 @@
         <v>26</v>
       </c>
       <c r="BB4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC4" t="s">
         <v>191</v>
       </c>
       <c r="BD4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BE4" t="s">
         <v>191</v>
       </c>
       <c r="BF4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BG4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BH4" t="s">
         <v>26</v>
       </c>
       <c r="BI4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BJ4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BK4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BL4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO4" t="s">
         <v>17</v>
       </c>
-      <c r="BM4" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN4" t="s">
+      <c r="BP4" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS4" t="s">
         <v>40</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -4602,214 +4572,214 @@
         <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Z5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AE5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AH5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AI5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AJ5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AS5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AT5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AU5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AV5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AW5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AX5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AY5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AZ5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BA5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BB5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BC5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BD5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BE5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BF5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BG5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BH5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BI5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BJ5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BK5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BL5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BM5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BN5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BO5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BP5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BQ5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BR5" t="s">
         <v>192</v>
       </c>
       <c r="BS5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -4817,214 +4787,214 @@
         <v>149</v>
       </c>
       <c r="B6">
-        <v>3207.723353273743</v>
+        <v>335291.6727613754</v>
       </c>
       <c r="C6">
-        <v>1811.760551276205</v>
+        <v>-0.1054588056871662</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1185.991352774722</v>
       </c>
       <c r="E6">
-        <v>-5.165262246213172</v>
+        <v>84722.10321669103</v>
       </c>
       <c r="F6">
-        <v>1194.436847765658</v>
+        <v>142.2965296822202</v>
       </c>
       <c r="G6">
-        <v>119414.9026202219</v>
+        <v>31716.18489395235</v>
       </c>
       <c r="H6">
-        <v>41598.85966954432</v>
+        <v>3849.173132013093</v>
       </c>
       <c r="I6">
-        <v>46979.56748268083</v>
+        <v>3353.685786487751</v>
       </c>
       <c r="J6">
-        <v>28198.82996104787</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>597.2184238828288</v>
+        <v>84722.10321669104</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2403.538929353005</v>
+        <v>1676.842893243876</v>
       </c>
       <c r="N6">
-        <v>129412.0994844326</v>
+        <v>344321.6821594046</v>
       </c>
       <c r="O6">
-        <v>41598.85966954432</v>
+        <v>474398.3605711462</v>
       </c>
       <c r="P6">
-        <v>204067.3453776448</v>
+        <v>1482.603516607661</v>
       </c>
       <c r="Q6">
-        <v>57730.56443411019</v>
+        <v>67800.64512470536</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>2157.124425965983</v>
       </c>
       <c r="S6">
-        <v>510.1637937096946</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>24567.75416174961</v>
+        <v>2403.715475715836</v>
       </c>
       <c r="U6">
-        <v>1811.760551276205</v>
+        <v>342832.5084858717</v>
       </c>
       <c r="V6">
-        <v>2073.161099051326</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3207.446114085417</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>15127.52936626331</v>
       </c>
       <c r="Y6">
-        <v>127814.2927570969</v>
+        <v>10762.46214619098</v>
       </c>
       <c r="Z6">
-        <v>9822.036497832187</v>
+        <v>9821.12282865146</v>
       </c>
       <c r="AA6">
-        <v>50.89138237779862</v>
+        <v>1482.603516607661</v>
       </c>
       <c r="AB6">
-        <v>10343.54698454814</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>6455.362989955771</v>
+        <v>64946.92824883371</v>
       </c>
       <c r="AD6">
-        <v>24569.16787557675</v>
+        <v>67800.94299874856</v>
       </c>
       <c r="AE6">
-        <v>57730.56443411019</v>
+        <v>64946.92824883371</v>
       </c>
       <c r="AF6">
-        <v>24569.16787557675</v>
+        <v>67800.94299874856</v>
       </c>
       <c r="AG6">
-        <v>24569.16787557675</v>
+        <v>67800.94299874856</v>
       </c>
       <c r="AH6">
-        <v>510.1637937096946</v>
+        <v>1185.991352774722</v>
       </c>
       <c r="AI6">
-        <v>1194.436847765658</v>
+        <v>3353.685786487751</v>
       </c>
       <c r="AJ6">
-        <v>50.89138237779862</v>
+        <v>142.2965296822202</v>
       </c>
       <c r="AK6">
-        <v>204065.5174838779</v>
+        <v>474396.5411098888</v>
       </c>
       <c r="AL6">
-        <v>175868.5154165969</v>
+        <v>442682.1410688261</v>
       </c>
       <c r="AM6">
-        <v>175868.5154165969</v>
+        <v>442682.1410688261</v>
       </c>
       <c r="AN6">
-        <v>175868.5154165969</v>
+        <v>442682.1410688261</v>
       </c>
       <c r="AO6">
-        <v>41598.85966954432</v>
+        <v>84722.10321669103</v>
       </c>
       <c r="AP6">
-        <v>41598.85966954432</v>
+        <v>84722.10321669103</v>
       </c>
       <c r="AQ6">
-        <v>88578.42715222515</v>
+        <v>88571.27634870414</v>
       </c>
       <c r="AR6">
-        <v>88578.42715222515</v>
+        <v>88571.27634870412</v>
       </c>
       <c r="AS6">
-        <v>88578.42715222515</v>
+        <v>88571.27634870412</v>
       </c>
       <c r="AT6">
-        <v>88578.42715222515</v>
+        <v>88571.27634870414</v>
       </c>
       <c r="AU6">
-        <v>88578.42715222515</v>
+        <v>88571.27634870414</v>
       </c>
       <c r="AV6">
-        <v>41598.85966954432</v>
+        <v>84722.10321669104</v>
       </c>
       <c r="AW6">
-        <v>39496.88735293607</v>
+        <v>82542.55552097426</v>
       </c>
       <c r="AX6">
-        <v>2101.972316608243</v>
+        <v>2179.547695716788</v>
       </c>
       <c r="AY6">
-        <v>39496.88735293607</v>
+        <v>82542.55552097426</v>
       </c>
       <c r="AZ6">
-        <v>39496.88735293607</v>
+        <v>82542.55552097426</v>
       </c>
       <c r="BA6">
-        <v>23551.82450298917</v>
+        <v>66589.99826070652</v>
       </c>
       <c r="BB6">
-        <v>18060.2087216562</v>
+        <v>22371.54281299734</v>
       </c>
       <c r="BC6">
-        <v>21436.67863127988</v>
+        <v>60171.01270797692</v>
       </c>
       <c r="BD6">
-        <v>15945.06284996085</v>
+        <v>15952.55726021043</v>
       </c>
       <c r="BE6">
-        <v>2115.145871695349</v>
+        <v>6418.985552786914</v>
       </c>
       <c r="BF6">
-        <v>23551.82450297523</v>
+        <v>66589.99826076382</v>
       </c>
       <c r="BG6">
-        <v>23551.82450297523</v>
+        <v>66589.99826076382</v>
       </c>
       <c r="BH6">
-        <v>511.7640694879758</v>
+        <v>520.2728418150268</v>
       </c>
       <c r="BI6">
-        <v>24567.75416174961</v>
+        <v>67800.64512470536</v>
       </c>
       <c r="BJ6">
-        <v>15945.06284996085</v>
+        <v>15952.55726021043</v>
       </c>
       <c r="BK6">
-        <v>15433.29878045894</v>
+        <v>15432.28441845271</v>
       </c>
       <c r="BL6">
-        <v>2403.538929353005</v>
+        <v>2403.715475715836</v>
       </c>
       <c r="BM6">
-        <v>13029.75985110593</v>
+        <v>13028.56894273688</v>
       </c>
       <c r="BN6">
-        <v>2403.538929353005</v>
+        <v>2403.715475715836</v>
       </c>
       <c r="BO6">
-        <v>3207.723353273743</v>
+        <v>3207.446114085417</v>
       </c>
       <c r="BP6">
-        <v>9822.036497832187</v>
+        <v>9821.12282865146</v>
       </c>
       <c r="BQ6">
-        <v>3207.723353273743</v>
+        <v>3207.446114085417</v>
       </c>
       <c r="BR6">
-        <v>15433.29878045893</v>
+        <v>15432.28441845271</v>
       </c>
       <c r="BS6">
-        <v>9822.036497832187</v>
+        <v>9821.12282865146</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -5300,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -5312,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -5467,100 +5437,100 @@
         <v>153</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.1620903373639028</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2.858427222602804</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>98.37124782399722</v>
+      </c>
+      <c r="O10">
+        <v>70.69345228027605</v>
+      </c>
+      <c r="P10">
         <v>100</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="Q10">
+        <v>0.1134287585275641</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.1007490148625901</v>
+      </c>
+      <c r="U10">
+        <v>98.1152995794268</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>44.99999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>45.01565840905167</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
         <v>100</v>
       </c>
-      <c r="H10">
-        <v>0.1224946688001433</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0.09717025040392056</v>
-      </c>
-      <c r="N10">
-        <v>97.93481991820926</v>
-      </c>
-      <c r="O10">
-        <v>5.614396199281596</v>
-      </c>
-      <c r="P10">
-        <v>58.53150319347986</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0.1171307725061561</v>
-      </c>
-      <c r="U10">
-        <v>100</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>97.35616496954373</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10">
-        <v>45.01565840905167</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.1171474609544565</v>
+        <v>0.1134289347585408</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.1171474609544565</v>
+        <v>0.1134289347585408</v>
       </c>
       <c r="AG10">
-        <v>0.1171474609544565</v>
+        <v>0.1134289347585408</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -5572,94 +5542,94 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>58.5320274827923</v>
+        <v>70.69372341209599</v>
       </c>
       <c r="AL10">
-        <v>72.43534360902991</v>
+        <v>77.55358200929638</v>
       </c>
       <c r="AM10">
-        <v>72.43534360902991</v>
+        <v>77.55358200929638</v>
       </c>
       <c r="AN10">
-        <v>72.43534360902991</v>
+        <v>77.55358200929638</v>
       </c>
       <c r="AO10">
-        <v>0.1224946688001433</v>
+        <v>0.1620903373639028</v>
       </c>
       <c r="AP10">
-        <v>0.1224946688001433</v>
+        <v>0.1620903373639028</v>
       </c>
       <c r="AQ10">
-        <v>2.636674494363847</v>
+        <v>2.734204317405633</v>
       </c>
       <c r="AR10">
-        <v>0.0575268572891618</v>
+        <v>0.155046137514239</v>
       </c>
       <c r="AS10">
-        <v>0.0575268572891618</v>
+        <v>0.155046137514239</v>
       </c>
       <c r="AT10">
-        <v>2.636674494363847</v>
+        <v>2.734204317405633</v>
       </c>
       <c r="AU10">
-        <v>2.636674494363847</v>
+        <v>2.734204317405633</v>
       </c>
       <c r="AV10">
-        <v>5.614396199281596</v>
+        <v>2.858427222602804</v>
       </c>
       <c r="AW10">
-        <v>0.5913186969296116</v>
+        <v>0.2933904392252767</v>
       </c>
       <c r="AX10">
         <v>100</v>
       </c>
       <c r="AY10">
-        <v>0.5913186969296116</v>
+        <v>0.2933904392252767</v>
       </c>
       <c r="AZ10">
-        <v>0.5913186969296116</v>
+        <v>0.2933904392252767</v>
       </c>
       <c r="BA10">
-        <v>9.916591718672562e-12</v>
+        <v>3.636760111616424e-12</v>
       </c>
       <c r="BB10">
-        <v>1.293188153139931</v>
+        <v>1.082500068111692</v>
       </c>
       <c r="BC10">
-        <v>1.089505663835329e-11</v>
+        <v>4.024726169766454e-12</v>
       </c>
       <c r="BD10">
-        <v>1.464732261115173</v>
+        <v>1.518076144380605</v>
       </c>
       <c r="BE10">
-        <v>1.10419726105591e-10</v>
+        <v>3.772743333282647e-11</v>
       </c>
       <c r="BF10">
-        <v>1.983318343735686e-11</v>
+        <v>7.273520223226589e-12</v>
       </c>
       <c r="BG10">
-        <v>1.983318343735686e-11</v>
+        <v>7.273520223226589e-12</v>
       </c>
       <c r="BH10">
-        <v>45.18038068907984</v>
+        <v>46.08163779797829</v>
       </c>
       <c r="BI10">
-        <v>0.1171307725061561</v>
+        <v>0.1134287585275641</v>
       </c>
       <c r="BJ10">
-        <v>1.464732261115173</v>
+        <v>1.518076144380605</v>
       </c>
       <c r="BK10">
-        <v>0.01513302392075232</v>
+        <v>0.01569255462261714</v>
       </c>
       <c r="BL10">
-        <v>0.09717025040392056</v>
+        <v>0.1007490148625901</v>
       </c>
       <c r="BM10">
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.09717025040392056</v>
+        <v>0.1007490148625901</v>
       </c>
       <c r="BO10">
         <v>0</v>
@@ -5671,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.01513302392075232</v>
+        <v>0.01569255462261714</v>
       </c>
       <c r="BS10">
         <v>0</v>
@@ -6336,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6345,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>57.23117277441919</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -6354,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -6363,16 +6333,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.845936803972019e-05</v>
+        <v>1.947989079962682e-05</v>
       </c>
       <c r="O14">
-        <v>57.23117277441919</v>
+        <v>14.13869045605521</v>
       </c>
       <c r="P14">
-        <v>11.70630063869597</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>98.9274076703342</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6381,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>97.23571673533277</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>0.06645302799721764</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -6393,10 +6363,10 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.001507520679416089</v>
       </c>
       <c r="Y14">
-        <v>0.06348310677321466</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -6408,19 +6378,19 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.001258205088922839</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>97.23054959081466</v>
+        <v>98.92740832674411</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>97.23054959081466</v>
+        <v>98.92740832674411</v>
       </c>
       <c r="AG14">
-        <v>97.23054959081466</v>
+        <v>98.92740832674411</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -6432,82 +6402,82 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>11.70640549655846</v>
+        <v>14.1387446824192</v>
       </c>
       <c r="AL14">
-        <v>13.58329368888204</v>
+        <v>15.15166515816745</v>
       </c>
       <c r="AM14">
-        <v>13.58329368888204</v>
+        <v>15.15166515816745</v>
       </c>
       <c r="AN14">
-        <v>13.58329368888204</v>
+        <v>15.15166515816745</v>
       </c>
       <c r="AO14">
-        <v>57.23117277441919</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="AP14">
-        <v>57.23117277441919</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="AQ14">
-        <v>26.8773289558992</v>
+        <v>75.47104191329839</v>
       </c>
       <c r="AR14">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
       <c r="AS14">
-        <v>26.8773289558992</v>
+        <v>75.47104191329841</v>
       </c>
       <c r="AT14">
-        <v>26.8773289558992</v>
+        <v>75.47104191329839</v>
       </c>
       <c r="AU14">
-        <v>26.8773289558992</v>
+        <v>75.47104191329839</v>
       </c>
       <c r="AV14">
-        <v>57.23117277441919</v>
+        <v>78.89991225230187</v>
       </c>
       <c r="AW14">
-        <v>60.27694040020426</v>
+        <v>80.98327544425034</v>
       </c>
       <c r="AX14">
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>60.27694040020426</v>
+        <v>80.98327544425034</v>
       </c>
       <c r="AZ14">
-        <v>60.27694040020426</v>
+        <v>80.98327544425034</v>
       </c>
       <c r="BA14">
-        <v>99.95790174021975</v>
+        <v>99.98511168873158</v>
       </c>
       <c r="BB14">
-        <v>13.18230349193984</v>
+        <v>29.87977434325096</v>
       </c>
       <c r="BC14">
-        <v>99.95374793478115</v>
+        <v>99.9835234261744</v>
       </c>
       <c r="BD14">
-        <v>1.665754832310568</v>
+        <v>1.66481748004405</v>
       </c>
       <c r="BE14">
-        <v>99.99999992118649</v>
+        <v>99.99999992301666</v>
       </c>
       <c r="BF14">
-        <v>99.95790174027891</v>
+        <v>99.98511168864555</v>
       </c>
       <c r="BG14">
-        <v>99.95790174027891</v>
+        <v>99.98511168864555</v>
       </c>
       <c r="BH14">
-        <v>51.90002010182558</v>
+        <v>51.04647800863719</v>
       </c>
       <c r="BI14">
-        <v>97.23571673533277</v>
+        <v>98.9274076703342</v>
       </c>
       <c r="BJ14">
-        <v>1.665754832310568</v>
+        <v>1.66481748004405</v>
       </c>
       <c r="BK14">
         <v>0</v>
@@ -6981,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3.349886170315948</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6990,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.822704036253824</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -7008,16 +6978,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6843553854237401</v>
+        <v>0.2572059560510502</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.09702944186234985</v>
       </c>
       <c r="P17">
-        <v>0.2256185678034143</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.678909332739564</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7026,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1.8736623366173</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>0.3925884356307704</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -7038,10 +7008,10 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>0.008906067985912973</v>
       </c>
       <c r="Y17">
-        <v>1.053055491572433</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -7053,19 +7023,19 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>0.02087106075554599</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>1.873949595391746</v>
+        <v>0.6789080816690369</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.873949595391746</v>
+        <v>0.6789080816690369</v>
       </c>
       <c r="AG17">
-        <v>1.873949595391746</v>
+        <v>0.6789080816690369</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -7077,31 +7047,31 @@
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>0.2256205887561891</v>
+        <v>0.09702981400104604</v>
       </c>
       <c r="AL17">
-        <v>2.379885791052328</v>
+        <v>0.9454553686534141</v>
       </c>
       <c r="AM17">
-        <v>2.379885791052328</v>
+        <v>0.9454553686534141</v>
       </c>
       <c r="AN17">
-        <v>2.379885791052328</v>
+        <v>0.9454553686534141</v>
       </c>
       <c r="AO17">
-        <v>6.822704036253824</v>
+        <v>3.349886170315948</v>
       </c>
       <c r="AP17">
-        <v>6.822704036253824</v>
+        <v>3.349886170315948</v>
       </c>
       <c r="AQ17">
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>3.204129006300907</v>
+        <v>3.204305205768054</v>
       </c>
       <c r="AS17">
-        <v>3.204129006300907</v>
+        <v>3.204305205768054</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -7149,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>1.8736623366173</v>
+        <v>0.678909332739564</v>
       </c>
       <c r="BJ17">
         <v>0</v>
@@ -7196,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4.37149287610976</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -7205,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8.903938029423333</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -7223,16 +7193,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.01644850173387652</v>
+        <v>0.006181584434551891</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02733356348831101</v>
       </c>
       <c r="P18">
-        <v>0.06370389534602751</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.1912513026970918</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7241,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0.527849143717723</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>0.04403145816418549</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -7253,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.0009988759839526535</v>
       </c>
       <c r="Y18">
-        <v>0.1181143580615956</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -7268,19 +7238,19 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.002340970597403996</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.5291137607636203</v>
+        <v>0.1912509934804509</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.5291137607636203</v>
+        <v>0.1912509934804509</v>
       </c>
       <c r="AG18">
-        <v>0.5291137607636203</v>
+        <v>0.1912509934804509</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -7292,31 +7262,31 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>0.06370446596645701</v>
+        <v>0.0273336683211997</v>
       </c>
       <c r="AL18">
-        <v>2.192009653542433</v>
+        <v>0.8707660885316088</v>
       </c>
       <c r="AM18">
-        <v>2.192009653542433</v>
+        <v>0.8707660885316088</v>
       </c>
       <c r="AN18">
-        <v>2.192009653542433</v>
+        <v>0.8707660885316088</v>
       </c>
       <c r="AO18">
-        <v>8.903938029423333</v>
+        <v>4.37149287610976</v>
       </c>
       <c r="AP18">
-        <v>8.903938029423333</v>
+        <v>4.37149287610976</v>
       </c>
       <c r="AQ18">
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>4.181533591195581</v>
+        <v>4.181514435929423</v>
       </c>
       <c r="AS18">
-        <v>4.181533591195581</v>
+        <v>4.181514435929423</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -7364,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="BI18">
-        <v>0.527849143717723</v>
+        <v>0.1912513026970918</v>
       </c>
       <c r="BJ18">
         <v>0</v>
@@ -7411,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>13.1872794938771</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -7420,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26.86030760355904</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -7438,16 +7408,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.002001013228736097</v>
+        <v>0.0007520037445305336</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.007480804794502675</v>
       </c>
       <c r="P19">
-        <v>0.01790266329210062</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.05234287196161373</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7456,10 +7426,10 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0.1444662450098893</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.01110691543751636</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -7468,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.0002519660158643602</v>
       </c>
       <c r="Y19">
-        <v>0.0297945279276246</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -7483,19 +7453,19 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0.0005905134226418801</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.1486964878790394</v>
+        <v>0.0523426573923956</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.1486964878790394</v>
+        <v>0.0523426573923956</v>
       </c>
       <c r="AG19">
-        <v>0.1486964878790394</v>
+        <v>0.0523426573923956</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -7507,31 +7477,31 @@
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>0.01790282365317998</v>
+        <v>0.00748083348576266</v>
       </c>
       <c r="AL19">
-        <v>6.375047532066873</v>
+        <v>2.532439359367784</v>
       </c>
       <c r="AM19">
-        <v>6.375047532066873</v>
+        <v>2.532439359367784</v>
       </c>
       <c r="AN19">
-        <v>6.375047532066873</v>
+        <v>2.532439359367784</v>
       </c>
       <c r="AO19">
-        <v>26.86030760355904</v>
+        <v>13.1872794938771</v>
       </c>
       <c r="AP19">
-        <v>26.86030760355904</v>
+        <v>13.1872794938771</v>
       </c>
       <c r="AQ19">
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>12.61433740250351</v>
+        <v>12.61418035830252</v>
       </c>
       <c r="AS19">
-        <v>12.61433740250351</v>
+        <v>12.61418035830252</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -7579,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="BI19">
-        <v>0.1444662450098893</v>
+        <v>0.05234287196161373</v>
       </c>
       <c r="BJ19">
         <v>0</v>
@@ -8262,7 +8232,7 @@
         <v>166</v>
       </c>
       <c r="B23">
-        <v>7.313453170877287e-05</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -8271,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01386500466033146</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -8280,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02788092382332704</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -8289,25 +8259,25 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.7731049397772</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>97.25639686845135</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.647617382074102</v>
+        <v>0.002476130723804087</v>
       </c>
       <c r="P23">
-        <v>0.005683489611909716</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.01732603799534865</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -8316,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0.04781358276268317</v>
+        <v>97.25291290571454</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -8325,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>7.313453172179056e-05</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -8346,16 +8316,16 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.04720610170671524</v>
+        <v>0.01732531000275595</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.04720610170671524</v>
+        <v>0.01732531000275595</v>
       </c>
       <c r="AG23">
-        <v>0.04720610170671524</v>
+        <v>0.01732531000275595</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -8367,106 +8337,106 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0.005683540521124384</v>
+        <v>0.002476140220551069</v>
       </c>
       <c r="AL23">
-        <v>0.006594782669521434</v>
+        <v>0.002653534549860849</v>
       </c>
       <c r="AM23">
-        <v>0.006594782669521434</v>
+        <v>0.002653534549860849</v>
       </c>
       <c r="AN23">
-        <v>0.006594782669521434</v>
+        <v>0.002653534549860849</v>
       </c>
       <c r="AO23">
-        <v>0.02788092382332704</v>
+        <v>0.01386500466033146</v>
       </c>
       <c r="AP23">
-        <v>0.02788092382332704</v>
+        <v>0.01386500466033146</v>
       </c>
       <c r="AQ23">
-        <v>2.652276073275005</v>
+        <v>2.652590011388687</v>
       </c>
       <c r="AR23">
-        <v>0.01309364678140711</v>
+        <v>0.01326245261847456</v>
       </c>
       <c r="AS23">
-        <v>0.01309364678140711</v>
+        <v>0.01326245261847456</v>
       </c>
       <c r="AT23">
-        <v>2.652276073275005</v>
+        <v>2.652590011388687</v>
       </c>
       <c r="AU23">
-        <v>2.652276073275005</v>
+        <v>2.652590011388687</v>
       </c>
       <c r="AV23">
-        <v>5.647617382074102</v>
+        <v>2.7731049397772</v>
       </c>
       <c r="AW23">
-        <v>5.948176139675359</v>
+        <v>2.846329162644111</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>5.948176139675359</v>
+        <v>2.846329162644111</v>
       </c>
       <c r="AZ23">
-        <v>5.948176139675359</v>
+        <v>2.846329162644111</v>
       </c>
       <c r="BA23">
-        <v>5.64072654437507e-09</v>
+        <v>2.095583563976868e-09</v>
       </c>
       <c r="BB23">
-        <v>13.00840131097832</v>
+        <v>10.50188110685322</v>
       </c>
       <c r="BC23">
-        <v>6.197105787759313e-09</v>
+        <v>2.319137898811394e-09</v>
       </c>
       <c r="BD23">
-        <v>14.73399289922284</v>
+        <v>14.72762510513792</v>
       </c>
       <c r="BE23">
-        <v>1.110726969927512e-09</v>
+        <v>3.660141067560982e-10</v>
       </c>
       <c r="BF23">
-        <v>5.740307497798527e-09</v>
+        <v>2.130865279327119e-09</v>
       </c>
       <c r="BG23">
-        <v>5.740307497798527e-09</v>
+        <v>2.130865279327119e-09</v>
       </c>
       <c r="BH23">
-        <v>2.295339364547293</v>
+        <v>2.257885323971106</v>
       </c>
       <c r="BI23">
-        <v>0.04781358276268317</v>
+        <v>0.01732603799534865</v>
       </c>
       <c r="BJ23">
-        <v>14.73399289922284</v>
+        <v>14.72762510513792</v>
       </c>
       <c r="BK23">
-        <v>15.14645533158806</v>
+        <v>15.14802086627291</v>
       </c>
       <c r="BL23">
-        <v>97.25639686845135</v>
+        <v>97.25291290571454</v>
       </c>
       <c r="BM23">
-        <v>1.80045793609203e-05</v>
+        <v>1.800466886328939e-05</v>
       </c>
       <c r="BN23">
-        <v>97.25639686845135</v>
+        <v>97.25291290571454</v>
       </c>
       <c r="BO23">
-        <v>7.313453170877287e-05</v>
+        <v>7.313453172179056e-05</v>
       </c>
       <c r="BP23">
         <v>0</v>
       </c>
       <c r="BQ23">
-        <v>7.313453170877287e-05</v>
+        <v>7.313453172179056e-05</v>
       </c>
       <c r="BR23">
-        <v>15.14645533158807</v>
+        <v>15.14802086627291</v>
       </c>
       <c r="BS23">
         <v>0</v>
@@ -8477,7 +8447,7 @@
         <v>167</v>
       </c>
       <c r="B24">
-        <v>97.51236649568051</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -8486,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.003774746782943108</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -8495,7 +8465,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.007677756055290486</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -8504,25 +8474,25 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.770530419218384</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.646432567849021</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.67987579682865</v>
+        <v>0.0006741264581444878</v>
       </c>
       <c r="P24">
-        <v>0.001565100462937718</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.004716439406022134</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -8531,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0.01301669028057046</v>
+        <v>2.646337766141893</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -8540,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>97.5123664956805</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -8549,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>8.000001599709218e-05</v>
+        <v>8.000001600007325e-05</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -8561,16 +8531,16 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.01299945925472357</v>
+        <v>0.004716814728775692</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0.01299945925472357</v>
+        <v>0.004716814728775692</v>
       </c>
       <c r="AG24">
-        <v>0.01299945925472357</v>
+        <v>0.004716814728775692</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -8582,109 +8552,109 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.001565114482147901</v>
+        <v>0.0006741290436333496</v>
       </c>
       <c r="AL24">
-        <v>0.001816049313684502</v>
+        <v>0.0007224246403734114</v>
       </c>
       <c r="AM24">
-        <v>0.001816049313684502</v>
+        <v>0.0007224246403734114</v>
       </c>
       <c r="AN24">
-        <v>0.001816049313684502</v>
+        <v>0.0007224246403734114</v>
       </c>
       <c r="AO24">
-        <v>0.007677756055290486</v>
+        <v>0.003774746782943108</v>
       </c>
       <c r="AP24">
-        <v>0.007677756055290486</v>
+        <v>0.003774746782943108</v>
       </c>
       <c r="AQ24">
-        <v>3.606680382829302</v>
+        <v>3.606668894563887</v>
       </c>
       <c r="AR24">
-        <v>0.003605684894044768</v>
+        <v>0.003610702021525711</v>
       </c>
       <c r="AS24">
-        <v>0.003605684894044768</v>
+        <v>0.003610702021525711</v>
       </c>
       <c r="AT24">
-        <v>3.606680382829302</v>
+        <v>3.606668894563887</v>
       </c>
       <c r="AU24">
-        <v>3.606680382829302</v>
+        <v>3.606668894563887</v>
       </c>
       <c r="AV24">
-        <v>7.67987579682865</v>
+        <v>3.770530419218384</v>
       </c>
       <c r="AW24">
-        <v>8.088588670217229</v>
+        <v>3.870091801040992</v>
       </c>
       <c r="AX24">
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>8.088588670217229</v>
+        <v>3.870091801040992</v>
       </c>
       <c r="AZ24">
-        <v>8.088588670217229</v>
+        <v>3.870091801040992</v>
       </c>
       <c r="BA24">
-        <v>1.34634303680036e-05</v>
+        <v>4.966177618040111e-06</v>
       </c>
       <c r="BB24">
-        <v>17.68937244271925</v>
+        <v>14.2791643531799</v>
       </c>
       <c r="BC24">
-        <v>1.479152565524196e-05</v>
+        <v>5.49596373288043e-06</v>
       </c>
       <c r="BD24">
-        <v>20.03590462286655</v>
+        <v>20.02481053332896</v>
       </c>
       <c r="BE24">
-        <v>1.510409624589349e-09</v>
+        <v>4.976577052841957e-10</v>
       </c>
       <c r="BF24">
-        <v>1.346326169483723e-05</v>
+        <v>4.966224759104773e-06</v>
       </c>
       <c r="BG24">
-        <v>1.346326169483723e-05</v>
+        <v>4.966224759104773e-06</v>
       </c>
       <c r="BH24">
-        <v>0.6242598445472957</v>
+        <v>0.6139988694134231</v>
       </c>
       <c r="BI24">
-        <v>0.01301669028057046</v>
+        <v>0.004716439406022134</v>
       </c>
       <c r="BJ24">
-        <v>20.03590462286655</v>
+        <v>20.02481053332896</v>
       </c>
       <c r="BK24">
-        <v>20.67958958386093</v>
+        <v>20.6792125566767</v>
       </c>
       <c r="BL24">
-        <v>2.646432567849021</v>
+        <v>2.646337766141893</v>
       </c>
       <c r="BM24">
-        <v>24.00608181414106</v>
+        <v>24.00620114584318</v>
       </c>
       <c r="BN24">
-        <v>2.646432567849021</v>
+        <v>2.646337766141893</v>
       </c>
       <c r="BO24">
-        <v>97.51236649568051</v>
+        <v>97.5123664956805</v>
       </c>
       <c r="BP24">
-        <v>8.000001599709218e-05</v>
+        <v>8.000001600007325e-05</v>
       </c>
       <c r="BQ24">
-        <v>97.51236649568051</v>
+        <v>97.5123664956805</v>
       </c>
       <c r="BR24">
-        <v>20.67958958386093</v>
+        <v>20.6792125566767</v>
       </c>
       <c r="BS24">
-        <v>8.000001599709218e-05</v>
+        <v>8.000001600007325e-05</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -8692,7 +8662,7 @@
         <v>168</v>
       </c>
       <c r="B25">
-        <v>2.487560369787771</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -8701,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.0116991185881554</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -8710,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0238242076658569</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -8719,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.69802516609975</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.132957040245347e-07</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.82693784739647</v>
+        <v>0.002089328326043746</v>
       </c>
       <c r="P25">
-        <v>0.004856533364493073</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.01461758633859379</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -8746,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0.04034449377291704</v>
+        <v>3.132809757063921e-07</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -8755,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -8776,16 +8746,16 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.04033754323504125</v>
+        <v>0.01461888122394264</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.04033754323504125</v>
+        <v>0.01461888122394264</v>
       </c>
       <c r="AG25">
-        <v>0.04033754323504125</v>
+        <v>0.01461888122394264</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -8797,106 +8767,106 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.00485657686634079</v>
+        <v>0.002089336339280803</v>
       </c>
       <c r="AL25">
-        <v>0.005635231917904368</v>
+        <v>0.002239019469312423</v>
       </c>
       <c r="AM25">
-        <v>0.005635231917904368</v>
+        <v>0.002239019469312423</v>
       </c>
       <c r="AN25">
-        <v>0.005635231917904368</v>
+        <v>0.002239019469312423</v>
       </c>
       <c r="AO25">
-        <v>0.0238242076658569</v>
+        <v>0.0116991185881554</v>
       </c>
       <c r="AP25">
-        <v>0.0238242076658569</v>
+        <v>0.0116991185881554</v>
       </c>
       <c r="AQ25">
-        <v>11.18978374006837</v>
+        <v>11.18964676146109</v>
       </c>
       <c r="AR25">
-        <v>0.01118850157191087</v>
+        <v>0.01119069266505509</v>
       </c>
       <c r="AS25">
-        <v>0.01118850157191087</v>
+        <v>0.01119069266505509</v>
       </c>
       <c r="AT25">
-        <v>11.18978374006837</v>
+        <v>11.18964676146109</v>
       </c>
       <c r="AU25">
-        <v>11.18978374006837</v>
+        <v>11.18964676146109</v>
       </c>
       <c r="AV25">
-        <v>23.82693784739647</v>
+        <v>11.69802516609975</v>
       </c>
       <c r="AW25">
-        <v>25.09497609297355</v>
+        <v>12.00691315283928</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>25.09497609297355</v>
+        <v>12.00691315283928</v>
       </c>
       <c r="AZ25">
-        <v>25.09497609297355</v>
+        <v>12.00691315283928</v>
       </c>
       <c r="BA25">
-        <v>0.04208479069922865</v>
+        <v>0.01488334299157892</v>
       </c>
       <c r="BB25">
-        <v>54.82673460122267</v>
+        <v>44.25668012860422</v>
       </c>
       <c r="BC25">
-        <v>0.04623726748520303</v>
+        <v>0.01647107553871113</v>
       </c>
       <c r="BD25">
-        <v>62.09961538448486</v>
+        <v>62.06467073710846</v>
       </c>
       <c r="BE25">
-        <v>7.608195848362617e-08</v>
+        <v>7.608194476337049e-08</v>
       </c>
       <c r="BF25">
-        <v>0.04208479069925356</v>
+        <v>0.01488334299156611</v>
       </c>
       <c r="BG25">
-        <v>0.04208479069925356</v>
+        <v>0.01488334299156611</v>
       </c>
       <c r="BH25">
         <v>0</v>
       </c>
       <c r="BI25">
-        <v>0.04034449377291704</v>
+        <v>0.01461758633859379</v>
       </c>
       <c r="BJ25">
-        <v>62.09961538448486</v>
+        <v>62.06467073710846</v>
       </c>
       <c r="BK25">
-        <v>64.15882206063026</v>
+        <v>64.15707402242779</v>
       </c>
       <c r="BL25">
-        <v>3.132957040245347e-07</v>
+        <v>3.132809757063921e-07</v>
       </c>
       <c r="BM25">
-        <v>75.99390018127959</v>
+        <v>75.99378084948795</v>
       </c>
       <c r="BN25">
-        <v>3.132957040245347e-07</v>
+        <v>3.132809757063921e-07</v>
       </c>
       <c r="BO25">
-        <v>2.487560369787771</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="BP25">
         <v>99.999919999984</v>
       </c>
       <c r="BQ25">
-        <v>2.487560369787771</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="BR25">
-        <v>64.15882206063026</v>
+        <v>64.15707402242779</v>
       </c>
       <c r="BS25">
         <v>99.999919999984</v>
@@ -10000,10 +9970,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -10105,19 +10075,19 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="AR31">
-        <v>53.03725635356427</v>
+        <v>4.34584810188231</v>
       </c>
       <c r="AS31">
-        <v>53.03725635356427</v>
+        <v>4.34584810188231</v>
       </c>
       <c r="AT31">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="AU31">
-        <v>53.03725635356427</v>
+        <v>4.345848101882309</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -10409,7 +10379,7 @@
     </row>
     <row r="33" spans="1:71">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10427,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -10436,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -10481,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>54.98434159094833</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -10490,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>54.98434159094833</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -10663,52 +10633,52 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0.004456525633958546</v>
+        <v>0.003768684034863863</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>13.69037788634886</v>
       </c>
       <c r="P34">
-        <v>28.28995708611518</v>
+        <v>0</v>
       </c>
       <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0.003785054200789404</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>8.586587627940255e-05</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>99.99999999999999</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0.004512236669750262</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>8.943039225514787e-05</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -10732,16 +10702,16 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>28.29021049020257</v>
+        <v>13.6904303932919</v>
       </c>
       <c r="AL34">
-        <v>0.00328259804191551</v>
+        <v>0.002934246594724591</v>
       </c>
       <c r="AM34">
-        <v>0.00328259804191551</v>
+        <v>0.002934246594724591</v>
       </c>
       <c r="AN34">
-        <v>0.00328259804191551</v>
+        <v>0.002934246594724591</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -10854,17 +10824,17 @@
         <v>0</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>100</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
         <v>0</v>
       </c>
@@ -10878,13 +10848,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.9220485686204566</v>
+        <v>0.9730238536503832</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.7069345228027605</v>
       </c>
       <c r="P35">
-        <v>0.5853150319347987</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -10899,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>0.9772504117238147</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -10908,10 +10878,10 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>0.02216942175611954</v>
       </c>
       <c r="Y35">
-        <v>0.9335750996060946</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -10923,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.01850301601357109</v>
+        <v>0</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -10947,16 +10917,16 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0.5853202748279231</v>
+        <v>0.70693723412096</v>
       </c>
       <c r="AL35">
-        <v>0.6791646844441022</v>
+        <v>0.7575832579083728</v>
       </c>
       <c r="AM35">
-        <v>0.6791646844441022</v>
+        <v>0.7575832579083728</v>
       </c>
       <c r="AN35">
-        <v>0.6791646844441022</v>
+        <v>0.7575832579083728</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -11069,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -11093,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0.03928573232175758</v>
+        <v>0.04128529817263359</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.02999515628825192</v>
       </c>
       <c r="P36">
-        <v>0.02493852325251724</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -11114,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>0.0414646305802112</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -11123,22 +11093,22 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>0.0009406461969894638</v>
       </c>
       <c r="Y36">
-        <v>0.03977684333945346</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.0007883581830639597</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -11162,16 +11132,16 @@
         <v>100</v>
       </c>
       <c r="AK36">
-        <v>0.0248127712940606</v>
+        <v>0.02994135097867156</v>
       </c>
       <c r="AL36">
-        <v>0.02893717630881641</v>
+        <v>0.0321441767085193</v>
       </c>
       <c r="AM36">
-        <v>0.02893717630881641</v>
+        <v>0.0321441767085193</v>
       </c>
       <c r="AN36">
-        <v>0.02893717630881641</v>
+        <v>0.0321441767085193</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -11278,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -11308,13 +11278,13 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0.3938222406918703</v>
+        <v>0.3440983890388404</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.2499990411743545</v>
       </c>
       <c r="P37">
-        <v>0.2499977606733654</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -11323,13 +11293,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>0.3455930613624332</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -11338,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>0.007839954060308508</v>
       </c>
       <c r="Y37">
-        <v>0.3987454133040896</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -11353,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.007902945109414986</v>
+        <v>0</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -11377,16 +11347,16 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>0.2492302366652404</v>
+        <v>0.2496703886213241</v>
       </c>
       <c r="AL37">
-        <v>0.290082504251099</v>
+        <v>0.2679103679021761</v>
       </c>
       <c r="AM37">
-        <v>0.290082504251099</v>
+        <v>0.2679103679021761</v>
       </c>
       <c r="AN37">
-        <v>0.290082504251099</v>
+        <v>0.2679103679021761</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -11729,22 +11699,22 @@
         <v>0</v>
       </c>
       <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>100</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39">
-        <v>0.002743654768299879</v>
+        <v>0.0024169269851599</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.3534672614013802</v>
       </c>
       <c r="P39">
-        <v>0.2926575159673993</v>
+        <v>0</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -11759,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>0.00242742547625413</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -11768,10 +11738,10 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>54.95729968144515</v>
       </c>
       <c r="Y39">
-        <v>0.002777953202001715</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -11783,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>54.94765550043719</v>
+        <v>0</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -11807,16 +11777,16 @@
         <v>0</v>
       </c>
       <c r="AK39">
-        <v>0.2926601374139615</v>
+        <v>0.35346861706048</v>
       </c>
       <c r="AL39">
-        <v>2.018906698479359</v>
+        <v>1.879904988210028</v>
       </c>
       <c r="AM39">
-        <v>2.018906698479359</v>
+        <v>1.879904988210028</v>
       </c>
       <c r="AN39">
-        <v>2.018906698479359</v>
+        <v>1.879904988210028</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -12585,10 +12555,10 @@
         <v>185</v>
       </c>
       <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
         <v>185</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -12608,10 +12578,10 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>185</v>
       </c>
       <c r="E47" t="s">
         <v>185</v>
@@ -12628,22 +12598,22 @@
         <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12651,22 +12621,22 @@
         <v>149</v>
       </c>
       <c r="B49">
-        <v>12242.20718035894</v>
+        <v>1109433.846395184</v>
       </c>
       <c r="C49">
-        <v>1112927.925487177</v>
+        <v>1109433.846395184</v>
       </c>
       <c r="D49">
-        <v>1112927.925487177</v>
+        <v>12203.77231034702</v>
       </c>
       <c r="E49">
-        <v>12242.20718035894</v>
+        <v>12203.77231034702</v>
       </c>
       <c r="F49">
-        <v>551423.6037480946</v>
+        <v>551311.3715824084</v>
       </c>
       <c r="G49">
-        <v>551423.6037480946</v>
+        <v>551311.3715824084</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12691,10 +12661,10 @@
         <v>100</v>
       </c>
       <c r="F51">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
       <c r="G51">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12729,19 +12699,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3">
-        <v>-2162931.093128226</v>
+        <v>-2162865.832975455</v>
       </c>
       <c r="D3">
-        <v>1478.136126859849</v>
+        <v>1478.091027409705</v>
       </c>
       <c r="E3">
-        <v>0.7211087094885772</v>
+        <v>0.7210867077218248</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12752,13 +12722,13 @@
         <v>59</v>
       </c>
       <c r="C4">
-        <v>-2084444.596333036</v>
+        <v>-2427937.838923048</v>
       </c>
       <c r="D4">
-        <v>1424.498853461624</v>
+        <v>1659.239828983601</v>
       </c>
       <c r="E4">
-        <v>0.6949417656612533</v>
+        <v>0.80946015056965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12769,13 +12739,13 @@
         <v>46</v>
       </c>
       <c r="C5">
-        <v>-46185471.69587412</v>
+        <v>-46176087.14099264</v>
       </c>
       <c r="D5">
-        <v>31562.91685233422</v>
+        <v>31556.49279922971</v>
       </c>
       <c r="E5">
-        <v>15.39796898641125</v>
+        <v>15.39483501210421</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12786,47 +12756,47 @@
         <v>47</v>
       </c>
       <c r="C6">
-        <v>90397053.65419522</v>
+        <v>89825083.04507092</v>
       </c>
       <c r="D6">
-        <v>-61776.88748035982</v>
+        <v>-61582.93661798118</v>
       </c>
       <c r="E6">
-        <v>-30.13785455729354</v>
+        <v>-30.04323562908212</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7">
-        <v>-2113424.086707414</v>
+        <v>-2117577.465801961</v>
       </c>
       <c r="D7">
-        <v>1444.303290041433</v>
+        <v>1447.141197723281</v>
       </c>
       <c r="E7">
-        <v>0.7046033600467132</v>
+        <v>0.7059878333093026</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8">
-        <v>-1086270.957191004</v>
+        <v>-1237065.112574901</v>
       </c>
       <c r="D8">
-        <v>742.3520566530887</v>
+        <v>1042.355484524249</v>
       </c>
       <c r="E8">
-        <v>0.3621564508382093</v>
+        <v>0.5085131231251548</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12837,13 +12807,13 @@
         <v>51</v>
       </c>
       <c r="C9">
-        <v>-12809197.46513663</v>
+        <v>-1087553.679956376</v>
       </c>
       <c r="D9">
-        <v>8753.740509558431</v>
+        <v>743.2284109636536</v>
       </c>
       <c r="E9">
-        <v>4.27051230758808</v>
+        <v>0.3625839802886184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12854,13 +12824,13 @@
         <v>51</v>
       </c>
       <c r="C10">
-        <v>-14132132.7056257</v>
+        <v>-12850904.13779362</v>
       </c>
       <c r="D10">
-        <v>9657.827735765311</v>
+        <v>8782.239661183168</v>
       </c>
       <c r="E10">
-        <v>4.711571260893107</v>
+        <v>4.284415618708208</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12871,47 +12841,47 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>-3948001.134669721</v>
+        <v>-388835.2068998073</v>
       </c>
       <c r="D11">
-        <v>2698.043929637582</v>
+        <v>265.727916034875</v>
       </c>
       <c r="E11">
-        <v>1.316240731073695</v>
+        <v>0.1296353638376138</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>-5486178.901096314</v>
+        <v>-6357562.78092753</v>
       </c>
       <c r="D12">
-        <v>3749.226805186058</v>
+        <v>4344.724651623603</v>
       </c>
       <c r="E12">
-        <v>1.829060296910019</v>
+        <v>2.119573921294575</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13">
-        <v>-389575.8403276557</v>
+        <v>-15021304.11478393</v>
       </c>
       <c r="D13">
-        <v>266.2341512263579</v>
+        <v>10265.47948261319</v>
       </c>
       <c r="E13">
-        <v>0.1298823306757787</v>
+        <v>5.008014165592844</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12933,19 +12903,19 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17">
-        <v>5492588.349528245</v>
+        <v>5492165.159750871</v>
       </c>
       <c r="D17">
-        <v>171.5160491137517</v>
+        <v>171.5028342441818</v>
       </c>
       <c r="E17">
-        <v>54.67514342831969</v>
+        <v>54.67093084942194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12956,13 +12926,13 @@
         <v>59</v>
       </c>
       <c r="C18">
-        <v>-41320019.40963284</v>
+        <v>-54818382.99547782</v>
       </c>
       <c r="D18">
-        <v>-1290.292668492526</v>
+        <v>-1711.803592744462</v>
       </c>
       <c r="E18">
-        <v>-411.3139095662738</v>
+        <v>-545.6813367496836</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12973,47 +12943,47 @@
         <v>49</v>
       </c>
       <c r="C19">
-        <v>4464790.90834837</v>
+        <v>4270310.290900334</v>
       </c>
       <c r="D19">
-        <v>139.4212069041518</v>
+        <v>133.3481963285905</v>
       </c>
       <c r="E19">
-        <v>44.44408860758183</v>
+        <v>42.5081605939864</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20">
-        <v>27141442.67045908</v>
+        <v>4987333.339259615</v>
       </c>
       <c r="D20">
-        <v>847.540852844792</v>
+        <v>155.7385435659991</v>
       </c>
       <c r="E20">
-        <v>270.175403002179</v>
+        <v>49.64565853042322</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21">
-        <v>4221197.481297144</v>
+        <v>40068574.20556699</v>
       </c>
       <c r="D21">
-        <v>131.814559629831</v>
+        <v>1251.214018605691</v>
       </c>
       <c r="E21">
-        <v>42.01927452819325</v>
+        <v>398.8565867758521</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13041,30 +13011,30 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>-857249.2941486052</v>
+        <v>-934337.6644194166</v>
       </c>
       <c r="D25">
-        <v>-22.08371643577176</v>
+        <v>-24.06960049677545</v>
       </c>
       <c r="E25">
-        <v>-5.251507768426524</v>
+        <v>-5.723750998133202</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>857249.2941486052</v>
+        <v>934337.6644194166</v>
       </c>
       <c r="D26">
-        <v>22.08371643577176</v>
+        <v>24.06960049677545</v>
       </c>
       <c r="E26">
-        <v>5.251507768426524</v>
+        <v>5.723750998133202</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -13092,30 +13062,30 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>-18553484.2457667</v>
+        <v>-5707654.351183286</v>
       </c>
       <c r="D30">
-        <v>-1415.664770291307</v>
+        <v>-435.504462608617</v>
       </c>
       <c r="E30">
-        <v>-582.1154539696978</v>
+        <v>-179.0776201240621</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
       <c r="C31">
-        <v>18553484.2457667</v>
+        <v>5707654.351183286</v>
       </c>
       <c r="D31">
-        <v>1415.664770291307</v>
+        <v>435.504462608617</v>
       </c>
       <c r="E31">
-        <v>582.1154539696978</v>
+        <v>179.0776201240621</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -13143,13 +13113,13 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>46185471.69587412</v>
+        <v>46176087.14099264</v>
       </c>
       <c r="D35">
-        <v>-30608.66130019043</v>
+        <v>-30602.43146830959</v>
       </c>
       <c r="E35">
-        <v>-230.9273584793706</v>
+        <v>-230.8804357049632</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -13160,13 +13130,13 @@
         <v>50</v>
       </c>
       <c r="C36">
-        <v>-46185471.69587412</v>
+        <v>-46176087.14099264</v>
       </c>
       <c r="D36">
-        <v>30608.66130019043</v>
+        <v>30602.43146830959</v>
       </c>
       <c r="E36">
-        <v>230.9273584793706</v>
+        <v>230.8804357049632</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -13191,10 +13161,10 @@
         <v>59</v>
       </c>
       <c r="C40">
-        <v>-3028.051510719671</v>
+        <v>-3614.703247727842</v>
       </c>
       <c r="D40">
-        <v>-236.7936281382783</v>
+        <v>-282.6697939723172</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -13205,10 +13175,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.867556338964718</v>
+        <v>6.666284561036007</v>
       </c>
       <c r="D41">
-        <v>0.2242429057070409</v>
+        <v>0.5213034526730158</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13219,10 +13189,10 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>1999.073361586406</v>
+        <v>1998.667164291347</v>
       </c>
       <c r="D42">
-        <v>156.327536876057</v>
+        <v>156.2957722475833</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13233,10 +13203,10 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>290.3779697353694</v>
+        <v>289.4663171749546</v>
       </c>
       <c r="D43">
-        <v>22.70755723330589</v>
+        <v>22.63626600308145</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13247,10 +13217,10 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>1.398326590524213</v>
+        <v>3.909837223851285</v>
       </c>
       <c r="D44">
-        <v>0.1093491393789934</v>
+        <v>0.3057492709051705</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13261,10 +13231,10 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>270.1161930880234</v>
+        <v>275.4117040664958</v>
       </c>
       <c r="D45">
-        <v>21.12308629948343</v>
+        <v>21.53719525799997</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13275,10 +13245,10 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>31.57829036076474</v>
+        <v>160.9968138907745</v>
       </c>
       <c r="D46">
-        <v>2.469422306211803</v>
+        <v>12.58995084625857</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13289,10 +13259,10 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>79.23557279497444</v>
+        <v>31.5883277378942</v>
       </c>
       <c r="D47">
-        <v>6.196221792567002</v>
+        <v>2.470207229103326</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13303,10 +13273,10 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>3.573209079069897</v>
+        <v>9.56973187761867</v>
       </c>
       <c r="D48">
-        <v>0.279424949983266</v>
+        <v>0.7483530328297801</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13317,10 +13287,10 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>10.91900092993697</v>
+        <v>70.83847048818566</v>
       </c>
       <c r="D49">
-        <v>0.8538658727210711</v>
+        <v>5.539568392176119</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13331,10 +13301,10 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>11.01944974800806</v>
+        <v>20.012482369174</v>
       </c>
       <c r="D50">
-        <v>0.8617209702942301</v>
+        <v>1.564976121269407</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13345,10 +13315,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>31.24390867988463</v>
+        <v>20.51491676320557</v>
       </c>
       <c r="D51">
-        <v>2.443273658766978</v>
+        <v>1.604266490882675</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13359,10 +13329,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>11.36692450786309</v>
+        <v>16.83260357812726</v>
       </c>
       <c r="D52">
-        <v>0.8888934965148937</v>
+        <v>1.316309599809552</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13373,10 +13343,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>8.622674907674332</v>
+        <v>20.1788129719525</v>
       </c>
       <c r="D53">
-        <v>0.6742931777801329</v>
+        <v>1.577983174406686</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13387,10 +13357,10 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>7.407426345916169</v>
+        <v>16.83254115310283</v>
       </c>
       <c r="D54">
-        <v>0.5792607402506444</v>
+        <v>1.316304718172641</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13401,10 +13371,10 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>7.407115135483131</v>
+        <v>20.24724510526699</v>
       </c>
       <c r="D55">
-        <v>0.5792364035947809</v>
+        <v>1.583334567231879</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13415,10 +13385,10 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>261.8445308908054</v>
+        <v>652.9699944748534</v>
       </c>
       <c r="D56">
-        <v>20.47624231566098</v>
+        <v>51.06225356793354</v>
       </c>
     </row>
   </sheetData>
@@ -13428,7 +13398,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K159"/>
+  <dimension ref="A2:K152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13457,7 +13427,7 @@
         <v>223</v>
       </c>
       <c r="D3">
-        <v>88578.42715222515</v>
+        <v>88571.27634870414</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13469,7 +13439,7 @@
         <v>224</v>
       </c>
       <c r="D4">
-        <v>1180.422860887806</v>
+        <v>1180.327567121352</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13490,7 +13460,7 @@
         <v>225</v>
       </c>
       <c r="D6">
-        <v>28.86395935777999</v>
+        <v>28.86318262216755</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13502,7 +13472,7 @@
         <v>225</v>
       </c>
       <c r="D7">
-        <v>14.43197967889</v>
+        <v>14.43159131108377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13514,7 +13484,7 @@
         <v>226</v>
       </c>
       <c r="D8">
-        <v>33546.62</v>
+        <v>33544.14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13526,7 +13496,7 @@
         <v>227</v>
       </c>
       <c r="D9">
-        <v>0.4857633006511161</v>
+        <v>0.4857535924298771</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13549,7 +13519,7 @@
         <v>228</v>
       </c>
       <c r="D11">
-        <v>196527.1786885519</v>
+        <v>196517.8738361489</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13561,7 +13531,7 @@
         <v>228</v>
       </c>
       <c r="D12">
-        <v>858324.9591050617</v>
+        <v>858255.667818943</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13587,7 +13557,7 @@
         <v>238</v>
       </c>
       <c r="D16">
-        <v>60392.01837587349</v>
+        <v>49420.11722025538</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13599,7 +13569,7 @@
         <v>239</v>
       </c>
       <c r="D17">
-        <v>3281.070197931629</v>
+        <v>3821.754005712203</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -13613,7 +13583,7 @@
         <v>228</v>
       </c>
       <c r="D18">
-        <v>12891751.88373941</v>
+        <v>11430532.80615333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13625,7 +13595,7 @@
         <v>228</v>
       </c>
       <c r="D19">
-        <v>138730.5913218714</v>
+        <v>123006.1352112938</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -13637,7 +13607,7 @@
         <v>228</v>
       </c>
       <c r="D20">
-        <v>18194.17591106511</v>
+        <v>16131.95215885821</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -13649,7 +13619,7 @@
         <v>228</v>
       </c>
       <c r="D21">
-        <v>35478.64302657696</v>
+        <v>31457.3067097735</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -13661,7 +13631,7 @@
         <v>228</v>
       </c>
       <c r="D22">
-        <v>2113293.002493465</v>
+        <v>2315837.272193965</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -13687,7 +13657,7 @@
         <v>238</v>
       </c>
       <c r="D26">
-        <v>510.1637937096946</v>
+        <v>1185.991352774722</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13701,7 +13671,7 @@
         <v>228</v>
       </c>
       <c r="D27">
-        <v>37672.49334595392</v>
+        <v>67996.20697150748</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13713,7 +13683,7 @@
         <v>228</v>
       </c>
       <c r="D28">
-        <v>1460.237278084636</v>
+        <v>2867.615653922742</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13725,7 +13695,7 @@
         <v>228</v>
       </c>
       <c r="D29">
-        <v>13947.95322677169</v>
+        <v>21266.51990169647</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13748,7 +13718,7 @@
         <v>214</v>
       </c>
       <c r="D33">
-        <v>9573.037915390658</v>
+        <v>9930.434568241539</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13762,7 +13732,7 @@
         <v>228</v>
       </c>
       <c r="D34">
-        <v>6165515.069407353</v>
+        <v>6395696.383675963</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13788,7 +13758,7 @@
         <v>244</v>
       </c>
       <c r="D38">
-        <v>-46185471.69587412</v>
+        <v>-46176087.14099264</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -13802,7 +13772,7 @@
         <v>228</v>
       </c>
       <c r="D39">
-        <v>1199131.842135328</v>
+        <v>1198961.278474678</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -13828,7 +13798,7 @@
         <v>246</v>
       </c>
       <c r="D43">
-        <v>61776.88748035982</v>
+        <v>61582.93661798118</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13842,7 +13812,7 @@
         <v>228</v>
       </c>
       <c r="D44">
-        <v>303736.2882111172</v>
+        <v>303068.4593771751</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13854,7 +13824,7 @@
         <v>228</v>
       </c>
       <c r="D45">
-        <v>50291.17000900388</v>
+        <v>50164.8174865181</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13880,7 +13850,7 @@
         <v>238</v>
       </c>
       <c r="D49">
-        <v>50.89138237779862</v>
+        <v>142.2965296822202</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -13894,7 +13864,7 @@
         <v>228</v>
       </c>
       <c r="D50">
-        <v>49092.50410107778</v>
+        <v>100832.4286218063</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -13906,7 +13876,7 @@
         <v>228</v>
       </c>
       <c r="D51">
-        <v>1285.233190269256</v>
+        <v>2925.647382269893</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -13918,7 +13888,7 @@
         <v>228</v>
       </c>
       <c r="D52">
-        <v>5953.190229420705</v>
+        <v>9954.622393719332</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -13930,7 +13900,7 @@
         <v>228</v>
       </c>
       <c r="D53">
-        <v>16221.48479038281</v>
+        <v>30062.1917185513</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -13962,10 +13932,10 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -13974,13 +13944,13 @@
         <v>249</v>
       </c>
       <c r="D58">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F58">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -13989,16 +13959,16 @@
         <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D59">
-        <v>0.3</v>
+        <v>0.3342914340295329</v>
       </c>
       <c r="E59">
-        <v>0.3</v>
+        <v>0.6470277330768888</v>
       </c>
       <c r="F59">
-        <v>0.3350723752843767</v>
+        <v>1.276063143674178</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -14007,16 +13977,16 @@
         <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D60">
-        <v>0.315</v>
+        <v>0.3510060057310095</v>
       </c>
       <c r="E60">
-        <v>0.315</v>
+        <v>0.6793791197307333</v>
       </c>
       <c r="F60">
-        <v>0.3518259940485955</v>
+        <v>1.339866300857887</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -14025,10 +13995,10 @@
         <v>252</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="F61">
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -14036,1165 +14006,1136 @@
       <c r="B62" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
       <c r="D62">
-        <v>87</v>
-      </c>
-      <c r="E62">
-        <v>40</v>
+        <v>109.936416</v>
+      </c>
+      <c r="F62">
+        <v>101.080416</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
         <v>225</v>
       </c>
       <c r="D63">
-        <v>13.996416</v>
-      </c>
-      <c r="E63">
-        <v>19.900416</v>
+        <v>2.99792</v>
+      </c>
+      <c r="F63">
+        <v>3.729631165929854</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D64">
-        <v>140.932416</v>
-      </c>
-      <c r="E64">
-        <v>71.56041599999999</v>
+        <v>1.125</v>
+      </c>
+      <c r="F64">
+        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D65">
-        <v>5.549304248482765</v>
-      </c>
-      <c r="E65">
-        <v>5.9384190250405</v>
+        <v>51082.24699436999</v>
+      </c>
+      <c r="F65">
+        <v>38695.0882614455</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D66">
-        <v>2.99792</v>
-      </c>
-      <c r="E66">
-        <v>7.069663226291479</v>
+        <v>60828.59106274766</v>
+      </c>
+      <c r="F66">
+        <v>63551.69994997628</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D67">
-        <v>0.3125</v>
-      </c>
-      <c r="E67">
-        <v>0.3125</v>
+        <v>348818.5213161081</v>
+      </c>
+      <c r="F67">
+        <v>306611.4465655746</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D68">
-        <v>1.75</v>
+        <v>5046.15245380719</v>
       </c>
       <c r="E68">
-        <v>0.375</v>
+        <v>95913.8030212552</v>
+      </c>
+      <c r="F68">
+        <v>75242.51976241112</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D69">
-        <v>24022.37065550823</v>
+        <v>5945.351547653983</v>
       </c>
       <c r="E69">
-        <v>7214.87704697407</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C70" t="s">
-        <v>226</v>
-      </c>
-      <c r="D70">
-        <v>103094.6428787647</v>
-      </c>
-      <c r="E70">
-        <v>26882.13795543463</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C71" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>12268.73531135384</v>
+        <v>798228.1292644773</v>
+      </c>
+      <c r="F69">
+        <v>87478.75964474813</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72">
-        <v>87867.64369550682</v>
-      </c>
-      <c r="E72">
-        <v>73943.81057377654</v>
+      <c r="A72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="D73">
-        <v>188513.7634329276</v>
-      </c>
-      <c r="E73">
-        <v>107880.3216832544</v>
+        <v>3584.425234220425</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="D74">
-        <v>539766.8531757435</v>
-      </c>
-      <c r="E74">
-        <v>267846.2169346404</v>
+        <v>89.91666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="D75">
-        <v>77002.79243398552</v>
-      </c>
-      <c r="E75">
-        <v>78838.59314252876</v>
-      </c>
-      <c r="F75">
-        <v>5047.448517570288</v>
+        <v>6.916666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="D76">
-        <v>170082.4058438159</v>
-      </c>
-      <c r="E76">
-        <v>562768.7106233282</v>
-      </c>
-      <c r="F76">
-        <v>5937.65231084866</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77">
+        <v>46176087.14099264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79">
+        <v>0.9</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C80" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="D80">
-        <v>3515.505275848776</v>
+        <v>190570.83077403</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C81" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D81">
-        <v>219.9166666666667</v>
+        <v>11610239.77956619</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D82">
-        <v>16.91666666666666</v>
+        <v>722200.9341554798</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="C83" t="s">
+        <v>228</v>
       </c>
       <c r="D83">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C84" t="s">
-        <v>244</v>
-      </c>
-      <c r="D84">
-        <v>46185471.69587412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" t="s">
-        <v>280</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
+        <v>443070.5151834512</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D86">
-        <v>0.9</v>
+      <c r="A86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="D87">
-        <v>190597.9412896851</v>
+        <v>51.87731940674384</v>
+      </c>
+      <c r="E87">
+        <v>371.2894770203915</v>
+      </c>
+      <c r="F87">
+        <v>824.1385547925145</v>
+      </c>
+      <c r="G87">
+        <v>871.0980751066345</v>
+      </c>
+      <c r="H87">
+        <v>472.2561008827879</v>
+      </c>
+      <c r="I87">
+        <v>1801.558842227835</v>
+      </c>
+      <c r="J87">
+        <v>1709.294163704897</v>
+      </c>
+      <c r="K87">
+        <v>12091.13431366226</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="D88">
-        <v>11498079.39204778</v>
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.5</v>
+      </c>
+      <c r="F88">
+        <v>0.5</v>
+      </c>
+      <c r="G88">
+        <v>0.5</v>
+      </c>
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="I88">
+        <v>0.5</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
+      </c>
+      <c r="K88">
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D89">
-        <v>715224.1327991808</v>
+        <v>102.3082767113998</v>
+      </c>
+      <c r="E89">
+        <v>35.96546232287139</v>
+      </c>
+      <c r="F89">
+        <v>21.09040727674859</v>
+      </c>
+      <c r="G89">
+        <v>8.968797108954364</v>
+      </c>
+      <c r="H89">
+        <v>14.93021158487228</v>
+      </c>
+      <c r="I89">
+        <v>44.74434810633918</v>
+      </c>
+      <c r="J89">
+        <v>18.96816398510796</v>
+      </c>
+      <c r="K89">
+        <v>15.47160317406087</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90">
+        <v>0.9999999999999369</v>
+      </c>
+      <c r="E90">
+        <v>0.9482041545059831</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0.946786682984018</v>
+      </c>
+      <c r="H90">
+        <v>0.9222910578338577</v>
+      </c>
+      <c r="I90">
+        <v>0.9532523453634423</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91">
+        <v>1.5</v>
+      </c>
+      <c r="E91">
+        <v>1.5</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="H91">
+        <v>1.5</v>
+      </c>
+      <c r="I91">
+        <v>1.5</v>
+      </c>
+      <c r="J91">
+        <v>1.5</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>1.5</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93">
+        <v>50.01380310880829</v>
+      </c>
+      <c r="E93">
+        <v>14.7</v>
+      </c>
+      <c r="F93">
+        <v>14.7</v>
+      </c>
+      <c r="G93">
+        <v>14.7</v>
+      </c>
+      <c r="H93">
+        <v>14.7</v>
+      </c>
+      <c r="I93">
+        <v>14.7</v>
+      </c>
+      <c r="J93">
+        <v>2709.531861458823</v>
+      </c>
+      <c r="K93">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C94" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>20</v>
+      </c>
+      <c r="J94">
+        <v>20</v>
+      </c>
+      <c r="K94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
         <v>228</v>
       </c>
-      <c r="D90">
-        <v>437939.165988051</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
+      <c r="D95">
+        <v>4670.596361043651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C94" t="s">
-        <v>290</v>
-      </c>
-      <c r="D94">
-        <v>819.6099264560638</v>
-      </c>
-      <c r="E94">
-        <v>471.6198208559024</v>
-      </c>
-      <c r="F94">
-        <v>47.42296808119413</v>
-      </c>
-      <c r="G94">
-        <v>2387.756116614707</v>
-      </c>
-      <c r="H94">
-        <v>1794.293435086298</v>
-      </c>
-      <c r="I94">
-        <v>2191.872979768944</v>
-      </c>
-      <c r="J94">
-        <v>2659.010669690588</v>
-      </c>
-      <c r="K94">
-        <v>4643.291553777366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C95" t="s">
-        <v>291</v>
-      </c>
-      <c r="D95">
-        <v>0.5</v>
-      </c>
-      <c r="E95">
-        <v>0.5</v>
-      </c>
-      <c r="F95">
-        <v>0.5</v>
-      </c>
-      <c r="G95">
-        <v>0.5</v>
-      </c>
-      <c r="H95">
-        <v>0.5</v>
-      </c>
-      <c r="I95">
-        <v>0.5</v>
-      </c>
-      <c r="J95">
-        <v>0.5</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C96" t="s">
-        <v>292</v>
-      </c>
-      <c r="D96">
-        <v>21.08739449268803</v>
-      </c>
-      <c r="E96">
-        <v>14.93261527141401</v>
-      </c>
-      <c r="F96">
-        <v>102.6840157830994</v>
-      </c>
-      <c r="G96">
-        <v>44.13874229037175</v>
-      </c>
-      <c r="H96">
-        <v>44.77891176459205</v>
-      </c>
-      <c r="I96">
-        <v>40.53849073553985</v>
-      </c>
-      <c r="J96">
-        <v>24.79827631310535</v>
-      </c>
-      <c r="K96">
-        <v>39.48069409650453</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>0.922297600031421</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>0.9532696204244923</v>
-      </c>
-      <c r="I97">
-        <v>0.9510110945945837</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" t="s">
         <v>285</v>
       </c>
-      <c r="C98" t="s">
-        <v>293</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>1.5</v>
-      </c>
-      <c r="F98">
-        <v>1.5</v>
-      </c>
-      <c r="G98">
-        <v>1.5</v>
-      </c>
-      <c r="H98">
-        <v>1.5</v>
-      </c>
-      <c r="I98">
-        <v>5</v>
-      </c>
-      <c r="J98">
-        <v>5</v>
-      </c>
-      <c r="K98">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" t="s">
-        <v>293</v>
-      </c>
       <c r="D99">
-        <v>1.5</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
-      </c>
-      <c r="F99">
-        <v>5</v>
-      </c>
-      <c r="G99">
-        <v>3</v>
-      </c>
-      <c r="H99">
-        <v>5</v>
-      </c>
-      <c r="I99">
-        <v>5</v>
-      </c>
-      <c r="J99">
-        <v>5</v>
-      </c>
-      <c r="K99">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>114.9977242076961</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101">
+        <v>621235.868181682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C105" t="s">
+        <v>301</v>
+      </c>
+      <c r="D105">
+        <v>9.56973187761867</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C100" t="s">
-        <v>293</v>
-      </c>
-      <c r="D100">
-        <v>14.7</v>
-      </c>
-      <c r="E100">
-        <v>14.7</v>
-      </c>
-      <c r="F100">
-        <v>50.01380310880829</v>
-      </c>
-      <c r="G100">
-        <v>2709.531861458823</v>
-      </c>
-      <c r="H100">
-        <v>14.7</v>
-      </c>
-      <c r="I100">
-        <v>14.7</v>
-      </c>
-      <c r="J100">
-        <v>14.7</v>
-      </c>
-      <c r="K100">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101">
-        <v>20</v>
-      </c>
-      <c r="E101">
-        <v>20</v>
-      </c>
-      <c r="F101">
-        <v>20</v>
-      </c>
-      <c r="G101">
-        <v>20</v>
-      </c>
-      <c r="H101">
-        <v>20</v>
-      </c>
-      <c r="I101">
-        <v>20</v>
-      </c>
-      <c r="J101">
-        <v>20</v>
-      </c>
-      <c r="K101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" t="s">
-        <v>228</v>
-      </c>
-      <c r="D102">
-        <v>106287.4280706661</v>
-      </c>
-      <c r="E102">
-        <v>89635.1056531264</v>
-      </c>
-      <c r="G102">
-        <v>477833.7860645997</v>
-      </c>
-      <c r="H102">
-        <v>148792.6334305923</v>
-      </c>
-      <c r="I102">
-        <v>165061.2302463063</v>
-      </c>
-      <c r="J102">
-        <v>183710.4564111267</v>
-      </c>
-      <c r="K102">
-        <v>262890.9548208345</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D106">
-        <v>22.55592168626053</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>12.83301044788664</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D107" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D108">
-        <v>181532.207607021</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>2.301106025017866</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109">
+        <v>2.301106025017866</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110">
+        <v>260.84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C112" t="s">
-        <v>311</v>
-      </c>
-      <c r="D112">
-        <v>3.573209079069897</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>293</v>
+      </c>
+      <c r="D112" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C113" t="s">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="D113">
-        <v>4.791673375032732</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>27.67810484966423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D114" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>295</v>
+      </c>
+      <c r="C114" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114">
+        <v>6.919526212416058</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D115">
-        <v>1.657001300004735</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>10447.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C116" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D116">
-        <v>1.657001300004735</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C117" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="D117">
-        <v>135.25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B118" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D118">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>22887.90371036585</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D119" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119">
+        <v>3378.23628611508</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C120" t="s">
-        <v>225</v>
-      </c>
-      <c r="D120">
-        <v>16.91280647931821</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C121" t="s">
-        <v>225</v>
-      </c>
-      <c r="D121">
-        <v>4.228201619829552</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C122" t="s">
-        <v>226</v>
-      </c>
-      <c r="D122">
-        <v>3250.89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C123" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="D123">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>70.41546799167509</v>
+      </c>
+      <c r="E123">
+        <v>17.36169516396376</v>
+      </c>
+      <c r="F123">
+        <v>13.74375787153666</v>
+      </c>
+      <c r="G123">
+        <v>17.02844847192707</v>
+      </c>
+      <c r="H123">
+        <v>13.74369720748605</v>
+      </c>
+      <c r="I123">
+        <v>17.09625358051645</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>308</v>
+        <v>231</v>
+      </c>
+      <c r="C124" t="s">
+        <v>312</v>
       </c>
       <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>2053.590632623414</v>
+      </c>
+      <c r="E124">
+        <v>506.3349796864859</v>
+      </c>
+      <c r="F124">
+        <v>400.8217686683386</v>
+      </c>
+      <c r="G124">
+        <v>496.616201914531</v>
+      </c>
+      <c r="H124">
+        <v>400.8199994672011</v>
+      </c>
+      <c r="I124">
+        <v>498.5936642507841</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C125" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="D125">
-        <v>14640.84564766716</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>0.7412592342430225</v>
+      </c>
+      <c r="E125">
+        <v>0.6310933291365095</v>
+      </c>
+      <c r="F125">
+        <v>0.608871185856571</v>
+      </c>
+      <c r="G125">
+        <v>0.6292897915154104</v>
+      </c>
+      <c r="H125">
+        <v>0.6088707563836117</v>
+      </c>
+      <c r="I125">
+        <v>0.629660185152081</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D126">
+        <v>94.99438892465697</v>
+      </c>
+      <c r="E126">
+        <v>27.51050337945866</v>
+      </c>
+      <c r="F126">
+        <v>22.57252139826865</v>
+      </c>
+      <c r="G126">
+        <v>27.0597881953883</v>
+      </c>
+      <c r="H126">
+        <v>22.57243768631089</v>
+      </c>
+      <c r="I126">
+        <v>27.15155568616303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127">
+        <v>100</v>
+      </c>
+      <c r="E127">
+        <v>30</v>
+      </c>
+      <c r="F127">
+        <v>25</v>
+      </c>
+      <c r="G127">
+        <v>30</v>
+      </c>
+      <c r="H127">
+        <v>25</v>
+      </c>
+      <c r="I127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C129" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129">
+        <v>192.6586243957618</v>
+      </c>
+      <c r="E129">
+        <v>291.5307111052964</v>
+      </c>
+      <c r="F129">
+        <v>298.9006384006789</v>
+      </c>
+      <c r="G129">
+        <v>294.3262423511411</v>
+      </c>
+      <c r="H129">
+        <v>298.900843083742</v>
+      </c>
+      <c r="I129">
+        <v>366.0734380696719</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D130" t="s">
+        <v>313</v>
+      </c>
+      <c r="E130" t="s">
+        <v>313</v>
+      </c>
+      <c r="F130" t="s">
+        <v>313</v>
+      </c>
+      <c r="G130" t="s">
+        <v>313</v>
+      </c>
+      <c r="H130" t="s">
+        <v>313</v>
+      </c>
+      <c r="I130" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" t="s">
         <v>228</v>
       </c>
-      <c r="D126">
-        <v>3060.892576526775</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C130" t="s">
-        <v>312</v>
-      </c>
-      <c r="D130">
-        <v>8.130620618219062</v>
-      </c>
-      <c r="E130">
-        <v>28.23698690560084</v>
-      </c>
-      <c r="F130">
-        <v>8.544665125744052</v>
-      </c>
-      <c r="G130">
-        <v>6.046367566524918</v>
-      </c>
-      <c r="H130">
-        <v>4.974342216473656</v>
-      </c>
-      <c r="I130">
-        <v>4.974070922419915</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C131" t="s">
-        <v>322</v>
-      </c>
       <c r="D131">
-        <v>237.1207181490786</v>
+        <v>39820.75463729655</v>
       </c>
       <c r="E131">
-        <v>823.501049651583</v>
+        <v>14261.78928948614</v>
       </c>
       <c r="F131">
-        <v>249.1958764401946</v>
+        <v>13057.30703084079</v>
       </c>
       <c r="G131">
-        <v>176.3357419918245</v>
+        <v>14175.23048398615</v>
       </c>
       <c r="H131">
-        <v>145.0712871839635</v>
+        <v>13057.28683768313</v>
       </c>
       <c r="I131">
-        <v>145.0633751875892</v>
+        <v>14873.22552797977</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="C132" t="s">
+        <v>228</v>
       </c>
       <c r="D132">
-        <v>0.5552799805113414</v>
+        <v>4820.539611345683</v>
       </c>
       <c r="E132">
-        <v>0.67394462629102</v>
+        <v>1325.420355284472</v>
       </c>
       <c r="F132">
-        <v>0.5605615345811541</v>
+        <v>1132.753107661787</v>
       </c>
       <c r="G132">
-        <v>0.5229061557911954</v>
+        <v>1325.420355284472</v>
       </c>
       <c r="H132">
-        <v>0.500771426034763</v>
+        <v>1132.753107661787</v>
       </c>
       <c r="I132">
-        <v>0.5007651534198132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D133">
-        <v>14.64238024704547</v>
-      </c>
-      <c r="E133">
-        <v>41.89808153972528</v>
-      </c>
-      <c r="F133">
-        <v>15.2430457650444</v>
-      </c>
-      <c r="G133">
-        <v>11.56300705119128</v>
-      </c>
-      <c r="H133">
-        <v>9.933358729873582</v>
-      </c>
-      <c r="I133">
-        <v>9.932941396682878</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D134">
-        <v>15</v>
-      </c>
-      <c r="E134">
-        <v>50</v>
-      </c>
-      <c r="F134">
-        <v>20</v>
-      </c>
-      <c r="G134">
-        <v>15</v>
-      </c>
-      <c r="H134">
-        <v>10</v>
-      </c>
-      <c r="I134">
-        <v>10</v>
+        <v>1325.420355284472</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
+      <c r="A135" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B136" s="1" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="D136">
-        <v>316.0186828319112</v>
-      </c>
-      <c r="E136">
-        <v>213.8890460623329</v>
-      </c>
-      <c r="F136">
-        <v>328.982526320327</v>
-      </c>
-      <c r="G136">
-        <v>440.7869592986479</v>
-      </c>
-      <c r="H136">
-        <v>362.9845794125631</v>
-      </c>
-      <c r="I136">
-        <v>362.990215746899</v>
+        <v>466.4071389106095</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D137" t="s">
-        <v>323</v>
-      </c>
-      <c r="E137" t="s">
-        <v>323</v>
-      </c>
-      <c r="F137" t="s">
-        <v>323</v>
-      </c>
-      <c r="G137" t="s">
-        <v>323</v>
-      </c>
-      <c r="H137" t="s">
-        <v>323</v>
-      </c>
-      <c r="I137" t="s">
-        <v>323</v>
+        <v>284</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -15202,89 +15143,119 @@
         <v>212</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C138" t="s">
         <v>228</v>
       </c>
       <c r="D138">
-        <v>11043.40591805618</v>
-      </c>
-      <c r="E138">
-        <v>16537.37778951827</v>
-      </c>
-      <c r="F138">
-        <v>11277.11132362866</v>
-      </c>
-      <c r="G138">
-        <v>15967.7779366114</v>
-      </c>
-      <c r="H138">
-        <v>9905.068284299588</v>
-      </c>
-      <c r="I138">
-        <v>9904.965722057168</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C139" t="s">
-        <v>228</v>
-      </c>
-      <c r="D139">
-        <v>778.9098966193278</v>
-      </c>
-      <c r="E139">
-        <v>2185.531516417895</v>
-      </c>
-      <c r="F139">
-        <v>950.2548879891278</v>
-      </c>
-      <c r="G139">
-        <v>778.9098966193278</v>
-      </c>
-      <c r="H139">
-        <v>620.5362044090547</v>
-      </c>
-      <c r="I139">
-        <v>620.5362044090547</v>
+        <v>1649327.842540777</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>34</v>
+        <v>211</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C142" t="s">
+        <v>270</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>168</v>
+      </c>
+      <c r="F142">
+        <v>0.25</v>
+      </c>
+      <c r="G142">
+        <v>168</v>
+      </c>
+      <c r="H142">
+        <v>168</v>
+      </c>
+      <c r="I142">
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D143">
-        <v>187.0318077791467</v>
+        <v>932.8142778212192</v>
+      </c>
+      <c r="E143">
+        <v>10.91108394580406</v>
+      </c>
+      <c r="F143">
+        <v>22.7584470059243</v>
+      </c>
+      <c r="G143">
+        <v>776.1937578314416</v>
+      </c>
+      <c r="H143">
+        <v>2299.523034642604</v>
+      </c>
+      <c r="I143">
+        <v>0.5634192121299422</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
     </row>
@@ -15293,40 +15264,40 @@
         <v>212</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="C145" t="s">
         <v>228</v>
       </c>
       <c r="D145">
-        <v>611310.1377331597</v>
+        <v>230108.2083987516</v>
+      </c>
+      <c r="E145">
+        <v>72078.75289322039</v>
+      </c>
+      <c r="F145">
+        <v>74109.58687449431</v>
+      </c>
+      <c r="G145">
+        <v>469048.6814013057</v>
+      </c>
+      <c r="H145">
+        <v>813492.2165514919</v>
+      </c>
+      <c r="I145">
+        <v>70304.99200977857</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -15334,78 +15305,33 @@
         <v>211</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D149">
-        <v>0.25</v>
-      </c>
-      <c r="E149">
-        <v>168</v>
-      </c>
-      <c r="F149">
-        <v>168</v>
-      </c>
-      <c r="G149">
-        <v>168</v>
-      </c>
-      <c r="H149">
-        <v>168</v>
-      </c>
-      <c r="I149">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D150">
-        <v>8.237070587324755</v>
-      </c>
-      <c r="E150">
-        <v>2299.736961640951</v>
-      </c>
-      <c r="F150">
-        <v>9.698734824930511</v>
-      </c>
-      <c r="G150">
-        <v>0.2006653904246305</v>
-      </c>
-      <c r="H150">
-        <v>622.2345911739079</v>
-      </c>
-      <c r="I150">
-        <v>374.0636155582933</v>
+        <v>11.49977242076961</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-      <c r="I151">
         <v>1</v>
       </c>
     </row>
@@ -15414,89 +15340,13 @@
         <v>212</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C152" t="s">
         <v>228</v>
       </c>
       <c r="D152">
-        <v>71620.38277598648</v>
-      </c>
-      <c r="E152">
-        <v>813530.5854415096</v>
-      </c>
-      <c r="F152">
-        <v>71870.93620191589</v>
-      </c>
-      <c r="G152">
-        <v>70242.81000487015</v>
-      </c>
-      <c r="H152">
-        <v>419312.5006285951</v>
-      </c>
-      <c r="I152">
-        <v>134329.1032742956</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C156" t="s">
-        <v>280</v>
-      </c>
-      <c r="D156">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C157" t="s">
-        <v>311</v>
-      </c>
-      <c r="D157">
-        <v>5.659683771069604</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C159" t="s">
-        <v>228</v>
-      </c>
-      <c r="D159">
-        <v>71178.57604627145</v>
+        <v>72179.66383460691</v>
       </c>
     </row>
   </sheetData>
@@ -15508,19 +15358,19 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A57:A70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A112:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A130:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A87:A94"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A105:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A142:A144"/>
     <mergeCell ref="A149:A151"/>
-    <mergeCell ref="A156:A158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Report.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="328">
   <si>
     <t>Unit operation</t>
   </si>
@@ -51,48 +51,48 @@
     <t>T106</t>
   </si>
   <si>
+    <t>D102</t>
+  </si>
+  <si>
     <t>D103</t>
   </si>
   <si>
-    <t>D102</t>
+    <t>D104</t>
   </si>
   <si>
     <t>D101</t>
   </si>
   <si>
-    <t>D104</t>
-  </si>
-  <si>
     <t>R101</t>
   </si>
   <si>
     <t>H101</t>
   </si>
   <si>
+    <t>H109</t>
+  </si>
+  <si>
+    <t>H107</t>
+  </si>
+  <si>
+    <t>H105</t>
+  </si>
+  <si>
+    <t>H103</t>
+  </si>
+  <si>
+    <t>H106</t>
+  </si>
+  <si>
+    <t>H108</t>
+  </si>
+  <si>
+    <t>H104</t>
+  </si>
+  <si>
     <t>H102</t>
   </si>
   <si>
-    <t>H107</t>
-  </si>
-  <si>
-    <t>H108</t>
-  </si>
-  <si>
-    <t>H105</t>
-  </si>
-  <si>
-    <t>H106</t>
-  </si>
-  <si>
-    <t>H109</t>
-  </si>
-  <si>
-    <t>H103</t>
-  </si>
-  <si>
-    <t>H104</t>
-  </si>
-  <si>
     <t>C102</t>
   </si>
   <si>
@@ -102,27 +102,27 @@
     <t>M104</t>
   </si>
   <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
     <t>P104</t>
   </si>
   <si>
-    <t>P107</t>
-  </si>
-  <si>
     <t>P105</t>
   </si>
   <si>
     <t>P102</t>
   </si>
   <si>
-    <t>P106</t>
+    <t>P108</t>
   </si>
   <si>
     <t>P109</t>
   </si>
   <si>
-    <t>P108</t>
-  </si>
-  <si>
     <t>C101</t>
   </si>
   <si>
@@ -135,15 +135,15 @@
     <t>T101</t>
   </si>
   <si>
+    <t>T109</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
     <t>T102</t>
   </si>
   <si>
-    <t>T109</t>
-  </si>
-  <si>
-    <t>T110</t>
-  </si>
-  <si>
     <t>T104</t>
   </si>
   <si>
@@ -249,90 +249,90 @@
     <t>Cumilative NPV</t>
   </si>
   <si>
+    <t>oil_fraction</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>s.12</t>
+  </si>
+  <si>
+    <t>recycle_nitrogen</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>LAOs_to_separations</t>
+  </si>
+  <si>
+    <t>s.13</t>
+  </si>
+  <si>
+    <t>cell_recycle</t>
+  </si>
+  <si>
+    <t>wastewater</t>
+  </si>
+  <si>
+    <t>mixed_bioreactor_feed</t>
+  </si>
+  <si>
+    <t>boiler_makeup_water</t>
+  </si>
+  <si>
+    <t>natural_gas</t>
+  </si>
+  <si>
+    <t>solvent_recycle</t>
+  </si>
+  <si>
+    <t>hexene</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>boiler_chemicals</t>
+  </si>
+  <si>
+    <t>aqueous_fraction</t>
+  </si>
+  <si>
+    <t>octene</t>
+  </si>
+  <si>
+    <t>cell_mass</t>
+  </si>
+  <si>
+    <t>emissions</t>
+  </si>
+  <si>
+    <t>rejected_water_and_blowdown</t>
+  </si>
+  <si>
+    <t>decene</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>ash_disposal</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
     <t>process_water</t>
   </si>
   <si>
     <t>tridecane</t>
   </si>
   <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>oil_fraction</t>
-  </si>
-  <si>
-    <t>DAP</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>recycle_nitrogen</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>s.12</t>
-  </si>
-  <si>
-    <t>LAOs_to_separations</t>
-  </si>
-  <si>
-    <t>s.13</t>
-  </si>
-  <si>
-    <t>cell_recycle</t>
-  </si>
-  <si>
-    <t>wastewater</t>
-  </si>
-  <si>
-    <t>mixed_bioreactor_feed</t>
-  </si>
-  <si>
-    <t>boiler_makeup_water</t>
-  </si>
-  <si>
-    <t>solvent_recycle</t>
-  </si>
-  <si>
-    <t>natural_gas</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>hexene</t>
-  </si>
-  <si>
-    <t>aqueous_fraction</t>
-  </si>
-  <si>
-    <t>boiler_chemicals</t>
-  </si>
-  <si>
-    <t>octene</t>
-  </si>
-  <si>
-    <t>cell_mass</t>
-  </si>
-  <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>decene</t>
-  </si>
-  <si>
-    <t>rejected_water_and_blowdown</t>
-  </si>
-  <si>
-    <t>ash_disposal</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
@@ -576,48 +576,48 @@
     <t>Tryptone</t>
   </si>
   <si>
+    <t>liquid</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
     <t>M102</t>
   </si>
   <si>
-    <t>liquid</t>
-  </si>
-  <si>
     <t>M101</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>M103</t>
-  </si>
-  <si>
     <t>M105</t>
   </si>
   <si>
     <t>gas|liquid</t>
   </si>
   <si>
+    <t>s.18</t>
+  </si>
+  <si>
+    <t>recirculated_chilled_water</t>
+  </si>
+  <si>
+    <t>evaporation_and_blowdown</t>
+  </si>
+  <si>
+    <t>cooling_tower_makeup_water</t>
+  </si>
+  <si>
     <t>s.15</t>
   </si>
   <si>
     <t>s.16</t>
   </si>
   <si>
-    <t>cooling_tower_makeup_water</t>
-  </si>
-  <si>
-    <t>evaporation_and_blowdown</t>
-  </si>
-  <si>
-    <t>s.18</t>
-  </si>
-  <si>
-    <t>recirculated_chilled_water</t>
-  </si>
-  <si>
     <t>Duty (kJ/hr)</t>
   </si>
   <si>
@@ -633,12 +633,12 @@
     <t>medium_pressure_steam</t>
   </si>
   <si>
+    <t>high_pressure_steam</t>
+  </si>
+  <si>
     <t>low_pressure_steam</t>
   </si>
   <si>
-    <t>high_pressure_steam</t>
-  </si>
-  <si>
     <t>chilled_water</t>
   </si>
   <si>
@@ -777,16 +777,46 @@
     <t>Reflux</t>
   </si>
   <si>
-    <t>Actual stages</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Trays</t>
-  </si>
-  <si>
-    <t>Tower</t>
+    <t>Rectifier stages</t>
+  </si>
+  <si>
+    <t>Stripper stages</t>
+  </si>
+  <si>
+    <t>Rectifier height</t>
+  </si>
+  <si>
+    <t>Stripper height</t>
+  </si>
+  <si>
+    <t>Rectifier diameter</t>
+  </si>
+  <si>
+    <t>Stripper diameter</t>
+  </si>
+  <si>
+    <t>Rectifier wall thickness</t>
+  </si>
+  <si>
+    <t>Stripper wall thickness</t>
+  </si>
+  <si>
+    <t>Rectifier weight</t>
+  </si>
+  <si>
+    <t>Stripper weight</t>
+  </si>
+  <si>
+    <t>Rectifier trays</t>
+  </si>
+  <si>
+    <t>Stripper trays</t>
+  </si>
+  <si>
+    <t>Rectifier tower</t>
+  </si>
+  <si>
+    <t>Stripper tower</t>
   </si>
   <si>
     <t>Condenser</t>
@@ -1055,10 +1085,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>304</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>287</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1076,7 +1106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="185880375" cy="38414325"/>
+          <a:ext cx="175317150" cy="51273075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,13 +1444,13 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>1.054773541655092</v>
+        <v>1.054774697995688</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.675770022977323</v>
+        <v>1.675771647666185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1431,13 +1461,13 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <v>0.09213034252712669</v>
+        <v>0.09213088965986505</v>
       </c>
       <c r="D4">
-        <v>0.004383953515598994</v>
+        <v>0.004383993145835722</v>
       </c>
       <c r="E4">
-        <v>0.2175795265056247</v>
+        <v>0.217580853684827</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1448,13 +1478,13 @@
         <v>45</v>
       </c>
       <c r="C5">
-        <v>6.395696383675963</v>
+        <v>6.39573173914239</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.395696383675963</v>
+        <v>6.39573173914239</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1482,13 +1512,13 @@
         <v>47</v>
       </c>
       <c r="C7">
-        <v>0.3532332768636932</v>
+        <v>0.3496856997047422</v>
       </c>
       <c r="D7">
-        <v>-0.06228965176681526</v>
+        <v>-0.06141548321999485</v>
       </c>
       <c r="E7">
-        <v>0.6101136232739687</v>
+        <v>0.6038898535990279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1499,13 +1529,13 @@
         <v>48</v>
       </c>
       <c r="C8">
-        <v>0.1437748901163468</v>
+        <v>0.1437754695242157</v>
       </c>
       <c r="D8">
-        <v>0.002571229068604121</v>
+        <v>0.002571244597323136</v>
       </c>
       <c r="E8">
-        <v>0.2566055379164042</v>
+        <v>0.2566065793150532</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1516,13 +1546,13 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>0.4206386163803169</v>
+        <v>1.044385576735454</v>
       </c>
       <c r="D9">
-        <v>0.3585668088869168</v>
+        <v>0.2704137386739466</v>
       </c>
       <c r="E9">
-        <v>1.78126729043171</v>
+        <v>4.240289472527971</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1533,13 +1563,13 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>1.01013167602868</v>
+        <v>0.4206386142629656</v>
       </c>
       <c r="D10">
-        <v>0.4353248988259659</v>
+        <v>0.3585631863946036</v>
       </c>
       <c r="E10">
-        <v>4.046710351458577</v>
+        <v>1.781267286620478</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1550,13 +1580,13 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>1.43515882737056</v>
+        <v>0.5328970656643717</v>
       </c>
       <c r="D11">
-        <v>3.396339748077175</v>
+        <v>0.4658664470499578</v>
       </c>
       <c r="E11">
-        <v>5.160802574210532</v>
+        <v>2.107580715001642</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1567,13 +1597,13 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>0.5328844259227101</v>
+        <v>1.435162705461274</v>
       </c>
       <c r="D12">
-        <v>0.4658247108485561</v>
+        <v>3.396352579318402</v>
       </c>
       <c r="E12">
-        <v>2.107527985737564</v>
+        <v>5.16081597377247</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1584,13 +1614,13 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>12.96608205967915</v>
+        <v>12.96611796980786</v>
       </c>
       <c r="D13">
-        <v>2.122731309346135</v>
+        <v>2.12273232053384</v>
       </c>
       <c r="E13">
-        <v>19.71544382561558</v>
+        <v>19.71549813606709</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1601,13 +1631,13 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>0.004670596361043651</v>
+        <v>0.004670605725771345</v>
       </c>
       <c r="D14">
-        <v>0.04813445639390097</v>
+        <v>0.04813507162615863</v>
       </c>
       <c r="E14">
-        <v>0.008407073449878571</v>
+        <v>0.008407090306388422</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1618,13 +1648,13 @@
         <v>51</v>
       </c>
       <c r="C15">
-        <v>1.240427413014563</v>
+        <v>0.1490940670124332</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.0360302569145029</v>
       </c>
       <c r="E15">
-        <v>3.932154899256164</v>
+        <v>0.4726281924294133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1635,13 +1665,13 @@
         <v>51</v>
       </c>
       <c r="C16">
-        <v>0.08470285584514819</v>
+        <v>0.08470442965940347</v>
       </c>
       <c r="D16">
-        <v>0.00593707528299791</v>
+        <v>0.00593758845884187</v>
       </c>
       <c r="E16">
-        <v>0.2685080530291198</v>
+        <v>0.268513042020309</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1652,13 +1682,13 @@
         <v>51</v>
       </c>
       <c r="C17">
-        <v>0.1064978160125473</v>
+        <v>0.108666816784633</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.004276192564796947</v>
       </c>
       <c r="E17">
-        <v>0.3375980767597751</v>
+        <v>0.3444738092072867</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1669,13 +1699,13 @@
         <v>51</v>
       </c>
       <c r="C18">
-        <v>0.1086702220567447</v>
+        <v>0.4013511240944185</v>
       </c>
       <c r="D18">
-        <v>0.004276391960233302</v>
+        <v>1.505947710549827</v>
       </c>
       <c r="E18">
-        <v>0.3444846039198809</v>
+        <v>1.272283063379307</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1686,13 +1716,13 @@
         <v>51</v>
       </c>
       <c r="C19">
-        <v>0.08966633878962171</v>
+        <v>0.08966549191949318</v>
       </c>
       <c r="D19">
-        <v>0.003049186240635165</v>
+        <v>0.003049073255917064</v>
       </c>
       <c r="E19">
-        <v>0.2842422939631008</v>
+        <v>0.2842396093847933</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1703,13 +1733,13 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>0.1490939799232604</v>
+        <v>0.1065025237698836</v>
       </c>
       <c r="D20">
-        <v>0.03603022158708855</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4726279163567356</v>
+        <v>0.3376130003505311</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1720,13 +1750,13 @@
         <v>51</v>
       </c>
       <c r="C21">
-        <v>0.4013526315076728</v>
+        <v>0.5374321037847394</v>
       </c>
       <c r="D21">
-        <v>1.505971154195312</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.272287841879323</v>
+        <v>1.703659768997624</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1737,13 +1767,13 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>0.5374289071064848</v>
+        <v>1.24045460487055</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.703649635527557</v>
+        <v>3.932241097439645</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1754,13 +1784,13 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>0.621235868181682</v>
+        <v>0.6212376383727457</v>
       </c>
       <c r="D23">
-        <v>0.1058764506366961</v>
+        <v>0.1058769762321038</v>
       </c>
       <c r="E23">
-        <v>1.261108812408814</v>
+        <v>1.261112405896674</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1771,13 +1801,13 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>0.1815653258897948</v>
+        <v>0.1815654483578596</v>
       </c>
       <c r="D24">
-        <v>0.02077345471386733</v>
+        <v>0.02077347912494125</v>
       </c>
       <c r="E24">
-        <v>0.3685776115562834</v>
+        <v>0.3685778601664549</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1788,13 +1818,13 @@
         <v>53</v>
       </c>
       <c r="C25">
-        <v>0.02626613999648093</v>
+        <v>0.02626619332941049</v>
       </c>
       <c r="D25">
-        <v>0.006293349664885318</v>
+        <v>0.006293387091562239</v>
       </c>
       <c r="E25">
-        <v>0.07722798573797388</v>
+        <v>0.07722811451371352</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1805,13 +1835,13 @@
         <v>54</v>
       </c>
       <c r="C26">
-        <v>0.04464129424864223</v>
+        <v>0.01550067819041798</v>
       </c>
       <c r="D26">
-        <v>0.04658555435084429</v>
+        <v>0.01327026416313797</v>
       </c>
       <c r="E26">
-        <v>0.1473162710205194</v>
+        <v>0.05115223802837932</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1822,13 +1852,13 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>0.01534405206600957</v>
+        <v>0.01534407908976048</v>
       </c>
       <c r="D27">
-        <v>0.01316082318942721</v>
+        <v>0.01316087958471914</v>
       </c>
       <c r="E27">
-        <v>0.05063537181783159</v>
+        <v>0.05063546099620958</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1839,13 +1869,13 @@
         <v>54</v>
       </c>
       <c r="C28">
-        <v>0.01558720964477061</v>
+        <v>0.04464142697757641</v>
       </c>
       <c r="D28">
-        <v>0.01349123948172695</v>
+        <v>0.04658579205258825</v>
       </c>
       <c r="E28">
-        <v>0.05143779182774303</v>
+        <v>0.1473167090260022</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1856,13 +1886,13 @@
         <v>54</v>
       </c>
       <c r="C29">
-        <v>0.01419006013850257</v>
+        <v>0.01558723705011324</v>
       </c>
       <c r="D29">
-        <v>0.0110696372105584</v>
+        <v>0.01349129659960528</v>
       </c>
       <c r="E29">
-        <v>0.04682719845705849</v>
+        <v>0.05143788226537369</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1873,13 +1903,13 @@
         <v>54</v>
       </c>
       <c r="C30">
-        <v>0.01550065083927062</v>
+        <v>0.01419008808429798</v>
       </c>
       <c r="D30">
-        <v>0.01327020730349047</v>
+        <v>0.01106969465505499</v>
       </c>
       <c r="E30">
-        <v>0.05115214776959305</v>
+        <v>0.04682729067818334</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1890,13 +1920,13 @@
         <v>54</v>
       </c>
       <c r="C31">
-        <v>0.01419003994534492</v>
+        <v>0.01619868179143406</v>
       </c>
       <c r="D31">
-        <v>0.01106959615794464</v>
+        <v>0.01331527838178562</v>
       </c>
       <c r="E31">
-        <v>0.04682713181963823</v>
+        <v>0.05345564991173239</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1907,13 +1937,13 @@
         <v>54</v>
       </c>
       <c r="C32">
-        <v>0.01619864588326424</v>
+        <v>0.01419006710600303</v>
       </c>
       <c r="D32">
-        <v>0.01331521037659321</v>
+        <v>0.01106965150488006</v>
       </c>
       <c r="E32">
-        <v>0.05345553141477198</v>
+        <v>0.04682722144980998</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1924,13 +1954,13 @@
         <v>55</v>
       </c>
       <c r="C33">
-        <v>1.649327842540777</v>
+        <v>1.649333128035727</v>
       </c>
       <c r="D33">
-        <v>0.4294131276048939</v>
+        <v>0.4294155250165526</v>
       </c>
       <c r="E33">
-        <v>3.348135520357777</v>
+        <v>3.348146249912526</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1941,13 +1971,13 @@
         <v>56</v>
       </c>
       <c r="C34">
-        <v>0.2301082083987516</v>
+        <v>0.230109101118629</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.5292488793171287</v>
+        <v>0.5292509325728465</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1958,13 +1988,13 @@
         <v>56</v>
       </c>
       <c r="C35">
-        <v>0.4193255051023682</v>
+        <v>0.4193175212964624</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.9644486617354467</v>
+        <v>0.9644302989818635</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1992,13 +2022,13 @@
         <v>56</v>
       </c>
       <c r="C37">
-        <v>0.07410958687449432</v>
+        <v>0.4690692360602511</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.1704520498113369</v>
+        <v>1.078859242938577</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2009,13 +2039,13 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>0.4690486814013057</v>
+        <v>0.8135305854437763</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.078811967223003</v>
+        <v>1.871120346520685</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2026,13 +2056,13 @@
         <v>56</v>
       </c>
       <c r="C39">
-        <v>0.8134922165514918</v>
+        <v>0.07410961096961385</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.871032098068431</v>
+        <v>0.1704521052301119</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2043,13 +2073,13 @@
         <v>56</v>
       </c>
       <c r="C40">
-        <v>0.07030499200977856</v>
+        <v>0.07030499258658003</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.1617014816224907</v>
+        <v>0.1617014829491341</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2060,13 +2090,13 @@
         <v>57</v>
       </c>
       <c r="C41">
-        <v>0.0721796638346069</v>
+        <v>0.07217967362035783</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.1660132268195959</v>
+        <v>0.166013249326823</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2091,13 +2121,13 @@
         <v>59</v>
       </c>
       <c r="C45">
-        <v>13.91696547242722</v>
+        <v>13.76269307094956</v>
       </c>
       <c r="D45">
-        <v>-4.558759364599154</v>
+        <v>-4.494756586210033</v>
       </c>
       <c r="E45">
-        <v>25.19814521262255</v>
+        <v>24.91853148790975</v>
       </c>
     </row>
   </sheetData>
@@ -2168,10 +2198,10 @@
         <v>2014</v>
       </c>
       <c r="B2">
-        <v>7837000.726012919</v>
+        <v>7832365.452110944</v>
       </c>
       <c r="C2">
-        <v>14106601.30682325</v>
+        <v>14098257.8137997</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2180,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5642640.522729302</v>
+        <v>5639303.125519881</v>
       </c>
       <c r="G2">
-        <v>451411.2418183441</v>
+        <v>451144.2500415904</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6094051.764547646</v>
+        <v>6090447.375561471</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2201,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-8463960.784093952</v>
+        <v>-8458954.688279819</v>
       </c>
       <c r="N2">
         <v>2.42</v>
       </c>
       <c r="O2">
-        <v>-20482785.09750737</v>
+        <v>-20470670.34563717</v>
       </c>
       <c r="P2">
-        <v>-10241392.54875368</v>
+        <v>-10235335.17281858</v>
       </c>
       <c r="Q2">
-        <v>-20482785.09750737</v>
+        <v>-20470670.34563717</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2221,10 +2251,10 @@
         <v>2015</v>
       </c>
       <c r="B3">
-        <v>58777505.4450969</v>
+        <v>58742740.89083208</v>
       </c>
       <c r="C3">
-        <v>105799509.8011744</v>
+        <v>105736933.6034977</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2233,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42319803.92046976</v>
+        <v>42294773.4413991</v>
       </c>
       <c r="G3">
-        <v>3873108.454801392</v>
+        <v>3870817.665356846</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>52286964.1398188</v>
+        <v>52256038.48231742</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2254,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-63479705.88070464</v>
+        <v>-63442160.16209864</v>
       </c>
       <c r="N3">
         <v>2.2</v>
       </c>
       <c r="O3">
-        <v>-139655352.9375502</v>
+        <v>-139572752.356617</v>
       </c>
       <c r="P3">
-        <v>-80069069.0175288</v>
+        <v>-80021711.3511271</v>
       </c>
       <c r="Q3">
-        <v>-160138138.0350576</v>
+        <v>-160043422.7022542</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2274,28 +2304,28 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>31348002.90405168</v>
+        <v>31329461.80844378</v>
       </c>
       <c r="C4">
-        <v>56426405.22729301</v>
+        <v>56393031.25519881</v>
       </c>
       <c r="D4">
-        <v>8816625.816764534</v>
+        <v>8811411.133624813</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26097212.41762302</v>
+        <v>26081776.95552944</v>
       </c>
       <c r="G4">
-        <v>6270734.124595346</v>
+        <v>6267025.235027749</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>84654910.68203717</v>
+        <v>84604840.67287461</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2307,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-39145818.62643453</v>
+        <v>-39122665.43329417</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>-78291637.25286905</v>
+        <v>-78245330.86658834</v>
       </c>
       <c r="P4">
-        <v>-119214887.6439633</v>
+        <v>-119144376.7844213</v>
       </c>
       <c r="Q4">
-        <v>-238429775.2879266</v>
+        <v>-238288753.5688425</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2336,43 +2366,43 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11342958.04143016</v>
+        <v>11364149.57000749</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6772392.854562974</v>
+        <v>6768387.253829969</v>
       </c>
       <c r="H5">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I5">
-        <v>78811225.48238644</v>
+        <v>78764611.78006461</v>
       </c>
       <c r="J5">
-        <v>150801285.4829822</v>
+        <v>155249548.6246661</v>
       </c>
       <c r="K5">
-        <v>145888050.2616288</v>
+        <v>149700062.630389</v>
       </c>
       <c r="L5">
-        <v>-28872271.31699727</v>
+        <v>-29522251.71092457</v>
       </c>
       <c r="M5">
-        <v>-17529313.27556711</v>
+        <v>-18158102.14091708</v>
       </c>
       <c r="N5">
         <v>1.818181818181818</v>
       </c>
       <c r="O5">
-        <v>-31871478.68284928</v>
+        <v>-33014731.16530378</v>
       </c>
       <c r="P5">
-        <v>-135150626.985388</v>
+        <v>-135651742.3670731</v>
       </c>
       <c r="Q5">
-        <v>-270301253.9707759</v>
+        <v>-271303484.7341463</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2389,43 +2419,43 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19639046.81283501</v>
+        <v>19673149.16699774</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6304898.038590916</v>
+        <v>6301168.942405169</v>
       </c>
       <c r="H6">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I6">
-        <v>72500045.46676368</v>
+        <v>72457164.57582982</v>
       </c>
       <c r="J6">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K6">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L6">
-        <v>-25890504.30543742</v>
+        <v>-26305047.73013691</v>
       </c>
       <c r="M6">
-        <v>-6251457.492602408</v>
+        <v>-6631898.56313917</v>
       </c>
       <c r="N6">
         <v>1.652892561983471</v>
       </c>
       <c r="O6">
-        <v>-10332987.59107836</v>
+        <v>-10961815.8068416</v>
       </c>
       <c r="P6">
-        <v>-140317120.7809271</v>
+        <v>-141132650.270494</v>
       </c>
       <c r="Q6">
-        <v>-280634241.5618542</v>
+        <v>-282265300.5409879</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2442,43 +2472,43 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14408967.39540487</v>
+        <v>14429068.15988987</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5800003.637341093</v>
+        <v>5796573.166066385</v>
       </c>
       <c r="H7">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I7">
-        <v>65683971.04989107</v>
+        <v>65645121.59525624</v>
       </c>
       <c r="J7">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K7">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L7">
-        <v>-20660424.88800728</v>
+        <v>-21060966.72302904</v>
       </c>
       <c r="M7">
-        <v>-6251457.492602408</v>
+        <v>-6631898.56313917</v>
       </c>
       <c r="N7">
         <v>1.502629601803155</v>
       </c>
       <c r="O7">
-        <v>-9393625.082798507</v>
+        <v>-9965287.097128728</v>
       </c>
       <c r="P7">
-        <v>-145013933.3223264</v>
+        <v>-146115293.8190583</v>
       </c>
       <c r="Q7">
-        <v>-290027866.6446527</v>
+        <v>-292230587.6381167</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2495,43 +2525,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10644758.47621481</v>
+        <v>10655173.66927647</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5254717.683991286</v>
+        <v>5251609.727620499</v>
       </c>
       <c r="H8">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I8">
-        <v>58322610.67966866</v>
+        <v>58288115.17623677</v>
       </c>
       <c r="J8">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K8">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L8">
-        <v>-16896215.96881722</v>
+        <v>-17287072.23241564</v>
       </c>
       <c r="M8">
-        <v>-6251457.492602408</v>
+        <v>-6631898.563139174</v>
       </c>
       <c r="N8">
         <v>1.366026910730141</v>
       </c>
       <c r="O8">
-        <v>-8539659.166180462</v>
+        <v>-9059351.906480668</v>
       </c>
       <c r="P8">
-        <v>-149283762.9054166</v>
+        <v>-150644969.7722987</v>
       </c>
       <c r="Q8">
-        <v>-298567525.8108332</v>
+        <v>-301289939.5445973</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2548,43 +2578,43 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7937427.728921853</v>
+        <v>7941248.777952787</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4665808.854373493</v>
+        <v>4663049.214098942</v>
       </c>
       <c r="H9">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I9">
-        <v>50372341.47982846</v>
+        <v>50342548.24369575</v>
       </c>
       <c r="J9">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K9">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L9">
-        <v>-14188885.22152426</v>
+        <v>-14573147.34109196</v>
       </c>
       <c r="M9">
-        <v>-6251457.492602408</v>
+        <v>-6631898.56313917</v>
       </c>
       <c r="N9">
         <v>1.24184264611831</v>
       </c>
       <c r="O9">
-        <v>-7763326.514709509</v>
+        <v>-8235774.460436964</v>
       </c>
       <c r="P9">
-        <v>-153165426.1627714</v>
+        <v>-154762857.0025171</v>
       </c>
       <c r="Q9">
-        <v>-306330852.3255427</v>
+        <v>-309525714.0050343</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2601,43 +2631,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7822303.231025575</v>
+        <v>7827298.859518184</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4029787.318386277</v>
+        <v>4027403.85949566</v>
       </c>
       <c r="H10">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I10">
-        <v>41786050.74400105</v>
+        <v>41761335.95655144</v>
       </c>
       <c r="J10">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K10">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L10">
-        <v>-14073760.72362798</v>
+        <v>-14459197.42265736</v>
       </c>
       <c r="M10">
-        <v>-6251457.492602408</v>
+        <v>-6631898.563139171</v>
       </c>
       <c r="N10">
         <v>1.128947860107554</v>
       </c>
       <c r="O10">
-        <v>-7057569.558826827</v>
+        <v>-7487067.691306332</v>
       </c>
       <c r="P10">
-        <v>-156694210.9421848</v>
+        <v>-158506390.8481703</v>
       </c>
       <c r="Q10">
-        <v>-313388421.8843696</v>
+        <v>-317012781.6963406</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2654,43 +2684,43 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7729543.030917717</v>
+        <v>7735670.893177531</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3342884.059520084</v>
+        <v>3340906.876524115</v>
       </c>
       <c r="H11">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I11">
-        <v>32512856.74930744</v>
+        <v>32493626.68643558</v>
       </c>
       <c r="J11">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K11">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L11">
-        <v>-13981000.52352013</v>
+        <v>-14367569.4563167</v>
       </c>
       <c r="M11">
-        <v>-6251457.492602408</v>
+        <v>-6631898.563139171</v>
       </c>
       <c r="N11">
         <v>1.026316236461413</v>
       </c>
       <c r="O11">
-        <v>-6415972.326206204</v>
+        <v>-6806425.173914846</v>
       </c>
       <c r="P11">
-        <v>-159902197.1052879</v>
+        <v>-161909603.4351277</v>
       </c>
       <c r="Q11">
-        <v>-319804394.2105758</v>
+        <v>-323819206.8702555</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2707,43 +2737,43 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4384750.754784029</v>
+        <v>4381993.229074355</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2601028.539944595</v>
+        <v>2599490.134914847</v>
       </c>
       <c r="H12">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I12">
-        <v>22497807.23503835</v>
+        <v>22484500.67471046</v>
       </c>
       <c r="J12">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K12">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L12">
-        <v>-10636208.24738644</v>
+        <v>-11013891.79221353</v>
       </c>
       <c r="M12">
-        <v>-6251457.492602408</v>
+        <v>-6631898.563139172</v>
       </c>
       <c r="N12">
         <v>0.9330147604194662</v>
       </c>
       <c r="O12">
-        <v>-5832702.114732913</v>
+        <v>-6187659.249013497</v>
       </c>
       <c r="P12">
-        <v>-162818548.1626543</v>
+        <v>-165003433.0596345</v>
       </c>
       <c r="Q12">
-        <v>-325637096.3253087</v>
+        <v>-330006866.119269</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2760,43 +2790,43 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11243412.39387218</v>
+        <v>11118648.74990533</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1799824.578803068</v>
+        <v>1798760.053976837</v>
       </c>
       <c r="H13">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I13">
-        <v>11681553.75962772</v>
+        <v>11674644.58204732</v>
       </c>
       <c r="J13">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K13">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L13">
-        <v>-17494869.88647459</v>
+        <v>-17750547.3130445</v>
       </c>
       <c r="M13">
-        <v>-6251457.492602408</v>
+        <v>-6631898.563139172</v>
       </c>
       <c r="N13">
         <v>0.8481952367449691</v>
       </c>
       <c r="O13">
-        <v>-5302456.46793901</v>
+        <v>-5625144.771830451</v>
       </c>
       <c r="P13">
-        <v>-165469776.3966238</v>
+        <v>-167816005.4455497</v>
       </c>
       <c r="Q13">
-        <v>-330939552.7932477</v>
+        <v>-335632010.8910994</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2813,43 +2843,43 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1124089.257935092</v>
+        <v>1111615.689675654</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>934524.3007702178</v>
+        <v>933971.566563786</v>
       </c>
       <c r="H14">
-        <v>12616078.05421369</v>
+        <v>12608616.14663997</v>
       </c>
       <c r="I14">
-        <v>0.006184248544741422</v>
+        <v>0.001971140038222075</v>
       </c>
       <c r="J14">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K14">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L14">
-        <v>-7375546.7505375</v>
+        <v>-7743514.252814826</v>
       </c>
       <c r="M14">
-        <v>-6251457.492602408</v>
+        <v>-6631898.563139172</v>
       </c>
       <c r="N14">
         <v>0.7710865788590628</v>
       </c>
       <c r="O14">
-        <v>-4820414.970853646</v>
+        <v>-5113767.974391319</v>
       </c>
       <c r="P14">
-        <v>-167879983.8820507</v>
+        <v>-170372889.4327454</v>
       </c>
       <c r="Q14">
-        <v>-335759967.7641013</v>
+        <v>-340745778.8654907</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2866,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1124341.239387218</v>
+        <v>1111864.874990533</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2881,28 +2911,28 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K15">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L15">
-        <v>3406181.559445643</v>
+        <v>3162154.260531673</v>
       </c>
       <c r="M15">
-        <v>4530522.798832862</v>
+        <v>4274019.135522205</v>
       </c>
       <c r="N15">
         <v>0.7009877989627844</v>
       </c>
       <c r="O15">
-        <v>3175841.204904561</v>
+        <v>2996035.266534533</v>
       </c>
       <c r="P15">
-        <v>-166292063.2795984</v>
+        <v>-168874871.7994781</v>
       </c>
       <c r="Q15">
-        <v>-332584126.5591968</v>
+        <v>-337749743.5989562</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2919,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1124089.257935092</v>
+        <v>1111615.689675654</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2934,28 +2964,28 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K16">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L16">
-        <v>3406345.347389525</v>
+        <v>3162316.230986345</v>
       </c>
       <c r="M16">
-        <v>4530434.605324617</v>
+        <v>4273931.920661998</v>
       </c>
       <c r="N16">
         <v>0.637261635420713</v>
       </c>
       <c r="O16">
-        <v>2887072.165755758</v>
+        <v>2723612.845437854</v>
       </c>
       <c r="P16">
-        <v>-164848527.1967205</v>
+        <v>-167513065.3767592</v>
       </c>
       <c r="Q16">
-        <v>-329697054.393441</v>
+        <v>-335026130.7535184</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2972,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1124341.239387218</v>
+        <v>1111864.874990533</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2987,28 +3017,28 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K17">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L17">
-        <v>3406181.559445643</v>
+        <v>3162154.260531673</v>
       </c>
       <c r="M17">
-        <v>4530522.798832862</v>
+        <v>4274019.135522205</v>
       </c>
       <c r="N17">
         <v>0.5793287594733754</v>
       </c>
       <c r="O17">
-        <v>2624662.152813687</v>
+        <v>2476062.203747547</v>
       </c>
       <c r="P17">
-        <v>-163536196.1203137</v>
+        <v>-166275034.2748854</v>
       </c>
       <c r="Q17">
-        <v>-327072392.2406273</v>
+        <v>-332550068.5497708</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3025,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1124089.257935092</v>
+        <v>1111615.689675654</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3040,28 +3070,28 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K18">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L18">
-        <v>3406345.347389525</v>
+        <v>3162316.230986345</v>
       </c>
       <c r="M18">
-        <v>4530434.605324617</v>
+        <v>4273931.920661998</v>
       </c>
       <c r="N18">
         <v>0.5266625086121595</v>
       </c>
       <c r="O18">
-        <v>2386010.054343601</v>
+        <v>2250919.706973433</v>
       </c>
       <c r="P18">
-        <v>-162343191.0931419</v>
+        <v>-165149574.4213987</v>
       </c>
       <c r="Q18">
-        <v>-324686382.1862838</v>
+        <v>-330299148.8427974</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3078,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1124341.239387218</v>
+        <v>1111864.874990533</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3093,28 +3123,28 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K19">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L19">
-        <v>3406181.559445643</v>
+        <v>3162154.260531673</v>
       </c>
       <c r="M19">
-        <v>4530522.798832862</v>
+        <v>4274019.135522205</v>
       </c>
       <c r="N19">
         <v>0.4787840987383267</v>
       </c>
       <c r="O19">
-        <v>2169142.275052633</v>
+        <v>2046332.399791361</v>
       </c>
       <c r="P19">
-        <v>-161258619.9556156</v>
+        <v>-164126408.221503</v>
       </c>
       <c r="Q19">
-        <v>-322517239.9112312</v>
+        <v>-328252816.443006</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3131,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1124089.257935092</v>
+        <v>1111615.689675654</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3146,28 +3176,28 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K20">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L20">
-        <v>3406345.347389525</v>
+        <v>3162316.230986345</v>
       </c>
       <c r="M20">
-        <v>4530434.605324617</v>
+        <v>4273931.920661998</v>
       </c>
       <c r="N20">
         <v>0.435258271580297</v>
       </c>
       <c r="O20">
-        <v>1971909.135821158</v>
+        <v>1860264.2206392</v>
       </c>
       <c r="P20">
-        <v>-160272665.387705</v>
+        <v>-163196276.1111835</v>
       </c>
       <c r="Q20">
-        <v>-320545330.77541</v>
+        <v>-326392552.2223668</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3184,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1124341.239387218</v>
+        <v>1111864.874990533</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3199,28 +3229,28 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K21">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L21">
-        <v>3406181.559445643</v>
+        <v>3162154.260531673</v>
       </c>
       <c r="M21">
-        <v>4530522.798832862</v>
+        <v>4274019.135522205</v>
       </c>
       <c r="N21">
         <v>0.3956893378002699</v>
       </c>
       <c r="O21">
-        <v>1792679.566159201</v>
+        <v>1691183.801480464</v>
       </c>
       <c r="P21">
-        <v>-159376325.6046254</v>
+        <v>-162350684.2104432</v>
       </c>
       <c r="Q21">
-        <v>-318752651.2092508</v>
+        <v>-324701368.4208863</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3237,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1124089.257935092</v>
+        <v>1111615.689675654</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -3252,28 +3282,28 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K22">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L22">
-        <v>3406345.347389525</v>
+        <v>3162316.230986345</v>
       </c>
       <c r="M22">
-        <v>4530434.605324617</v>
+        <v>4273931.920661998</v>
       </c>
       <c r="N22">
         <v>0.3597175798184272</v>
       </c>
       <c r="O22">
-        <v>1629676.971753022</v>
+        <v>1537408.446809256</v>
       </c>
       <c r="P22">
-        <v>-158561487.1187489</v>
+        <v>-161581979.9870386</v>
       </c>
       <c r="Q22">
-        <v>-317122974.2374978</v>
+        <v>-323163959.9740771</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3290,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1124341.239387218</v>
+        <v>1111864.874990533</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3305,28 +3335,28 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K23">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L23">
-        <v>3406181.559445643</v>
+        <v>3162154.260531673</v>
       </c>
       <c r="M23">
-        <v>4530522.798832862</v>
+        <v>4274019.135522205</v>
       </c>
       <c r="N23">
         <v>0.3270159816531156</v>
       </c>
       <c r="O23">
-        <v>1481553.360462149</v>
+        <v>1397672.563206995</v>
       </c>
       <c r="P23">
-        <v>-157820710.4385178</v>
+        <v>-160883143.7054351</v>
       </c>
       <c r="Q23">
-        <v>-315641420.8770357</v>
+        <v>-321766287.4108701</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3343,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1124089.257935092</v>
+        <v>1111615.689675654</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3358,28 +3388,28 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K24">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L24">
-        <v>3406345.347389525</v>
+        <v>3162316.230986345</v>
       </c>
       <c r="M24">
-        <v>4530434.605324617</v>
+        <v>4273931.920661998</v>
       </c>
       <c r="N24">
         <v>0.2972872560482869</v>
       </c>
       <c r="O24">
-        <v>1346840.472523159</v>
+        <v>1270585.49323079</v>
       </c>
       <c r="P24">
-        <v>-157147290.2022563</v>
+        <v>-160247850.9588197</v>
       </c>
       <c r="Q24">
-        <v>-314294580.4045125</v>
+        <v>-320495701.9176394</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3396,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>562170.6196936092</v>
+        <v>555932.4374952664</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3411,28 +3441,28 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K25">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L25">
-        <v>3771592.462246489</v>
+        <v>3523510.344903596</v>
       </c>
       <c r="M25">
-        <v>4333763.081940098</v>
+        <v>4079442.782398862</v>
       </c>
       <c r="N25">
         <v>0.2702611418620789</v>
       </c>
       <c r="O25">
-        <v>1171247.759084853</v>
+        <v>1102514.864532133</v>
       </c>
       <c r="P25">
-        <v>-156561666.3227138</v>
+        <v>-159696593.5265537</v>
       </c>
       <c r="Q25">
-        <v>-313123332.6454276</v>
+        <v>-319393187.0531073</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3464,28 +3494,28 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K26">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L26">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M26">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N26">
         <v>0.2456919471473445</v>
       </c>
       <c r="O26">
-        <v>1016428.412113596</v>
+        <v>954480.3974160538</v>
       </c>
       <c r="P26">
-        <v>-156053452.116657</v>
+        <v>-159219353.3278456</v>
       </c>
       <c r="Q26">
-        <v>-312106904.233314</v>
+        <v>-318438706.6556912</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3517,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K27">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L27">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M27">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N27">
         <v>0.223356315588495</v>
       </c>
       <c r="O27">
-        <v>924025.8291941782</v>
+        <v>867709.4521964125</v>
       </c>
       <c r="P27">
-        <v>-155591439.20206</v>
+        <v>-158785498.6017474</v>
       </c>
       <c r="Q27">
-        <v>-311182878.4041198</v>
+        <v>-317570997.2034948</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3570,28 +3600,28 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K28">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L28">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M28">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N28">
         <v>0.2030511959895409</v>
       </c>
       <c r="O28">
-        <v>840023.4810856165</v>
+        <v>788826.7747240113</v>
       </c>
       <c r="P28">
-        <v>-155171427.4615171</v>
+        <v>-158391085.2143854</v>
       </c>
       <c r="Q28">
-        <v>-310342854.9230343</v>
+        <v>-316782170.4287708</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3623,28 +3653,28 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K29">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L29">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M29">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N29">
         <v>0.184591996354128</v>
       </c>
       <c r="O29">
-        <v>763657.710077833</v>
+        <v>717115.2497491011</v>
       </c>
       <c r="P29">
-        <v>-154789598.6064782</v>
+        <v>-158032527.5895109</v>
       </c>
       <c r="Q29">
-        <v>-309579197.2129564</v>
+        <v>-316065055.1790217</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3676,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K30">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L30">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M30">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N30">
         <v>0.16781090577648</v>
       </c>
       <c r="O30">
-        <v>694234.2818889391</v>
+        <v>651922.9543173646</v>
       </c>
       <c r="P30">
-        <v>-154442481.4655338</v>
+        <v>-157706566.1123522</v>
       </c>
       <c r="Q30">
-        <v>-308884962.9310675</v>
+        <v>-315413132.2247043</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3729,28 +3759,28 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K31">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L31">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M31">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N31">
         <v>0.1525553688877091</v>
       </c>
       <c r="O31">
-        <v>631122.07444449</v>
+        <v>592657.2311976041</v>
       </c>
       <c r="P31">
-        <v>-154126920.4283115</v>
+        <v>-157410237.4967534</v>
       </c>
       <c r="Q31">
-        <v>-308253840.856623</v>
+        <v>-314820474.9935067</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3782,28 +3812,28 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K32">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L32">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M32">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N32">
         <v>0.1386866989888264</v>
       </c>
       <c r="O32">
-        <v>573747.3404040817</v>
+        <v>538779.3010887309</v>
       </c>
       <c r="P32">
-        <v>-153840046.7581095</v>
+        <v>-157140847.846209</v>
       </c>
       <c r="Q32">
-        <v>-307680093.5162189</v>
+        <v>-314281695.6924179</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3835,28 +3865,28 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K33">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L33">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M33">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="N33">
         <v>0.1260788172625695</v>
       </c>
       <c r="O33">
-        <v>521588.491276438</v>
+        <v>489799.3646261191</v>
       </c>
       <c r="P33">
-        <v>-153579252.5124713</v>
+        <v>-156895948.163896</v>
       </c>
       <c r="Q33">
-        <v>-307158505.0249425</v>
+        <v>-313791896.3277918</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3870,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-8816625.816764534</v>
+        <v>-8811411.133624813</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3888,28 +3918,28 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>160364579.737393</v>
+        <v>165109068.2798009</v>
       </c>
       <c r="K34">
-        <v>166729200.2990043</v>
+        <v>171085785.8633017</v>
       </c>
       <c r="L34">
-        <v>4137003.365047335</v>
+        <v>3884866.429275519</v>
       </c>
       <c r="M34">
-        <v>12953629.18181187</v>
+        <v>12696277.56290033</v>
       </c>
       <c r="N34">
         <v>0.1146171066023359</v>
       </c>
       <c r="O34">
-        <v>1484707.49681886</v>
+        <v>1455210.598879793</v>
       </c>
       <c r="P34">
-        <v>-152836898.7640618</v>
+        <v>-156168342.8644561</v>
       </c>
       <c r="Q34">
-        <v>-305673797.5281236</v>
+        <v>-312336685.728912</v>
       </c>
     </row>
   </sheetData>
@@ -4142,100 +4172,100 @@
         <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="R3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S3" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
         <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
         <v>39</v>
       </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
       <c r="Y3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" t="s">
         <v>58</v>
       </c>
-      <c r="Z3" t="s">
-        <v>40</v>
-      </c>
       <c r="AA3" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="AB3" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="AC3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AE3" t="s">
         <v>37</v>
       </c>
       <c r="AF3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH3" t="s">
         <v>5</v>
@@ -4247,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="AK3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AL3" t="s">
         <v>14</v>
@@ -4256,31 +4286,31 @@
         <v>35</v>
       </c>
       <c r="AN3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="s">
         <v>34</v>
       </c>
       <c r="AP3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AS3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
       </c>
       <c r="AU3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW3" t="s">
         <v>24</v>
@@ -4289,31 +4319,31 @@
         <v>24</v>
       </c>
       <c r="AY3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AZ3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BE3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BF3" t="s">
         <v>191</v>
       </c>
       <c r="BG3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BH3" t="s">
         <v>25</v>
@@ -4322,34 +4352,34 @@
         <v>26</v>
       </c>
       <c r="BJ3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK3" t="s">
         <v>25</v>
       </c>
       <c r="BL3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BM3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BN3" t="s">
         <v>20</v>
       </c>
       <c r="BO3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BP3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BQ3" t="s">
         <v>17</v>
       </c>
       <c r="BR3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BS3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -4357,109 +4387,109 @@
         <v>147</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
         <v>186</v>
       </c>
-      <c r="C4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
         <v>190</v>
       </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" t="s">
         <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>188</v>
       </c>
       <c r="R4" t="s">
         <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U4" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="W4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y4" t="s">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA4" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AI4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AJ4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AK4" t="s">
         <v>15</v>
@@ -4468,7 +4498,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="s">
         <v>34</v>
@@ -4477,19 +4507,19 @@
         <v>28</v>
       </c>
       <c r="AP4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AQ4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR4" t="s">
         <v>19</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>22</v>
       </c>
       <c r="AS4" t="s">
         <v>4</v>
       </c>
       <c r="AT4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="s">
         <v>42</v>
@@ -4498,55 +4528,55 @@
         <v>24</v>
       </c>
       <c r="AW4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AX4" t="s">
         <v>26</v>
       </c>
       <c r="AY4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="s">
         <v>26</v>
       </c>
       <c r="BB4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC4" t="s">
         <v>191</v>
       </c>
       <c r="BD4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BE4" t="s">
         <v>191</v>
       </c>
       <c r="BF4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BG4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH4" t="s">
         <v>26</v>
       </c>
       <c r="BI4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BJ4" t="s">
         <v>25</v>
       </c>
       <c r="BK4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BL4" t="s">
         <v>20</v>
       </c>
       <c r="BM4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BN4" t="s">
         <v>36</v>
@@ -4555,16 +4585,16 @@
         <v>17</v>
       </c>
       <c r="BP4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BQ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS4" t="s">
         <v>39</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>10</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -4572,214 +4602,214 @@
         <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="X5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Y5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Z5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AB5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AC5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AD5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AE5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AH5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AI5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AJ5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AL5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AN5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AO5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AP5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AR5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AS5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AT5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AU5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AV5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AW5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AX5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AY5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AZ5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BA5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BB5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BC5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BD5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BE5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BF5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BG5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BH5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BI5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BJ5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BK5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BL5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BM5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BN5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BO5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BP5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BQ5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BR5" t="s">
         <v>192</v>
       </c>
       <c r="BS5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -4787,214 +4817,214 @@
         <v>149</v>
       </c>
       <c r="B6">
-        <v>335291.6727613754</v>
+        <v>84722.52404895506</v>
       </c>
       <c r="C6">
-        <v>-0.1054588056871662</v>
+        <v>142.2973890699943</v>
       </c>
       <c r="D6">
-        <v>1185.991352774722</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>84722.10321669103</v>
+        <v>3848.856337841848</v>
       </c>
       <c r="F6">
-        <v>142.2965296822202</v>
+        <v>31716.18489395235</v>
       </c>
       <c r="G6">
-        <v>31716.18489395235</v>
+        <v>3353.705815722221</v>
       </c>
       <c r="H6">
-        <v>3849.173132013093</v>
+        <v>84722.52404895506</v>
       </c>
       <c r="I6">
-        <v>3353.685786487751</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1676.852907861111</v>
       </c>
       <c r="K6">
-        <v>84722.10321669104</v>
+        <v>344323.7304159386</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>474400.8303792009</v>
       </c>
       <c r="M6">
-        <v>1676.842893243876</v>
+        <v>1450.545060362738</v>
       </c>
       <c r="N6">
-        <v>344321.6821594046</v>
+        <v>2102.580379437777</v>
       </c>
       <c r="O6">
-        <v>474398.3605711462</v>
+        <v>67801.04845755425</v>
       </c>
       <c r="P6">
-        <v>1482.603516607661</v>
+        <v>2403.62530008515</v>
       </c>
       <c r="Q6">
-        <v>67800.64512470536</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2157.124425965983</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>342834.5392044958</v>
       </c>
       <c r="T6">
-        <v>2403.715475715836</v>
+        <v>3207.723352252039</v>
       </c>
       <c r="U6">
-        <v>342832.5084858717</v>
+        <v>15127.5476234297</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>10490.32752614141</v>
       </c>
       <c r="W6">
-        <v>3207.446114085417</v>
+        <v>1450.545060362738</v>
       </c>
       <c r="X6">
-        <v>15127.52936626331</v>
+        <v>9822.036497886167</v>
       </c>
       <c r="Y6">
-        <v>10762.46214619098</v>
+        <v>1186.002073946355</v>
       </c>
       <c r="Z6">
-        <v>9821.12282865146</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>1482.603516607661</v>
+        <v>64946.92824883371</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>335293.6756496875</v>
       </c>
       <c r="AC6">
-        <v>64946.92824883371</v>
+        <v>0.2951258837289576</v>
       </c>
       <c r="AD6">
-        <v>67800.94299874856</v>
+        <v>67801.36829407992</v>
       </c>
       <c r="AE6">
         <v>64946.92824883371</v>
       </c>
       <c r="AF6">
-        <v>67800.94299874856</v>
+        <v>67801.36829407992</v>
       </c>
       <c r="AG6">
-        <v>67800.94299874856</v>
+        <v>67801.36829407992</v>
       </c>
       <c r="AH6">
-        <v>1185.991352774722</v>
+        <v>1186.002073946355</v>
       </c>
       <c r="AI6">
-        <v>3353.685786487751</v>
+        <v>3353.705815722221</v>
       </c>
       <c r="AJ6">
-        <v>142.2965296822202</v>
+        <v>142.2973890699943</v>
       </c>
       <c r="AK6">
-        <v>474396.5411098888</v>
+        <v>474400.8295785419</v>
       </c>
       <c r="AL6">
-        <v>442682.1410688261</v>
+        <v>442684.6108768806</v>
       </c>
       <c r="AM6">
-        <v>442682.1410688261</v>
+        <v>442684.6108768806</v>
       </c>
       <c r="AN6">
-        <v>442682.1410688261</v>
+        <v>442684.6108768806</v>
       </c>
       <c r="AO6">
-        <v>84722.10321669103</v>
+        <v>84722.52404895506</v>
       </c>
       <c r="AP6">
-        <v>84722.10321669103</v>
+        <v>84722.52404895506</v>
       </c>
       <c r="AQ6">
-        <v>88571.27634870414</v>
+        <v>88571.3803867969</v>
       </c>
       <c r="AR6">
-        <v>88571.27634870412</v>
+        <v>88571.38038679691</v>
       </c>
       <c r="AS6">
-        <v>88571.27634870412</v>
+        <v>88571.38038679691</v>
       </c>
       <c r="AT6">
-        <v>88571.27634870414</v>
+        <v>88571.3803867969</v>
       </c>
       <c r="AU6">
-        <v>88571.27634870414</v>
+        <v>88571.3803867969</v>
       </c>
       <c r="AV6">
-        <v>84722.10321669104</v>
+        <v>84722.52404895506</v>
       </c>
       <c r="AW6">
-        <v>82542.55552097426</v>
+        <v>82542.97286662424</v>
       </c>
       <c r="AX6">
-        <v>2179.547695716788</v>
+        <v>2179.551182330815</v>
       </c>
       <c r="AY6">
-        <v>82542.55552097426</v>
+        <v>82542.97286662424</v>
       </c>
       <c r="AZ6">
-        <v>82542.55552097426</v>
+        <v>82542.97286662424</v>
       </c>
       <c r="BA6">
-        <v>66589.99826070652</v>
+        <v>66590.37371206777</v>
       </c>
       <c r="BB6">
-        <v>22371.54281299734</v>
+        <v>22371.60085530004</v>
       </c>
       <c r="BC6">
-        <v>60171.01270797692</v>
+        <v>60171.3720113242</v>
       </c>
       <c r="BD6">
-        <v>15952.55726021043</v>
+        <v>15952.57545831973</v>
       </c>
       <c r="BE6">
-        <v>6418.985552786914</v>
+        <v>6419.025396980305</v>
       </c>
       <c r="BF6">
-        <v>66589.99826076382</v>
+        <v>66590.39740830452</v>
       </c>
       <c r="BG6">
-        <v>66589.99826076382</v>
+        <v>66590.39740830452</v>
       </c>
       <c r="BH6">
-        <v>520.2728418150268</v>
+        <v>520.3147745982382</v>
       </c>
       <c r="BI6">
-        <v>67800.64512470536</v>
+        <v>67801.04845755425</v>
       </c>
       <c r="BJ6">
-        <v>15952.55726021043</v>
+        <v>15952.57545831973</v>
       </c>
       <c r="BK6">
-        <v>15432.28441845271</v>
+        <v>15433.38515022336</v>
       </c>
       <c r="BL6">
-        <v>2403.715475715836</v>
+        <v>2403.62530008515</v>
       </c>
       <c r="BM6">
-        <v>13028.56894273688</v>
+        <v>13029.75985013821</v>
       </c>
       <c r="BN6">
-        <v>2403.715475715836</v>
+        <v>2403.62530008515</v>
       </c>
       <c r="BO6">
-        <v>3207.446114085417</v>
+        <v>3207.723352252039</v>
       </c>
       <c r="BP6">
-        <v>9821.12282865146</v>
+        <v>9822.036497886167</v>
       </c>
       <c r="BQ6">
-        <v>3207.446114085417</v>
+        <v>3207.723352252039</v>
       </c>
       <c r="BR6">
-        <v>15432.28441845271</v>
+        <v>15433.38515022336</v>
       </c>
       <c r="BS6">
-        <v>9821.12282865146</v>
+        <v>9822.036497886167</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -5258,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -5270,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -5437,100 +5467,100 @@
         <v>153</v>
       </c>
       <c r="B10">
+        <v>0.162090477870744</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.858417596864546</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>98.37124766534008</v>
+      </c>
+      <c r="L10">
+        <v>70.69350643930193</v>
+      </c>
+      <c r="M10">
         <v>100</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.1620903373639028</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>2.858427222602804</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
-        <v>98.37124782399722</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>70.69345228027605</v>
+        <v>0.1134287583294108</v>
       </c>
       <c r="P10">
+        <v>0.100760112435803</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>98.11530000554814</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>44.99999999999999</v>
+      </c>
+      <c r="V10">
+        <v>45.01565840905167</v>
+      </c>
+      <c r="W10">
         <v>100</v>
       </c>
-      <c r="Q10">
-        <v>0.1134287585275641</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0.1007490148625901</v>
-      </c>
-      <c r="U10">
-        <v>98.1152995794268</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
       <c r="X10">
-        <v>44.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>45.01565840905167</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>100</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.1134289347585408</v>
+        <v>0.1134282750770085</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.1134289347585408</v>
+        <v>0.1134282750770085</v>
       </c>
       <c r="AG10">
-        <v>0.1134289347585408</v>
+        <v>0.1134282750770085</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -5542,94 +5572,94 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>70.69372341209599</v>
+        <v>70.69350655861325</v>
       </c>
       <c r="AL10">
-        <v>77.55358200929638</v>
+        <v>77.55360177479754</v>
       </c>
       <c r="AM10">
-        <v>77.55358200929638</v>
+        <v>77.55360177479754</v>
       </c>
       <c r="AN10">
-        <v>77.55358200929638</v>
+        <v>77.55360177479754</v>
       </c>
       <c r="AO10">
-        <v>0.1620903373639028</v>
+        <v>0.162090477870744</v>
       </c>
       <c r="AP10">
-        <v>0.1620903373639028</v>
+        <v>0.162090477870744</v>
       </c>
       <c r="AQ10">
-        <v>2.734204317405633</v>
+        <v>2.734205479633835</v>
       </c>
       <c r="AR10">
-        <v>0.155046137514239</v>
+        <v>0.1550468599398483</v>
       </c>
       <c r="AS10">
-        <v>0.155046137514239</v>
+        <v>0.1550468599398483</v>
       </c>
       <c r="AT10">
-        <v>2.734204317405633</v>
+        <v>2.734205479633835</v>
       </c>
       <c r="AU10">
-        <v>2.734204317405633</v>
+        <v>2.734205479633835</v>
       </c>
       <c r="AV10">
-        <v>2.858427222602804</v>
+        <v>2.858417596864546</v>
       </c>
       <c r="AW10">
-        <v>0.2933904392252767</v>
+        <v>0.293389425146612</v>
       </c>
       <c r="AX10">
         <v>100</v>
       </c>
       <c r="AY10">
-        <v>0.2933904392252767</v>
+        <v>0.293389425146612</v>
       </c>
       <c r="AZ10">
-        <v>0.2933904392252767</v>
+        <v>0.293389425146612</v>
       </c>
       <c r="BA10">
-        <v>3.636760111616424e-12</v>
+        <v>7.274055901649303e-12</v>
       </c>
       <c r="BB10">
-        <v>1.082500068111692</v>
+        <v>1.082498991271419</v>
       </c>
       <c r="BC10">
-        <v>4.024726169766454e-12</v>
+        <v>4.024702136783053e-12</v>
       </c>
       <c r="BD10">
-        <v>1.518076144380605</v>
+        <v>1.518076841088322</v>
       </c>
       <c r="BE10">
-        <v>3.772743333282647e-11</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>7.273520223226589e-12</v>
+        <v>3.636738312616575e-12</v>
       </c>
       <c r="BG10">
-        <v>7.273520223226589e-12</v>
+        <v>3.636738312616575e-12</v>
       </c>
       <c r="BH10">
-        <v>46.08163779797829</v>
+        <v>46.08127073084871</v>
       </c>
       <c r="BI10">
-        <v>0.1134287585275641</v>
+        <v>0.1134287583294108</v>
       </c>
       <c r="BJ10">
-        <v>1.518076144380605</v>
+        <v>1.518076841088322</v>
       </c>
       <c r="BK10">
-        <v>0.01569255462261714</v>
+        <v>0.01569257509825157</v>
       </c>
       <c r="BL10">
-        <v>0.1007490148625901</v>
+        <v>0.100760112435803</v>
       </c>
       <c r="BM10">
         <v>0</v>
       </c>
       <c r="BN10">
-        <v>0.1007490148625901</v>
+        <v>0.100760112435803</v>
       </c>
       <c r="BO10">
         <v>0</v>
@@ -5641,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="BR10">
-        <v>0.01569255462261714</v>
+        <v>0.01569257509825157</v>
       </c>
       <c r="BS10">
         <v>0</v>
@@ -6297,7 +6327,7 @@
         <v>157</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -6306,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>78.89991225230187</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6315,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -6324,37 +6354,37 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>78.89991225230187</v>
+        <v>1.947989125826325e-05</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.13870128786038</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.947989079962682e-05</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>14.13869045605521</v>
+        <v>98.92740999506989</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>98.9274076703342</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.06645303125008256</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0.06645302799721764</v>
+        <v>0.00150752786337886</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -6363,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0.001507520679416089</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -6378,19 +6408,19 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD14">
-        <v>98.92740832674411</v>
+        <v>98.92737860911431</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>98.92740832674411</v>
+        <v>98.92737860911431</v>
       </c>
       <c r="AG14">
-        <v>98.92740832674411</v>
+        <v>98.92737860911431</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -6402,82 +6432,82 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>14.1387446824192</v>
+        <v>14.13870131172265</v>
       </c>
       <c r="AL14">
-        <v>15.15166515816745</v>
+        <v>15.15167111447185</v>
       </c>
       <c r="AM14">
-        <v>15.15166515816745</v>
+        <v>15.15167111447185</v>
       </c>
       <c r="AN14">
-        <v>15.15166515816745</v>
+        <v>15.15167111447185</v>
       </c>
       <c r="AO14">
-        <v>78.89991225230187</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="AP14">
-        <v>78.89991225230187</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="AQ14">
-        <v>75.47104191329839</v>
+        <v>75.47140399873443</v>
       </c>
       <c r="AR14">
-        <v>75.47104191329841</v>
+        <v>75.47140399873442</v>
       </c>
       <c r="AS14">
-        <v>75.47104191329841</v>
+        <v>75.47140399873442</v>
       </c>
       <c r="AT14">
-        <v>75.47104191329839</v>
+        <v>75.47140399873443</v>
       </c>
       <c r="AU14">
-        <v>75.47104191329839</v>
+        <v>75.47140399873443</v>
       </c>
       <c r="AV14">
-        <v>78.89991225230187</v>
+        <v>78.89999155401671</v>
       </c>
       <c r="AW14">
-        <v>80.98327544425034</v>
+        <v>80.9833496389662</v>
       </c>
       <c r="AX14">
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>80.98327544425034</v>
+        <v>80.9833496389662</v>
       </c>
       <c r="AZ14">
-        <v>80.98327544425034</v>
+        <v>80.9833496389662</v>
       </c>
       <c r="BA14">
-        <v>99.98511168873158</v>
+        <v>99.98511038836594</v>
       </c>
       <c r="BB14">
-        <v>29.87977434325096</v>
+        <v>29.87987527192935</v>
       </c>
       <c r="BC14">
-        <v>99.9835234261744</v>
+        <v>99.98352351971539</v>
       </c>
       <c r="BD14">
-        <v>1.66481748004405</v>
+        <v>1.664816069949613</v>
       </c>
       <c r="BE14">
-        <v>99.99999992301666</v>
+        <v>99.99999992391805</v>
       </c>
       <c r="BF14">
-        <v>99.98511168864555</v>
+        <v>99.98511177359498</v>
       </c>
       <c r="BG14">
-        <v>99.98511168864555</v>
+        <v>99.98511177359498</v>
       </c>
       <c r="BH14">
-        <v>51.04647800863719</v>
+        <v>51.047109923802</v>
       </c>
       <c r="BI14">
-        <v>98.9274076703342</v>
+        <v>98.92740999506989</v>
       </c>
       <c r="BJ14">
-        <v>1.66481748004405</v>
+        <v>1.664816069949613</v>
       </c>
       <c r="BK14">
         <v>0</v>
@@ -6942,7 +6972,7 @@
         <v>160</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.349878075020719</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6951,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.349886170315948</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6969,37 +6999,37 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2572050820539345</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09703118696345631</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.2572059560510502</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.09702944186234985</v>
+        <v>0.6789070256848436</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.678909332739564</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.3925871115369096</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0.3925884356307704</v>
+        <v>0.008906079953193714</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -7008,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>0.008906067985912973</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -7026,16 +7056,16 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.6789080816690369</v>
+        <v>0.6789195679427374</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.6789080816690369</v>
+        <v>0.6789195679427374</v>
       </c>
       <c r="AG17">
-        <v>0.6789080816690369</v>
+        <v>0.6789195679427374</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -7047,31 +7077,31 @@
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>0.09702981400104604</v>
+        <v>0.09703118712721844</v>
       </c>
       <c r="AL17">
-        <v>0.9454553686534141</v>
+        <v>0.9454525052790329</v>
       </c>
       <c r="AM17">
-        <v>0.9454553686534141</v>
+        <v>0.9454525052790329</v>
       </c>
       <c r="AN17">
-        <v>0.9454553686534141</v>
+        <v>0.9454525052790329</v>
       </c>
       <c r="AO17">
-        <v>3.349886170315948</v>
+        <v>3.349878075020719</v>
       </c>
       <c r="AP17">
-        <v>3.349886170315948</v>
+        <v>3.349878075020719</v>
       </c>
       <c r="AQ17">
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>3.204305205768054</v>
+        <v>3.204309614828098</v>
       </c>
       <c r="AS17">
-        <v>3.204305205768054</v>
+        <v>3.204309614828098</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -7119,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>0.678909332739564</v>
+        <v>0.6789070256848436</v>
       </c>
       <c r="BJ17">
         <v>0</v>
@@ -7157,7 +7187,7 @@
         <v>161</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.371483299781699</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7166,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.37149287610976</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -7184,37 +7214,37 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.006181564826028451</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.02733567727312219</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.006181584434551891</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02733356348831101</v>
+        <v>0.1912506960056799</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.1912513026970918</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.04403131960728125</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.04403145816418549</v>
+        <v>0.000998877551868395</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -7223,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0.0009988759839526535</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -7241,16 +7271,16 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.1912509934804509</v>
+        <v>0.191265579495382</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.1912509934804509</v>
+        <v>0.191265579495382</v>
       </c>
       <c r="AG18">
-        <v>0.1912509934804509</v>
+        <v>0.191265579495382</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -7262,31 +7292,31 @@
         <v>0</v>
       </c>
       <c r="AK18">
-        <v>0.0273336683211997</v>
+        <v>0.02733567731925735</v>
       </c>
       <c r="AL18">
-        <v>0.8707660885316088</v>
+        <v>0.8707636481143283</v>
       </c>
       <c r="AM18">
-        <v>0.8707660885316088</v>
+        <v>0.8707636481143283</v>
       </c>
       <c r="AN18">
-        <v>0.8707660885316088</v>
+        <v>0.8707636481143283</v>
       </c>
       <c r="AO18">
-        <v>4.37149287610976</v>
+        <v>4.371483299781699</v>
       </c>
       <c r="AP18">
-        <v>4.37149287610976</v>
+        <v>4.371483299781699</v>
       </c>
       <c r="AQ18">
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>4.181514435929423</v>
+        <v>4.18152113445631</v>
       </c>
       <c r="AS18">
-        <v>4.181514435929423</v>
+        <v>4.18152113445631</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -7334,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="BI18">
-        <v>0.1912513026970918</v>
+        <v>0.1912506960056799</v>
       </c>
       <c r="BJ18">
         <v>0</v>
@@ -7372,7 +7402,7 @@
         <v>162</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>13.18721786809593</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -7381,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.1872794938771</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -7399,37 +7429,37 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.0007519994922677028</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.00748146074963037</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.0007520037445305336</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.007480804794502675</v>
+        <v>0.0523425759778119</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.05234287196161373</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.01110685291379595</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.01110691543751636</v>
+        <v>0.0002519657858643924</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -7438,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0.0002519660158643602</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -7456,16 +7486,16 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0.0523426573923956</v>
+        <v>0.05234719123484041</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0.0523426573923956</v>
+        <v>0.05234719123484041</v>
       </c>
       <c r="AG19">
-        <v>0.0523426573923956</v>
+        <v>0.05234719123484041</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -7477,31 +7507,31 @@
         <v>0</v>
       </c>
       <c r="AK19">
-        <v>0.00748083348576266</v>
+        <v>0.007481460762257033</v>
       </c>
       <c r="AL19">
-        <v>2.532439359367784</v>
+        <v>2.532425975172416</v>
       </c>
       <c r="AM19">
-        <v>2.532439359367784</v>
+        <v>2.532425975172416</v>
       </c>
       <c r="AN19">
-        <v>2.532439359367784</v>
+        <v>2.532425975172416</v>
       </c>
       <c r="AO19">
-        <v>13.1872794938771</v>
+        <v>13.18721786809593</v>
       </c>
       <c r="AP19">
-        <v>13.1872794938771</v>
+        <v>13.18721786809593</v>
       </c>
       <c r="AQ19">
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>12.61418035830252</v>
+        <v>12.61416925071559</v>
       </c>
       <c r="AS19">
-        <v>12.61418035830252</v>
+        <v>12.61416925071559</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -7549,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="BI19">
-        <v>0.05234287196161373</v>
+        <v>0.0523425759778119</v>
       </c>
       <c r="BJ19">
         <v>0</v>
@@ -8232,7 +8262,7 @@
         <v>166</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0138649357631345</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -8241,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01386500466033146</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -8250,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.773098202933468</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -8259,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.7731049397772</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.002476117827809099</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -8271,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.002476130723804087</v>
+        <v>0.01732528305469921</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>97.25290210211476</v>
       </c>
       <c r="Q23">
-        <v>0.01732603799534865</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -8286,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>97.25291290571454</v>
+        <v>7.313453172274616e-05</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -8295,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>7.313453172179056e-05</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -8316,16 +8346,16 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.01732531000275595</v>
+        <v>0.01732520129290585</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0.01732531000275595</v>
+        <v>0.01732520129290585</v>
       </c>
       <c r="AG23">
-        <v>0.01732531000275595</v>
+        <v>0.01732520129290585</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -8337,106 +8367,106 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0.002476140220551069</v>
+        <v>0.002476117831988109</v>
       </c>
       <c r="AL23">
-        <v>0.002653534549860849</v>
+        <v>0.002653519740165711</v>
       </c>
       <c r="AM23">
-        <v>0.002653534549860849</v>
+        <v>0.002653519740165711</v>
       </c>
       <c r="AN23">
-        <v>0.002653534549860849</v>
+        <v>0.002653519740165711</v>
       </c>
       <c r="AO23">
-        <v>0.01386500466033146</v>
+        <v>0.0138649357631345</v>
       </c>
       <c r="AP23">
-        <v>0.01386500466033146</v>
+        <v>0.0138649357631345</v>
       </c>
       <c r="AQ23">
-        <v>2.652590011388687</v>
+        <v>2.652593627446358</v>
       </c>
       <c r="AR23">
-        <v>0.01326245261847456</v>
+        <v>0.01326243701407283</v>
       </c>
       <c r="AS23">
-        <v>0.01326245261847456</v>
+        <v>0.01326243701407283</v>
       </c>
       <c r="AT23">
-        <v>2.652590011388687</v>
+        <v>2.652593627446358</v>
       </c>
       <c r="AU23">
-        <v>2.652590011388687</v>
+        <v>2.652593627446358</v>
       </c>
       <c r="AV23">
-        <v>2.7731049397772</v>
+        <v>2.773098202933468</v>
       </c>
       <c r="AW23">
-        <v>2.846329162644111</v>
+        <v>2.846321994820506</v>
       </c>
       <c r="AX23">
         <v>0</v>
       </c>
       <c r="AY23">
-        <v>2.846329162644111</v>
+        <v>2.846321994820506</v>
       </c>
       <c r="AZ23">
-        <v>2.846329162644111</v>
+        <v>2.846321994820506</v>
       </c>
       <c r="BA23">
-        <v>2.095583563976868e-09</v>
+        <v>2.130770647997468e-09</v>
       </c>
       <c r="BB23">
-        <v>10.50188110685322</v>
+        <v>10.50188051218245</v>
       </c>
       <c r="BC23">
-        <v>2.319137898811394e-09</v>
+        <v>2.319127528799643e-09</v>
       </c>
       <c r="BD23">
-        <v>14.72762510513792</v>
+        <v>14.72764568094048</v>
       </c>
       <c r="BE23">
-        <v>3.660141067560982e-10</v>
+        <v>0</v>
       </c>
       <c r="BF23">
-        <v>2.130865279327119e-09</v>
+        <v>2.095573696932218e-09</v>
       </c>
       <c r="BG23">
-        <v>2.130865279327119e-09</v>
+        <v>2.095573696932218e-09</v>
       </c>
       <c r="BH23">
-        <v>2.257885323971106</v>
+        <v>2.257618409837998</v>
       </c>
       <c r="BI23">
-        <v>0.01732603799534865</v>
+        <v>0.01732528305469921</v>
       </c>
       <c r="BJ23">
-        <v>14.72762510513792</v>
+        <v>14.72764568094048</v>
       </c>
       <c r="BK23">
-        <v>15.14802086627291</v>
+        <v>15.14637056740009</v>
       </c>
       <c r="BL23">
-        <v>97.25291290571454</v>
+        <v>97.25290210211476</v>
       </c>
       <c r="BM23">
-        <v>1.800466886328939e-05</v>
+        <v>1.80045793599628e-05</v>
       </c>
       <c r="BN23">
-        <v>97.25291290571454</v>
+        <v>97.25290210211476</v>
       </c>
       <c r="BO23">
-        <v>7.313453172179056e-05</v>
+        <v>7.313453172274616e-05</v>
       </c>
       <c r="BP23">
         <v>0</v>
       </c>
       <c r="BQ23">
-        <v>7.313453172179056e-05</v>
+        <v>7.313453172274616e-05</v>
       </c>
       <c r="BR23">
-        <v>15.14802086627291</v>
+        <v>15.14637056740009</v>
       </c>
       <c r="BS23">
         <v>0</v>
@@ -8447,7 +8477,7 @@
         <v>167</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.003774728974563991</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -8456,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.003774746782943108</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -8465,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.770522149838045</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -8474,10 +8504,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.770530419218384</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0006741231166694147</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -8486,13 +8516,13 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.0006741264581444878</v>
+        <v>0.004716807392168675</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.646337472166382</v>
       </c>
       <c r="Q24">
-        <v>0.004716439406022134</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -8501,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2.646337766141893</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -8510,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>97.5123664956805</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>8.000001599665252e-05</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>8.000001600007325e-05</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -8531,16 +8561,16 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.004716814728775692</v>
+        <v>0.004716786318215188</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0.004716814728775692</v>
+        <v>0.004716786318215188</v>
       </c>
       <c r="AG24">
-        <v>0.004716814728775692</v>
+        <v>0.004716786318215188</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -8552,109 +8582,109 @@
         <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.0006741290436333496</v>
+        <v>0.0006741231178071503</v>
       </c>
       <c r="AL24">
-        <v>0.0007224246403734114</v>
+        <v>0.0007224207900344862</v>
       </c>
       <c r="AM24">
-        <v>0.0007224246403734114</v>
+        <v>0.0007224207900344862</v>
       </c>
       <c r="AN24">
-        <v>0.0007224246403734114</v>
+        <v>0.0007224207900344862</v>
       </c>
       <c r="AO24">
-        <v>0.003774746782943108</v>
+        <v>0.003774728974563991</v>
       </c>
       <c r="AP24">
-        <v>0.003774746782943108</v>
+        <v>0.003774728974563991</v>
       </c>
       <c r="AQ24">
-        <v>3.606668894563887</v>
+        <v>3.606674663099084</v>
       </c>
       <c r="AR24">
-        <v>0.003610702021525711</v>
+        <v>0.003610698680873868</v>
       </c>
       <c r="AS24">
-        <v>0.003610702021525711</v>
+        <v>0.003610698680873868</v>
       </c>
       <c r="AT24">
-        <v>3.606668894563887</v>
+        <v>3.606674663099084</v>
       </c>
       <c r="AU24">
-        <v>3.606668894563887</v>
+        <v>3.606674663099084</v>
       </c>
       <c r="AV24">
-        <v>3.770530419218384</v>
+        <v>3.770522149838045</v>
       </c>
       <c r="AW24">
-        <v>3.870091801040992</v>
+        <v>3.870082969181965</v>
       </c>
       <c r="AX24">
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>3.870091801040992</v>
+        <v>3.870082969181965</v>
       </c>
       <c r="AZ24">
-        <v>3.870091801040992</v>
+        <v>3.870082969181965</v>
       </c>
       <c r="BA24">
-        <v>4.966177618040111e-06</v>
+        <v>4.96660672213205e-06</v>
       </c>
       <c r="BB24">
-        <v>14.2791643531799</v>
+        <v>14.27916691723638</v>
       </c>
       <c r="BC24">
-        <v>5.49596373288043e-06</v>
+        <v>5.495938400685398e-06</v>
       </c>
       <c r="BD24">
-        <v>20.02481053332896</v>
+        <v>20.02484323946677</v>
       </c>
       <c r="BE24">
-        <v>4.976577052841957e-10</v>
+        <v>0</v>
       </c>
       <c r="BF24">
-        <v>4.966224759104773e-06</v>
+        <v>4.966153783874576e-06</v>
       </c>
       <c r="BG24">
-        <v>4.966224759104773e-06</v>
+        <v>4.966153783874576e-06</v>
       </c>
       <c r="BH24">
-        <v>0.6139988694134231</v>
+        <v>0.6140009355113025</v>
       </c>
       <c r="BI24">
-        <v>0.004716439406022134</v>
+        <v>0.004716807392168675</v>
       </c>
       <c r="BJ24">
-        <v>20.02481053332896</v>
+        <v>20.02484323946677</v>
       </c>
       <c r="BK24">
-        <v>20.6792125566767</v>
+        <v>20.67947384833289</v>
       </c>
       <c r="BL24">
-        <v>2.646337766141893</v>
+        <v>2.646337472166382</v>
       </c>
       <c r="BM24">
-        <v>24.00620114584318</v>
+        <v>24.00608180827775</v>
       </c>
       <c r="BN24">
-        <v>2.646337766141893</v>
+        <v>2.646337472166382</v>
       </c>
       <c r="BO24">
-        <v>97.5123664956805</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="BP24">
-        <v>8.000001600007325e-05</v>
+        <v>8.000001599665252e-05</v>
       </c>
       <c r="BQ24">
-        <v>97.5123664956805</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="BR24">
-        <v>20.6792125566767</v>
+        <v>20.67947384833289</v>
       </c>
       <c r="BS24">
-        <v>8.000001600007325e-05</v>
+        <v>8.000001599665252e-05</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -8662,7 +8692,7 @@
         <v>168</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.0116990604764948</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -8671,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0116991185881554</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -8680,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.69797049634723</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -8689,10 +8719,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.69802516609975</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.002089317448659901</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -8701,13 +8731,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.002089328326043746</v>
+        <v>0.01461885848550733</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>3.132830457352938e-07</v>
       </c>
       <c r="Q25">
-        <v>0.01461758633859379</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -8716,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3.132809757063921e-07</v>
+        <v>2.48756036978777</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -8725,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>2.48756036978777</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>99.999919999984</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>99.999919999984</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -8746,16 +8776,16 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0.01461888122394264</v>
+        <v>0.01461878952458478</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0.01461888122394264</v>
+        <v>0.01461878952458478</v>
       </c>
       <c r="AG25">
-        <v>0.01461888122394264</v>
+        <v>0.01461878952458478</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -8767,94 +8797,94 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.002089336339280803</v>
+        <v>0.002089317452186098</v>
       </c>
       <c r="AL25">
-        <v>0.002239019469312423</v>
+        <v>0.002239006977465669</v>
       </c>
       <c r="AM25">
-        <v>0.002239019469312423</v>
+        <v>0.002239006977465669</v>
       </c>
       <c r="AN25">
-        <v>0.002239019469312423</v>
+        <v>0.002239006977465669</v>
       </c>
       <c r="AO25">
-        <v>0.0116991185881554</v>
+        <v>0.0116990604764948</v>
       </c>
       <c r="AP25">
-        <v>0.0116991185881554</v>
+        <v>0.0116990604764948</v>
       </c>
       <c r="AQ25">
-        <v>11.18964676146109</v>
+        <v>11.18963690497572</v>
       </c>
       <c r="AR25">
-        <v>0.01119069266505509</v>
+        <v>0.01119067952019591</v>
       </c>
       <c r="AS25">
-        <v>0.01119069266505509</v>
+        <v>0.01119067952019591</v>
       </c>
       <c r="AT25">
-        <v>11.18964676146109</v>
+        <v>11.18963690497572</v>
       </c>
       <c r="AU25">
-        <v>11.18964676146109</v>
+        <v>11.18963690497572</v>
       </c>
       <c r="AV25">
-        <v>11.69802516609975</v>
+        <v>11.69797049634723</v>
       </c>
       <c r="AW25">
-        <v>12.00691315283928</v>
+        <v>12.00685597188471</v>
       </c>
       <c r="AX25">
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>12.00691315283928</v>
+        <v>12.00685597188471</v>
       </c>
       <c r="AZ25">
-        <v>12.00691315283928</v>
+        <v>12.00685597188471</v>
       </c>
       <c r="BA25">
-        <v>0.01488334299157892</v>
+        <v>0.01488464288931278</v>
       </c>
       <c r="BB25">
-        <v>44.25668012860422</v>
+        <v>44.25657830738039</v>
       </c>
       <c r="BC25">
-        <v>0.01647107553871113</v>
+        <v>0.01647098202304976</v>
       </c>
       <c r="BD25">
-        <v>62.06467073710846</v>
+        <v>62.06461816855481</v>
       </c>
       <c r="BE25">
-        <v>7.608194476337049e-08</v>
+        <v>7.608193830158537e-08</v>
       </c>
       <c r="BF25">
-        <v>0.01488334299156611</v>
+        <v>0.01488325815200881</v>
       </c>
       <c r="BG25">
-        <v>0.01488334299156611</v>
+        <v>0.01488325815200881</v>
       </c>
       <c r="BH25">
         <v>0</v>
       </c>
       <c r="BI25">
-        <v>0.01461758633859379</v>
+        <v>0.01461885848550733</v>
       </c>
       <c r="BJ25">
-        <v>62.06467073710846</v>
+        <v>62.06461816855481</v>
       </c>
       <c r="BK25">
-        <v>64.15707402242779</v>
+        <v>64.15846300916877</v>
       </c>
       <c r="BL25">
-        <v>3.132809757063921e-07</v>
+        <v>3.132830457352938e-07</v>
       </c>
       <c r="BM25">
-        <v>75.99378084948795</v>
+        <v>75.99390018714288</v>
       </c>
       <c r="BN25">
-        <v>3.132809757063921e-07</v>
+        <v>3.132830457352938e-07</v>
       </c>
       <c r="BO25">
         <v>2.48756036978777</v>
@@ -8866,7 +8896,7 @@
         <v>2.48756036978777</v>
       </c>
       <c r="BR25">
-        <v>64.15707402242779</v>
+        <v>64.15846300916877</v>
       </c>
       <c r="BS25">
         <v>99.999919999984</v>
@@ -9961,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -9970,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -10075,19 +10105,19 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>4.345848101882309</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="AR31">
-        <v>4.34584810188231</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="AS31">
-        <v>4.34584810188231</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="AT31">
-        <v>4.345848101882309</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="AU31">
-        <v>4.345848101882309</v>
+        <v>4.345485326110585</v>
       </c>
       <c r="AV31">
         <v>0</v>
@@ -10379,7 +10409,7 @@
     </row>
     <row r="33" spans="1:71">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10394,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -10442,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>54.98434159094834</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -10451,7 +10481,7 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>54.98434159094833</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -10624,19 +10654,19 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.003768661616334389</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>13.69030661200992</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0.003768684034863863</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>13.69037788634886</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -10648,13 +10678,13 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>0.003785031780702802</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0.003785054200789404</v>
+        <v>8.586577264941377e-05</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -10663,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>8.586587627940255e-05</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -10672,13 +10702,13 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="AB34">
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>99.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -10702,16 +10732,16 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>13.6904303932919</v>
+        <v>13.69030663511542</v>
       </c>
       <c r="AL34">
-        <v>0.002934246594724591</v>
+        <v>0.002934230224094812</v>
       </c>
       <c r="AM34">
-        <v>0.002934246594724591</v>
+        <v>0.002934230224094812</v>
       </c>
       <c r="AN34">
-        <v>0.002934246594724591</v>
+        <v>0.002934230224094812</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -10827,31 +10857,31 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.9730238766463518</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.7069350643930192</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.9730238536503832</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>0.7069345228027605</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -10863,13 +10893,13 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.9772504595600453</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0.9772504117238147</v>
+        <v>0.02216952740263047</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -10878,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>0.02216942175611954</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -10917,16 +10947,16 @@
         <v>0</v>
       </c>
       <c r="AK35">
-        <v>0.70693723412096</v>
+        <v>0.7069350655861325</v>
       </c>
       <c r="AL35">
-        <v>0.7575832579083728</v>
+        <v>0.7575835557235924</v>
       </c>
       <c r="AM35">
-        <v>0.7575832579083728</v>
+        <v>0.7575835557235924</v>
       </c>
       <c r="AN35">
-        <v>0.7575832579083728</v>
+        <v>0.7575835557235924</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -11030,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -11039,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -11054,19 +11084,19 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.04128530191898271</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.02999518128082793</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0.04128529817263359</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>0.02999515628825192</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -11078,13 +11108,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>0.04146463539256495</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0.0414646305802112</v>
+        <v>0.000940650742686162</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -11093,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>0.0009406461969894638</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -11132,16 +11162,16 @@
         <v>100</v>
       </c>
       <c r="AK36">
-        <v>0.02994135097867156</v>
+        <v>0.02999528968397185</v>
       </c>
       <c r="AL36">
-        <v>0.0321441767085193</v>
+        <v>0.03214419150196528</v>
       </c>
       <c r="AM36">
-        <v>0.0321441767085193</v>
+        <v>0.03214419150196528</v>
       </c>
       <c r="AN36">
-        <v>0.0321441767085193</v>
+        <v>0.03214419150196528</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -11248,70 +11278,70 @@
         <v>0</v>
       </c>
       <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.3440994526985305</v>
+      </c>
+      <c r="L37">
+        <v>0.2499999995780683</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0.3455941383915471</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0.007840015470250199</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <v>100</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0.3440983890388404</v>
-      </c>
-      <c r="O37">
-        <v>0.2499990411743545</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0.3455930613624332</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0.007839954060308508</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -11347,16 +11377,16 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>0.2496703886213241</v>
+        <v>0.2499997228747969</v>
       </c>
       <c r="AL37">
-        <v>0.2679103679021761</v>
+        <v>0.2679112950407497</v>
       </c>
       <c r="AM37">
-        <v>0.2679103679021761</v>
+        <v>0.2679112950407497</v>
       </c>
       <c r="AN37">
-        <v>0.2679103679021761</v>
+        <v>0.2679112950407497</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -11696,22 +11726,22 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.002416915516230036</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>0.3534675321965096</v>
       </c>
       <c r="M39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.0024169269851599</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>0.3534672614013802</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -11723,13 +11753,13 @@
         <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.002427414018959431</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0.00242742547625413</v>
+        <v>54.95729948945747</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -11738,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>54.95729968144515</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -11777,16 +11807,16 @@
         <v>0</v>
       </c>
       <c r="AK39">
-        <v>0.35346861706048</v>
+        <v>0.3534675327930663</v>
       </c>
       <c r="AL39">
-        <v>1.879904988210028</v>
+        <v>1.879896762166771</v>
       </c>
       <c r="AM39">
-        <v>1.879904988210028</v>
+        <v>1.879896762166771</v>
       </c>
       <c r="AN39">
-        <v>1.879904988210028</v>
+        <v>1.879896762166771</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -12552,22 +12582,22 @@
         <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
-        <v>185</v>
-      </c>
       <c r="E46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" t="s">
         <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:71">
@@ -12575,22 +12605,22 @@
         <v>147</v>
       </c>
       <c r="B47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" t="s">
-        <v>185</v>
-      </c>
       <c r="G47" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:71">
@@ -12598,22 +12628,22 @@
         <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12621,22 +12651,22 @@
         <v>149</v>
       </c>
       <c r="B49">
-        <v>1109433.846395184</v>
+        <v>551311.3715824084</v>
       </c>
       <c r="C49">
-        <v>1109433.846395184</v>
+        <v>551311.3715824084</v>
       </c>
       <c r="D49">
-        <v>12203.77231034702</v>
+        <v>12032.5054368991</v>
       </c>
       <c r="E49">
-        <v>12203.77231034702</v>
+        <v>12032.5054368991</v>
       </c>
       <c r="F49">
-        <v>551311.3715824084</v>
+        <v>1093864.130627191</v>
       </c>
       <c r="G49">
-        <v>551311.3715824084</v>
+        <v>1093864.130627191</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12699,19 +12729,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3">
-        <v>-2162865.832975455</v>
+        <v>-2163064.599063888</v>
       </c>
       <c r="D3">
-        <v>1478.091027409705</v>
+        <v>1478.226863099274</v>
       </c>
       <c r="E3">
-        <v>0.7210867077218248</v>
+        <v>0.7211529751629809</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12722,13 +12752,13 @@
         <v>59</v>
       </c>
       <c r="C4">
-        <v>-2427937.838923048</v>
+        <v>-2422517.274862237</v>
       </c>
       <c r="D4">
-        <v>1659.239828983601</v>
+        <v>1655.535444282697</v>
       </c>
       <c r="E4">
-        <v>0.80946015056965</v>
+        <v>0.8076529664933135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12756,81 +12786,81 @@
         <v>47</v>
       </c>
       <c r="C6">
-        <v>89825083.04507092</v>
+        <v>88560414.06714968</v>
       </c>
       <c r="D6">
-        <v>-61582.93661798118</v>
+        <v>-60718.68606134297</v>
       </c>
       <c r="E6">
-        <v>-30.04323562908212</v>
+        <v>-29.62161099502616</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7">
-        <v>-2117577.465801961</v>
+        <v>-12850916.7380274</v>
       </c>
       <c r="D7">
-        <v>1447.141197723281</v>
+        <v>8782.24827211604</v>
       </c>
       <c r="E7">
-        <v>0.7059878333093026</v>
+        <v>4.28441981955181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8">
-        <v>-1237065.112574901</v>
+        <v>-2117760.500301503</v>
       </c>
       <c r="D8">
-        <v>1042.355484524249</v>
+        <v>1447.266282528521</v>
       </c>
       <c r="E8">
-        <v>0.5085131231251548</v>
+        <v>0.706048855931539</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9">
-        <v>-1087553.679956376</v>
+        <v>-1236968.374086383</v>
       </c>
       <c r="D9">
-        <v>743.2284109636536</v>
+        <v>1042.306882588643</v>
       </c>
       <c r="E9">
-        <v>0.3625839802886184</v>
+        <v>0.5084894126708698</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10">
-        <v>-12850904.13779362</v>
+        <v>-1087513.381681278</v>
       </c>
       <c r="D10">
-        <v>8782.239661183168</v>
+        <v>743.2008713363988</v>
       </c>
       <c r="E10">
-        <v>4.284415618708208</v>
+        <v>0.3625705450814621</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12841,13 +12871,13 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>-388835.2068998073</v>
+        <v>-5095817.394782957</v>
       </c>
       <c r="D11">
-        <v>265.727916034875</v>
+        <v>3482.454553450088</v>
       </c>
       <c r="E11">
-        <v>0.1296353638376138</v>
+        <v>1.698915453900625</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12858,30 +12888,30 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>-6357562.78092753</v>
+        <v>-388836.1833514173</v>
       </c>
       <c r="D12">
-        <v>4344.724651623603</v>
+        <v>265.7285833367212</v>
       </c>
       <c r="E12">
-        <v>2.119573921294575</v>
+        <v>0.1296356893808194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13">
-        <v>-15021304.11478393</v>
+        <v>-15021398.19237674</v>
       </c>
       <c r="D13">
-        <v>10265.47948261319</v>
+        <v>10265.54377474065</v>
       </c>
       <c r="E13">
-        <v>5.008014165592844</v>
+        <v>5.008045530507226</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12903,19 +12933,19 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17">
-        <v>5492165.159750871</v>
+        <v>5492657.070961199</v>
       </c>
       <c r="D17">
-        <v>171.5028342441818</v>
+        <v>171.5181950653359</v>
       </c>
       <c r="E17">
-        <v>54.67093084942194</v>
+        <v>54.67582750547318</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12926,13 +12956,13 @@
         <v>59</v>
       </c>
       <c r="C18">
-        <v>-54818382.99547782</v>
+        <v>-52891260.43843674</v>
       </c>
       <c r="D18">
-        <v>-1711.803592744462</v>
+        <v>-1651.625690067655</v>
       </c>
       <c r="E18">
-        <v>-545.6813367496836</v>
+        <v>-526.4980855200113</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12943,13 +12973,13 @@
         <v>49</v>
       </c>
       <c r="C19">
-        <v>4270310.290900334</v>
+        <v>3059612.049590369</v>
       </c>
       <c r="D19">
-        <v>133.3481963285905</v>
+        <v>95.54194437521258</v>
       </c>
       <c r="E19">
-        <v>42.5081605939864</v>
+        <v>30.45644730698535</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12960,30 +12990,30 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>4987333.339259615</v>
+        <v>4270266.984972622</v>
       </c>
       <c r="D20">
-        <v>155.7385435659991</v>
+        <v>133.3468440223276</v>
       </c>
       <c r="E20">
-        <v>49.64565853042322</v>
+        <v>42.50772951165177</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21">
-        <v>40068574.20556699</v>
+        <v>40068724.33291254</v>
       </c>
       <c r="D21">
-        <v>1251.214018605691</v>
+        <v>1251.218706604779</v>
       </c>
       <c r="E21">
-        <v>398.8565867758521</v>
+        <v>398.858081195901</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13011,30 +13041,30 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>-934337.6644194166</v>
+        <v>-5707565.499398316</v>
       </c>
       <c r="D25">
-        <v>-24.06960049677545</v>
+        <v>-435.4976830549712</v>
       </c>
       <c r="E25">
-        <v>-5.723750998133202</v>
+        <v>-179.0748323998558</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>934337.6644194166</v>
+        <v>5707565.499398316</v>
       </c>
       <c r="D26">
-        <v>24.06960049677545</v>
+        <v>435.4976830549712</v>
       </c>
       <c r="E26">
-        <v>5.723750998133202</v>
+        <v>179.0748323998558</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -13062,30 +13092,30 @@
         <v>59</v>
       </c>
       <c r="C30">
-        <v>-5707654.351183286</v>
+        <v>-934349.6066893364</v>
       </c>
       <c r="D30">
-        <v>-435.504462608617</v>
+        <v>-24.06990814322591</v>
       </c>
       <c r="E30">
-        <v>-179.0776201240621</v>
+        <v>-5.723824156459123</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
       <c r="C31">
-        <v>5707654.351183286</v>
+        <v>934349.6066893364</v>
       </c>
       <c r="D31">
-        <v>435.504462608617</v>
+        <v>24.06990814322591</v>
       </c>
       <c r="E31">
-        <v>179.0776201240621</v>
+        <v>5.723824156459123</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -13161,10 +13191,10 @@
         <v>59</v>
       </c>
       <c r="C40">
-        <v>-3614.703247727842</v>
+        <v>-3610.647953727781</v>
       </c>
       <c r="D40">
-        <v>-282.6697939723172</v>
+        <v>-282.3526699815125</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -13175,10 +13205,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>6.666284561036007</v>
+        <v>6.666344823179371</v>
       </c>
       <c r="D41">
-        <v>0.5213034526730158</v>
+        <v>0.5213081651726269</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13203,10 +13233,10 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>289.4663171749546</v>
+        <v>285.4039674481404</v>
       </c>
       <c r="D43">
-        <v>22.63626600308145</v>
+        <v>22.31859025444458</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13217,10 +13247,10 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>3.909837223851285</v>
+        <v>3.909860836980267</v>
       </c>
       <c r="D44">
-        <v>0.3057492709051705</v>
+        <v>0.305751117451857</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13231,10 +13261,10 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>275.4117040664958</v>
+        <v>275.4132416888642</v>
       </c>
       <c r="D45">
-        <v>21.53719525799997</v>
+        <v>21.53731550006918</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13245,10 +13275,10 @@
         <v>52</v>
       </c>
       <c r="C46">
-        <v>160.9968138907745</v>
+        <v>160.997613116528</v>
       </c>
       <c r="D46">
-        <v>12.58995084625857</v>
+        <v>12.59001334571249</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13259,10 +13289,10 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>31.5883277378942</v>
+        <v>31.58836485762291</v>
       </c>
       <c r="D47">
-        <v>2.470207229103326</v>
+        <v>2.470210131866112</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13273,10 +13303,10 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>9.56973187761867</v>
+        <v>9.569788789006449</v>
       </c>
       <c r="D48">
-        <v>0.7483530328297801</v>
+        <v>0.7483574833003044</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -13287,10 +13317,10 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>70.83847048818566</v>
+        <v>20.17889943331414</v>
       </c>
       <c r="D49">
-        <v>5.539568392176119</v>
+        <v>1.577989935685166</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -13301,10 +13331,10 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>20.012482369174</v>
+        <v>20.01256812443181</v>
       </c>
       <c r="D50">
-        <v>1.564976121269407</v>
+        <v>1.564982827330567</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -13315,10 +13345,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>20.51491676320557</v>
+        <v>70.83883193988908</v>
       </c>
       <c r="D51">
-        <v>1.604266490882675</v>
+        <v>5.539596657699327</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -13329,10 +13359,10 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>16.83260357812726</v>
+        <v>20.51500361723565</v>
       </c>
       <c r="D52">
-        <v>1.316309599809552</v>
+        <v>1.604273282867828</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -13343,10 +13373,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>20.1788129719525</v>
+        <v>16.8326909288164</v>
       </c>
       <c r="D53">
-        <v>1.577983174406686</v>
+        <v>1.316316430633442</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -13357,10 +13387,10 @@
         <v>54</v>
       </c>
       <c r="C54">
-        <v>16.83254115310283</v>
+        <v>20.24734851465822</v>
       </c>
       <c r="D54">
-        <v>1.316304718172641</v>
+        <v>1.583342653846273</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -13371,10 +13401,10 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>20.24724510526699</v>
+        <v>16.832625314219</v>
       </c>
       <c r="D55">
-        <v>1.583334567231879</v>
+        <v>1.316311299571926</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -13385,10 +13415,10 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>652.9699944748534</v>
+        <v>652.9736400035457</v>
       </c>
       <c r="D56">
-        <v>51.06225356793354</v>
+        <v>51.06253864827728</v>
       </c>
     </row>
   </sheetData>
@@ -13398,7 +13428,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K152"/>
+  <dimension ref="A2:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13427,7 +13457,7 @@
         <v>223</v>
       </c>
       <c r="D3">
-        <v>88571.27634870414</v>
+        <v>88571.3803867969</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13439,7 +13469,7 @@
         <v>224</v>
       </c>
       <c r="D4">
-        <v>1180.327567121352</v>
+        <v>1180.328953564383</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13460,7 +13490,7 @@
         <v>225</v>
       </c>
       <c r="D6">
-        <v>28.86318262216755</v>
+        <v>28.86319392330797</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13472,7 +13502,7 @@
         <v>225</v>
       </c>
       <c r="D7">
-        <v>14.43159131108377</v>
+        <v>14.43159696165399</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13484,7 +13514,7 @@
         <v>226</v>
       </c>
       <c r="D8">
-        <v>33544.14</v>
+        <v>33544.18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13496,7 +13526,7 @@
         <v>227</v>
       </c>
       <c r="D9">
-        <v>0.4857535924298771</v>
+        <v>0.4857537336799624</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13519,7 +13549,7 @@
         <v>228</v>
       </c>
       <c r="D11">
-        <v>196517.8738361489</v>
+        <v>196518.0220476259</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13531,7 +13561,7 @@
         <v>228</v>
       </c>
       <c r="D12">
-        <v>858255.667818943</v>
+        <v>858256.6759480619</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13557,7 +13587,7 @@
         <v>238</v>
       </c>
       <c r="D16">
-        <v>49420.11722025538</v>
+        <v>48351.50201209127</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13569,7 +13599,7 @@
         <v>239</v>
       </c>
       <c r="D17">
-        <v>3821.754005712203</v>
+        <v>3813.221636357225</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -13583,7 +13613,7 @@
         <v>228</v>
       </c>
       <c r="D18">
-        <v>11430532.80615333</v>
+        <v>11281586.91395062</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13595,7 +13625,7 @@
         <v>228</v>
       </c>
       <c r="D19">
-        <v>123006.1352112938</v>
+        <v>121403.3001671049</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -13607,7 +13637,7 @@
         <v>228</v>
       </c>
       <c r="D20">
-        <v>16131.95215885821</v>
+        <v>15921.74428421048</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -13619,7 +13649,7 @@
         <v>228</v>
       </c>
       <c r="D21">
-        <v>31457.3067097735</v>
+        <v>31047.40135421043</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -13631,7 +13661,7 @@
         <v>228</v>
       </c>
       <c r="D22">
-        <v>2315837.272193965</v>
+        <v>2312733.711193423</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -13657,7 +13687,7 @@
         <v>238</v>
       </c>
       <c r="D26">
-        <v>1185.991352774722</v>
+        <v>1186.002073946355</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13671,7 +13701,7 @@
         <v>228</v>
       </c>
       <c r="D27">
-        <v>67996.20697150748</v>
+        <v>67996.6372432886</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13683,7 +13713,7 @@
         <v>228</v>
       </c>
       <c r="D28">
-        <v>2867.615653922742</v>
+        <v>2867.636392132502</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13695,7 +13725,7 @@
         <v>228</v>
       </c>
       <c r="D29">
-        <v>21266.51990169647</v>
+        <v>21266.61602444395</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13718,7 +13748,7 @@
         <v>214</v>
       </c>
       <c r="D33">
-        <v>9930.434568241539</v>
+        <v>9930.489463772054</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -13732,7 +13762,7 @@
         <v>228</v>
       </c>
       <c r="D34">
-        <v>6395696.383675963</v>
+        <v>6395731.739142391</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -13798,7 +13828,7 @@
         <v>246</v>
       </c>
       <c r="D43">
-        <v>61582.93661798118</v>
+        <v>60718.68606134297</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -13812,7 +13842,7 @@
         <v>228</v>
       </c>
       <c r="D44">
-        <v>303068.4593771751</v>
+        <v>300084.8846785455</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -13824,7 +13854,7 @@
         <v>228</v>
       </c>
       <c r="D45">
-        <v>50164.8174865181</v>
+        <v>49600.81502619669</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -13850,7 +13880,7 @@
         <v>238</v>
       </c>
       <c r="D49">
-        <v>142.2965296822202</v>
+        <v>142.2973890699943</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -13864,7 +13894,7 @@
         <v>228</v>
       </c>
       <c r="D50">
-        <v>100832.4286218063</v>
+        <v>100832.8548996267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -13876,7 +13906,7 @@
         <v>228</v>
       </c>
       <c r="D51">
-        <v>2925.647382269893</v>
+        <v>2925.661517619948</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -13888,7 +13918,7 @@
         <v>228</v>
       </c>
       <c r="D52">
-        <v>9954.622393719332</v>
+        <v>9954.652453721092</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -13900,7 +13930,7 @@
         <v>228</v>
       </c>
       <c r="D53">
-        <v>30062.1917185513</v>
+        <v>30062.30065324794</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -13932,10 +13962,10 @@
         <v>1</v>
       </c>
       <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57">
         <v>2</v>
-      </c>
-      <c r="F57">
-        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -13944,13 +13974,13 @@
         <v>249</v>
       </c>
       <c r="D58">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E58">
+        <v>41</v>
+      </c>
+      <c r="F58">
         <v>22</v>
-      </c>
-      <c r="F58">
-        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -13959,16 +13989,16 @@
         <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D59">
-        <v>0.3342914340295329</v>
+        <v>0.385859797590119</v>
       </c>
       <c r="E59">
-        <v>0.6470277330768888</v>
+        <v>1.276070118527876</v>
       </c>
       <c r="F59">
-        <v>1.276063143674178</v>
+        <v>0.6470300263432489</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -13977,16 +14007,16 @@
         <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D60">
-        <v>0.3510060057310095</v>
+        <v>0.405152787469625</v>
       </c>
       <c r="E60">
-        <v>0.6793791197307333</v>
+        <v>1.33987362445427</v>
       </c>
       <c r="F60">
-        <v>1.339866300857887</v>
+        <v>0.6793815276604114</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -13995,10 +14025,10 @@
         <v>252</v>
       </c>
       <c r="D61">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -14006,1136 +14036,1147 @@
       <c r="B62" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C62" t="s">
-        <v>225</v>
-      </c>
       <c r="D62">
-        <v>109.936416</v>
+        <v>87</v>
       </c>
       <c r="F62">
-        <v>101.080416</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
         <v>225</v>
       </c>
       <c r="D63">
-        <v>2.99792</v>
+        <v>13.996416</v>
       </c>
       <c r="F63">
-        <v>3.729631165929854</v>
+        <v>16.948416</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D64">
-        <v>1.125</v>
+        <v>140.932416</v>
       </c>
       <c r="F64">
-        <v>0.75</v>
+        <v>64.18041599999999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65">
-        <v>51082.24699436999</v>
+        <v>5.769535935170159</v>
       </c>
       <c r="F65">
-        <v>38695.0882614455</v>
+        <v>7.579145053600977</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D66">
-        <v>60828.59106274766</v>
+        <v>2.99792</v>
       </c>
       <c r="F66">
-        <v>63551.69994997628</v>
+        <v>8.977688149007955</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D67">
-        <v>348818.5213161081</v>
+        <v>0.3125</v>
       </c>
       <c r="F67">
-        <v>306611.4465655746</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68">
-        <v>5046.15245380719</v>
-      </c>
-      <c r="E68">
-        <v>95913.8030212552</v>
+        <v>1.75</v>
       </c>
       <c r="F68">
-        <v>75242.51976241112</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69">
+        <v>25189.77016829642</v>
+      </c>
+      <c r="F69">
+        <v>10024.01923940197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70">
+        <v>103094.6428787647</v>
+      </c>
+      <c r="F70">
+        <v>36794.5365369655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" t="s">
         <v>228</v>
       </c>
-      <c r="D69">
-        <v>5945.351547653983</v>
-      </c>
-      <c r="E69">
-        <v>798228.1292644773</v>
-      </c>
-      <c r="F69">
-        <v>87478.75964474813</v>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>9010.615981175497</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72">
+        <v>88610.51341639143</v>
+      </c>
+      <c r="F72">
+        <v>90838.44269860059</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="D73">
-        <v>3584.425234220425</v>
+        <v>194266.1681659037</v>
+      </c>
+      <c r="F73">
+        <v>126009.6762318176</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="D74">
-        <v>89.91666666666667</v>
+        <v>539766.8531757435</v>
+      </c>
+      <c r="F74">
+        <v>315159.1389470186</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="D75">
-        <v>6.916666666666666</v>
+        <v>79559.69970027734</v>
+      </c>
+      <c r="E75">
+        <v>75242.917601279</v>
+      </c>
+      <c r="F75">
+        <v>95913.96948307984</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>261</v>
+        <v>233</v>
+      </c>
+      <c r="C76" t="s">
+        <v>228</v>
       </c>
       <c r="D76">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77">
-        <v>46176087.14099264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C78" t="s">
-        <v>270</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
+        <v>142182.3422771376</v>
+      </c>
+      <c r="E76">
+        <v>87479.79687231038</v>
+      </c>
+      <c r="F76">
+        <v>798230.8621195819</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D79">
-        <v>0.9</v>
+      <c r="A79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="D80">
-        <v>190570.83077403</v>
+        <v>3584.44524605121</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="D81">
-        <v>11610239.77956619</v>
+        <v>89.91666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="D82">
-        <v>722200.9341554798</v>
+        <v>6.916666666666666</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="D83">
-        <v>443070.5151834512</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84">
+        <v>46176087.14099264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>23</v>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86">
+        <v>0.9</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D87">
-        <v>51.87731940674384</v>
-      </c>
-      <c r="E87">
-        <v>371.2894770203915</v>
-      </c>
-      <c r="F87">
-        <v>824.1385547925145</v>
-      </c>
-      <c r="G87">
-        <v>871.0980751066345</v>
-      </c>
-      <c r="H87">
-        <v>472.2561008827879</v>
-      </c>
-      <c r="I87">
-        <v>1801.558842227835</v>
-      </c>
-      <c r="J87">
-        <v>1709.294163704897</v>
-      </c>
-      <c r="K87">
-        <v>12091.13431366226</v>
+        <v>190570.83077403</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="D88">
-        <v>0.5</v>
-      </c>
-      <c r="E88">
-        <v>0.5</v>
-      </c>
-      <c r="F88">
-        <v>0.5</v>
-      </c>
-      <c r="G88">
-        <v>0.5</v>
-      </c>
-      <c r="H88">
-        <v>0.5</v>
-      </c>
-      <c r="I88">
-        <v>0.5</v>
-      </c>
-      <c r="J88">
-        <v>0.5</v>
-      </c>
-      <c r="K88">
-        <v>0.5</v>
+        <v>11610272.18948052</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="D89">
-        <v>102.3082767113998</v>
-      </c>
-      <c r="E89">
-        <v>35.96546232287139</v>
-      </c>
-      <c r="F89">
-        <v>21.09040727674859</v>
-      </c>
-      <c r="G89">
-        <v>8.968797108954364</v>
-      </c>
-      <c r="H89">
-        <v>14.93021158487228</v>
-      </c>
-      <c r="I89">
-        <v>44.74434810633918</v>
-      </c>
-      <c r="J89">
-        <v>18.96816398510796</v>
-      </c>
-      <c r="K89">
-        <v>15.47160317406087</v>
+        <v>722202.9501750325</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+      <c r="C90" t="s">
+        <v>228</v>
       </c>
       <c r="D90">
-        <v>0.9999999999999369</v>
-      </c>
-      <c r="E90">
+        <v>443071.9993782712</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94">
+        <v>51.87796951045812</v>
+      </c>
+      <c r="E94">
+        <v>371.3215697228824</v>
+      </c>
+      <c r="F94">
+        <v>871.0241841080083</v>
+      </c>
+      <c r="G94">
+        <v>1709.281102506295</v>
+      </c>
+      <c r="H94">
+        <v>472.2388480221064</v>
+      </c>
+      <c r="I94">
+        <v>824.2399288222554</v>
+      </c>
+      <c r="J94">
+        <v>12091.21932749524</v>
+      </c>
+      <c r="K94">
+        <v>29448.11509096563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" t="s">
+        <v>291</v>
+      </c>
+      <c r="D95">
+        <v>0.5</v>
+      </c>
+      <c r="E95">
+        <v>0.5</v>
+      </c>
+      <c r="F95">
+        <v>0.5</v>
+      </c>
+      <c r="G95">
+        <v>0.5</v>
+      </c>
+      <c r="H95">
+        <v>0.5</v>
+      </c>
+      <c r="I95">
+        <v>0.5</v>
+      </c>
+      <c r="J95">
+        <v>0.5</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96">
+        <v>102.3083022856765</v>
+      </c>
+      <c r="E96">
+        <v>35.96546232287139</v>
+      </c>
+      <c r="F96">
+        <v>8.968797108954364</v>
+      </c>
+      <c r="G96">
+        <v>18.96801364521412</v>
+      </c>
+      <c r="H96">
+        <v>14.93020413131316</v>
+      </c>
+      <c r="I96">
+        <v>21.08977516921783</v>
+      </c>
+      <c r="J96">
+        <v>15.47158142428043</v>
+      </c>
+      <c r="K96">
+        <v>12.76310615084025</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97">
+        <v>0.9999999999999952</v>
+      </c>
+      <c r="E97">
         <v>0.9482041545059831</v>
       </c>
-      <c r="F90">
+      <c r="F97">
+        <v>0.9467929560939012</v>
+      </c>
+      <c r="G97">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="H97">
+        <v>0.9222910375435875</v>
+      </c>
+      <c r="I97">
         <v>1</v>
       </c>
-      <c r="G90">
-        <v>0.946786682984018</v>
-      </c>
-      <c r="H90">
-        <v>0.9222910578338577</v>
-      </c>
-      <c r="I90">
-        <v>0.9532523453634423</v>
-      </c>
-      <c r="J90">
+      <c r="J97">
         <v>1</v>
       </c>
-      <c r="K90">
+      <c r="K97">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C91" t="s">
-        <v>283</v>
-      </c>
-      <c r="D91">
+    <row r="98" spans="1:11">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C98" t="s">
+        <v>293</v>
+      </c>
+      <c r="D98">
         <v>1.5</v>
       </c>
-      <c r="E91">
+      <c r="E98">
         <v>1.5</v>
       </c>
-      <c r="F91">
+      <c r="F98">
         <v>5</v>
       </c>
-      <c r="G91">
+      <c r="G98">
+        <v>1.5</v>
+      </c>
+      <c r="H98">
+        <v>1.5</v>
+      </c>
+      <c r="I98">
         <v>5</v>
       </c>
-      <c r="H91">
+      <c r="J98">
+        <v>5</v>
+      </c>
+      <c r="K98">
         <v>1.5</v>
       </c>
-      <c r="I91">
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
         <v>1.5</v>
       </c>
-      <c r="J91">
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99">
         <v>1.5</v>
       </c>
-      <c r="K91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" t="s">
-        <v>283</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
-      </c>
-      <c r="F92">
-        <v>1.5</v>
-      </c>
-      <c r="G92">
-        <v>5</v>
-      </c>
-      <c r="H92">
-        <v>5</v>
-      </c>
-      <c r="I92">
-        <v>5</v>
-      </c>
-      <c r="J92">
-        <v>3</v>
-      </c>
-      <c r="K92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C93" t="s">
-        <v>283</v>
-      </c>
-      <c r="D93">
-        <v>50.01380310880829</v>
-      </c>
-      <c r="E93">
-        <v>14.7</v>
-      </c>
-      <c r="F93">
-        <v>14.7</v>
-      </c>
-      <c r="G93">
-        <v>14.7</v>
-      </c>
-      <c r="H93">
-        <v>14.7</v>
-      </c>
-      <c r="I93">
-        <v>14.7</v>
-      </c>
-      <c r="J93">
-        <v>2709.531861458823</v>
-      </c>
-      <c r="K93">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94">
-        <v>20</v>
-      </c>
-      <c r="E94">
-        <v>20</v>
-      </c>
-      <c r="F94">
-        <v>20</v>
-      </c>
-      <c r="G94">
-        <v>20</v>
-      </c>
-      <c r="H94">
-        <v>20</v>
-      </c>
-      <c r="I94">
-        <v>20</v>
-      </c>
-      <c r="J94">
-        <v>20</v>
-      </c>
-      <c r="K94">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95">
-        <v>4670.596361043651</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" t="s">
-        <v>285</v>
-      </c>
-      <c r="D99">
-        <v>114.9977242076961</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
       </c>
       <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1" t="s">
+        <v>50.01380310880829</v>
+      </c>
+      <c r="E100">
+        <v>14.7</v>
+      </c>
+      <c r="F100">
+        <v>14.7</v>
+      </c>
+      <c r="G100">
+        <v>2709.531861458823</v>
+      </c>
+      <c r="H100">
+        <v>14.7</v>
+      </c>
+      <c r="I100">
+        <v>14.7</v>
+      </c>
+      <c r="J100">
+        <v>14.7</v>
+      </c>
+      <c r="K100">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>20</v>
+      </c>
+      <c r="J101">
+        <v>20</v>
+      </c>
+      <c r="K101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102">
+        <v>4670.605725771346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C101" t="s">
-        <v>228</v>
-      </c>
-      <c r="D101">
-        <v>621235.868181682</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1" t="s">
+      <c r="D105" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C105" t="s">
-        <v>301</v>
-      </c>
-      <c r="D105">
-        <v>9.56973187761867</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D106">
-        <v>12.83301044788664</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>114.9982950832343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D107" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B108" s="1" t="s">
-        <v>289</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D108">
-        <v>2.301106025017866</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C109" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109">
-        <v>2.301106025017866</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C110" t="s">
-        <v>226</v>
-      </c>
-      <c r="D110">
-        <v>260.84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C111" t="s">
-        <v>227</v>
-      </c>
-      <c r="D111">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1"/>
+        <v>621237.6383727457</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B112" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D112" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>296</v>
+      </c>
+      <c r="C112" t="s">
+        <v>311</v>
+      </c>
+      <c r="D112">
+        <v>9.569788789006449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="D113">
-        <v>27.67810484966423</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>12.83308676605765</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C114" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114">
-        <v>6.919526212416058</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>298</v>
+      </c>
+      <c r="D114" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D115">
-        <v>10447.8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>2.301110586583414</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D116">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>2.301110586583414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
+      </c>
+      <c r="C117" t="s">
+        <v>226</v>
       </c>
       <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>260.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C118" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D118">
-        <v>22887.90371036585</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C119" t="s">
-        <v>228</v>
-      </c>
-      <c r="D119">
-        <v>3378.23628611508</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D119" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120">
+        <v>27.67818715066474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121">
+        <v>6.919546787666184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C122" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122">
+        <v>10447.87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C123" t="s">
-        <v>302</v>
+        <v>227</v>
       </c>
       <c r="D123">
-        <v>70.41546799167509</v>
-      </c>
-      <c r="E123">
-        <v>17.36169516396376</v>
-      </c>
-      <c r="F123">
-        <v>13.74375787153666</v>
-      </c>
-      <c r="G123">
-        <v>17.02844847192707</v>
-      </c>
-      <c r="H123">
-        <v>13.74369720748605</v>
-      </c>
-      <c r="I123">
-        <v>17.09625358051645</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C124" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D124">
-        <v>2053.590632623414</v>
-      </c>
-      <c r="E124">
-        <v>506.3349796864859</v>
-      </c>
-      <c r="F124">
-        <v>400.8217686683386</v>
-      </c>
-      <c r="G124">
-        <v>496.616201914531</v>
-      </c>
-      <c r="H124">
-        <v>400.8199994672011</v>
-      </c>
-      <c r="I124">
-        <v>498.5936642507841</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B125" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
+      </c>
+      <c r="C125" t="s">
+        <v>228</v>
       </c>
       <c r="D125">
-        <v>0.7412592342430225</v>
-      </c>
-      <c r="E125">
-        <v>0.6310933291365095</v>
-      </c>
-      <c r="F125">
-        <v>0.608871185856571</v>
-      </c>
-      <c r="G125">
-        <v>0.6292897915154104</v>
-      </c>
-      <c r="H125">
-        <v>0.6088707563836117</v>
-      </c>
-      <c r="I125">
-        <v>0.629660185152081</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>22887.95502408258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="C126" t="s">
+        <v>228</v>
       </c>
       <c r="D126">
-        <v>94.99438892465697</v>
-      </c>
-      <c r="E126">
-        <v>27.51050337945866</v>
-      </c>
-      <c r="F126">
-        <v>22.57252139826865</v>
-      </c>
-      <c r="G126">
-        <v>27.0597881953883</v>
-      </c>
-      <c r="H126">
-        <v>22.57243768631089</v>
-      </c>
-      <c r="I126">
-        <v>27.15155568616303</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D127">
-        <v>100</v>
-      </c>
-      <c r="E127">
+        <v>3378.238305327909</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F127">
-        <v>25</v>
-      </c>
-      <c r="G127">
-        <v>30</v>
-      </c>
-      <c r="H127">
-        <v>25</v>
-      </c>
-      <c r="I127">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C129" t="s">
-        <v>225</v>
-      </c>
-      <c r="D129">
-        <v>192.6586243957618</v>
-      </c>
-      <c r="E129">
-        <v>291.5307111052964</v>
-      </c>
-      <c r="F129">
-        <v>298.9006384006789</v>
-      </c>
-      <c r="G129">
-        <v>294.3262423511411</v>
-      </c>
-      <c r="H129">
-        <v>298.900843083742</v>
-      </c>
-      <c r="I129">
-        <v>366.0734380696719</v>
+      <c r="G129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B130" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D130" t="s">
-        <v>313</v>
-      </c>
-      <c r="E130" t="s">
-        <v>313</v>
-      </c>
-      <c r="F130" t="s">
-        <v>313</v>
-      </c>
-      <c r="G130" t="s">
-        <v>313</v>
-      </c>
-      <c r="H130" t="s">
-        <v>313</v>
-      </c>
-      <c r="I130" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="C130" t="s">
+        <v>312</v>
+      </c>
+      <c r="D130">
+        <v>17.02853412633985</v>
+      </c>
+      <c r="E130">
+        <v>70.41586112093236</v>
+      </c>
+      <c r="F130">
+        <v>17.36178135146999</v>
+      </c>
+      <c r="G130">
+        <v>13.74384275815515</v>
+      </c>
+      <c r="H130">
+        <v>17.09635606003176</v>
+      </c>
+      <c r="I130">
+        <v>13.74377899447166</v>
       </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="D131">
-        <v>39820.75463729655</v>
+        <v>496.6186999324346</v>
       </c>
       <c r="E131">
-        <v>14261.78928948614</v>
+        <v>2053.602097811151</v>
       </c>
       <c r="F131">
-        <v>13057.30703084079</v>
+        <v>506.3374932514807</v>
       </c>
       <c r="G131">
-        <v>14175.23048398615</v>
+        <v>400.8242442943555</v>
       </c>
       <c r="H131">
-        <v>13057.28683768313</v>
+        <v>498.5966529545259</v>
       </c>
       <c r="I131">
-        <v>14873.22552797977</v>
+        <v>400.8223846957923</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C132" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="D132">
-        <v>4820.539611345683</v>
+        <v>0.6292902605342755</v>
       </c>
       <c r="E132">
-        <v>1325.420355284472</v>
+        <v>0.7412595904297651</v>
       </c>
       <c r="F132">
-        <v>1132.753107661787</v>
+        <v>0.6310937901684546</v>
       </c>
       <c r="G132">
-        <v>1325.420355284472</v>
+        <v>0.6088717868101305</v>
       </c>
       <c r="H132">
-        <v>1132.753107661787</v>
+        <v>0.6296607436174908</v>
       </c>
       <c r="I132">
-        <v>1325.420355284472</v>
+        <v>0.6088713353964902</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133">
+        <v>27.05990414007426</v>
+      </c>
+      <c r="E133">
+        <v>94.99487363139124</v>
+      </c>
+      <c r="F133">
+        <v>27.510619850713</v>
+      </c>
+      <c r="G133">
+        <v>22.57263853554279</v>
+      </c>
+      <c r="H133">
+        <v>27.15169435815667</v>
+      </c>
+      <c r="I133">
+        <v>22.57255054636768</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D134">
+        <v>30</v>
+      </c>
+      <c r="E134">
+        <v>100</v>
+      </c>
+      <c r="F134">
+        <v>30</v>
+      </c>
+      <c r="G134">
+        <v>25</v>
+      </c>
+      <c r="H134">
+        <v>30</v>
+      </c>
+      <c r="I134">
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>34</v>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="D136">
-        <v>466.4071389106095</v>
+        <v>294.326015318584</v>
+      </c>
+      <c r="E136">
+        <v>192.6585325533822</v>
+      </c>
+      <c r="F136">
+        <v>291.5304972667875</v>
+      </c>
+      <c r="G136">
+        <v>298.9003145945514</v>
+      </c>
+      <c r="H136">
+        <v>366.0731134468218</v>
+      </c>
+      <c r="I136">
+        <v>298.9005594584461</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D137">
-        <v>3</v>
+        <v>320</v>
+      </c>
+      <c r="D137" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" t="s">
+        <v>323</v>
+      </c>
+      <c r="F137" t="s">
+        <v>323</v>
+      </c>
+      <c r="G137" t="s">
+        <v>323</v>
+      </c>
+      <c r="H137" t="s">
+        <v>323</v>
+      </c>
+      <c r="I137" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -15143,120 +15184,90 @@
         <v>212</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C138" t="s">
         <v>228</v>
       </c>
       <c r="D138">
-        <v>1649327.842540777</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>41</v>
+        <v>14175.2578351335</v>
+      </c>
+      <c r="E138">
+        <v>39820.88736623073</v>
+      </c>
+      <c r="F138">
+        <v>14261.81669482877</v>
+      </c>
+      <c r="G138">
+        <v>13057.3349766362</v>
+      </c>
+      <c r="H138">
+        <v>14873.26143614959</v>
+      </c>
+      <c r="I138">
+        <v>13057.31399834124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139">
+        <v>1325.420355284472</v>
+      </c>
+      <c r="E139">
+        <v>4820.539611345683</v>
+      </c>
+      <c r="F139">
+        <v>1325.420355284472</v>
+      </c>
+      <c r="G139">
+        <v>1132.753107661787</v>
+      </c>
+      <c r="H139">
+        <v>1325.420355284472</v>
+      </c>
+      <c r="I139">
+        <v>1132.753107661787</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" t="s">
-        <v>270</v>
-      </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142">
-        <v>168</v>
-      </c>
-      <c r="F142">
-        <v>0.25</v>
-      </c>
-      <c r="G142">
-        <v>168</v>
-      </c>
-      <c r="H142">
-        <v>168</v>
-      </c>
-      <c r="I142">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>315</v>
+        <v>231</v>
       </c>
       <c r="C143" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D143">
-        <v>932.8142778212192</v>
-      </c>
-      <c r="E143">
-        <v>10.91108394580406</v>
-      </c>
-      <c r="F143">
-        <v>22.7584470059243</v>
-      </c>
-      <c r="G143">
-        <v>776.1937578314416</v>
-      </c>
-      <c r="H143">
-        <v>2299.523034642604</v>
-      </c>
-      <c r="I143">
-        <v>0.5634192121299422</v>
+        <v>466.4097428596755</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -15264,40 +15275,40 @@
         <v>212</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="C145" t="s">
         <v>228</v>
       </c>
       <c r="D145">
-        <v>230108.2083987516</v>
-      </c>
-      <c r="E145">
-        <v>72078.75289322039</v>
-      </c>
-      <c r="F145">
-        <v>74109.58687449431</v>
-      </c>
-      <c r="G145">
-        <v>469048.6814013057</v>
-      </c>
-      <c r="H145">
-        <v>813492.2165514919</v>
-      </c>
-      <c r="I145">
-        <v>70304.99200977857</v>
+        <v>1649333.128035727</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -15305,33 +15316,78 @@
         <v>211</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C149" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D149">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>168</v>
+      </c>
+      <c r="F149">
+        <v>168</v>
+      </c>
+      <c r="G149">
+        <v>168</v>
+      </c>
+      <c r="H149">
+        <v>0.25</v>
+      </c>
+      <c r="I149">
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D150">
-        <v>11.49977242076961</v>
+        <v>932.8194857193512</v>
+      </c>
+      <c r="E150">
+        <v>10.91108394580406</v>
+      </c>
+      <c r="F150">
+        <v>776.2608487588369</v>
+      </c>
+      <c r="G150">
+        <v>2299.736961653589</v>
+      </c>
+      <c r="H150">
+        <v>22.75858757065385</v>
+      </c>
+      <c r="I150">
+        <v>0.5634225770413331</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>1</v>
       </c>
     </row>
@@ -15340,13 +15396,89 @@
         <v>212</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C152" t="s">
         <v>228</v>
       </c>
       <c r="D152">
-        <v>72179.66383460691</v>
+        <v>230109.101118629</v>
+      </c>
+      <c r="E152">
+        <v>72078.75289322039</v>
+      </c>
+      <c r="F152">
+        <v>469069.2360602511</v>
+      </c>
+      <c r="G152">
+        <v>813530.5854437763</v>
+      </c>
+      <c r="H152">
+        <v>74109.61096961386</v>
+      </c>
+      <c r="I152">
+        <v>70304.99258658003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C156" t="s">
+        <v>280</v>
+      </c>
+      <c r="D156">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C157" t="s">
+        <v>311</v>
+      </c>
+      <c r="D157">
+        <v>11.49982950832343</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C159" t="s">
+        <v>228</v>
+      </c>
+      <c r="D159">
+        <v>72179.67362035783</v>
       </c>
     </row>
   </sheetData>
@@ -15358,19 +15490,19 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A87:A94"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A105:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A112:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A143:A144"/>
     <mergeCell ref="A149:A151"/>
+    <mergeCell ref="A156:A158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
